--- a/Chi tiêu.xlsx
+++ b/Chi tiêu.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KẾ HOẠCH\YOLO-S-FASHION\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KẾ HOẠCH\Yolo-Fashion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{297A7E7E-390E-48B9-ADC0-6999323C0929}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38126FCE-495F-4634-B411-B6124C71B22C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Tên</t>
   </si>
@@ -46,13 +46,40 @@
   </si>
   <si>
     <t>Số tiền vốn</t>
+  </si>
+  <si>
+    <t>2k like fapage</t>
+  </si>
+  <si>
+    <t>1k follow tiktok</t>
+  </si>
+  <si>
+    <t>500 follow insta</t>
+  </si>
+  <si>
+    <t>Số tiền còn lại</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>TỔNG</t>
+  </si>
+  <si>
+    <t>THẢO NGUYÊN</t>
+  </si>
+  <si>
+    <t>NGỌC HÀ</t>
+  </si>
+  <si>
+    <t>PHƯƠNG HÀ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -60,13 +87,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -81,8 +120,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -98,6 +138,20 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A52D2C41-0280-4D2F-914D-B4ECECDC90F5}" name="Table1" displayName="Table1" ref="K1:N9" totalsRowCount="1">
+  <tableColumns count="4">
+    <tableColumn id="5" xr3:uid="{F4B9908A-F08F-4505-AD3C-F5F4F7C8C149}" name="Column1"/>
+    <tableColumn id="1" xr3:uid="{04EB296B-B4C8-4FA6-93F6-0F295DECB76C}" name="NGỌC HÀ"/>
+    <tableColumn id="2" xr3:uid="{D33B723B-1CB5-4499-8F71-40EA7E55E1F0}" name="THẢO NGUYÊN"/>
+    <tableColumn id="3" xr3:uid="{9DF80182-5350-4DF5-AB37-0D7C3613C6DC}" name="PHƯƠNG HÀ" totalsRowFunction="custom">
+      <totalsRowFormula>SUM(L8:N8)</totalsRowFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -363,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -376,9 +430,13 @@
     <col min="4" max="4" width="11.6328125" customWidth="1"/>
     <col min="5" max="5" width="12.90625" customWidth="1"/>
     <col min="8" max="8" width="14.54296875" customWidth="1"/>
+    <col min="11" max="11" width="18.08984375" customWidth="1"/>
+    <col min="12" max="12" width="14.90625" customWidth="1"/>
+    <col min="13" max="13" width="17.81640625" customWidth="1"/>
+    <col min="14" max="14" width="15.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -391,14 +449,27 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1">
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I1" s="1">
+        <f>Table1[[#Totals],[PHƯƠNG HÀ]]</f>
+        <v>1200000</v>
+      </c>
+      <c r="K1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -414,8 +485,16 @@
       <c r="E2">
         <v>130000</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="L2">
+        <v>500000</v>
+      </c>
+      <c r="M2">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -431,54 +510,124 @@
       <c r="E3">
         <v>777000</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="1">
+        <f>I1-E12</f>
+        <v>93000</v>
+      </c>
+      <c r="L3">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <v>60000</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>80000</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6">
+        <v>60000</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K8" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8">
+        <f xml:space="preserve"> SUM(L2:L7)</f>
+        <v>700000</v>
+      </c>
+      <c r="M8">
+        <f>SUM(M2:M7)</f>
+        <v>500000</v>
+      </c>
+      <c r="N8">
+        <f>SUM(N2:N7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="N9">
+        <f>SUM(L8:N8)</f>
+        <v>1200000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="E12">
         <f>(E2+E3+E4+E5+E6+E7+E8+E9+E10+E11)</f>
-        <v>907000</v>
+        <v>1107000</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Chi tiêu.xlsx
+++ b/Chi tiêu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KẾ HOẠCH\Yolo-Fashion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38126FCE-495F-4634-B411-B6124C71B22C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81EBD212-3D42-4CA9-BC94-4A8E6DF6AD4E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Tên</t>
   </si>
@@ -73,6 +73,9 @@
   </si>
   <si>
     <t>PHƯƠNG HÀ</t>
+  </si>
+  <si>
+    <t>chạy thử view tiktok</t>
   </si>
 </sst>
 </file>
@@ -419,8 +422,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -515,7 +518,7 @@
       </c>
       <c r="I3" s="1">
         <f>I1-E12</f>
-        <v>93000</v>
+        <v>83000</v>
       </c>
       <c r="L3">
         <v>200000</v>
@@ -576,6 +579,18 @@
       <c r="A7">
         <v>6</v>
       </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7">
+        <v>10000</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>10000</v>
+      </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8">
@@ -619,7 +634,7 @@
     <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="E12">
         <f>(E2+E3+E4+E5+E6+E7+E8+E9+E10+E11)</f>
-        <v>1107000</v>
+        <v>1117000</v>
       </c>
     </row>
   </sheetData>

--- a/Chi tiêu.xlsx
+++ b/Chi tiêu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KẾ HOẠCH\Yolo-Fashion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81EBD212-3D42-4CA9-BC94-4A8E6DF6AD4E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7F2ED3B-AD52-404E-9A5B-A57E64E2B1CB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>Tên</t>
   </si>
@@ -76,6 +76,9 @@
   </si>
   <si>
     <t>chạy thử view tiktok</t>
+  </si>
+  <si>
+    <t>Chạy quảng cáo like68</t>
   </si>
 </sst>
 </file>
@@ -420,10 +423,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -517,8 +520,8 @@
         <v>10</v>
       </c>
       <c r="I3" s="1">
-        <f>I1-E12</f>
-        <v>83000</v>
+        <f>I1-E22</f>
+        <v>33000</v>
       </c>
       <c r="L3">
         <v>200000</v>
@@ -596,6 +599,18 @@
       <c r="A8">
         <v>7</v>
       </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8">
+        <v>50000</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>50000</v>
+      </c>
       <c r="K8" t="s">
         <v>12</v>
       </c>
@@ -632,9 +647,62 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="E12">
-        <f>(E2+E3+E4+E5+E6+E7+E8+E9+E10+E11)</f>
-        <v>1117000</v>
+      <c r="A12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22">
+        <f xml:space="preserve"> SUM(E2:E21)</f>
+        <v>1167000</v>
       </c>
     </row>
   </sheetData>

--- a/Chi tiêu.xlsx
+++ b/Chi tiêu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KẾ HOẠCH\Yolo-Fashion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7F2ED3B-AD52-404E-9A5B-A57E64E2B1CB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EF89771-5205-4ADD-891D-CCB0EB168BF1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>Tên</t>
   </si>
@@ -79,6 +79,15 @@
   </si>
   <si>
     <t>Chạy quảng cáo like68</t>
+  </si>
+  <si>
+    <t>2k fl tiktok</t>
+  </si>
+  <si>
+    <t>3k fb</t>
+  </si>
+  <si>
+    <t>1k insta</t>
   </si>
 </sst>
 </file>
@@ -425,8 +434,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -460,7 +469,7 @@
       </c>
       <c r="I1" s="1">
         <f>Table1[[#Totals],[PHƯƠNG HÀ]]</f>
-        <v>1200000</v>
+        <v>1400000</v>
       </c>
       <c r="K1" t="s">
         <v>11</v>
@@ -521,9 +530,12 @@
       </c>
       <c r="I3" s="1">
         <f>I1-E22</f>
-        <v>33000</v>
+        <v>23000</v>
       </c>
       <c r="L3">
+        <v>200000</v>
+      </c>
+      <c r="M3">
         <v>200000</v>
       </c>
     </row>
@@ -620,7 +632,7 @@
       </c>
       <c r="M8">
         <f>SUM(M2:M7)</f>
-        <v>500000</v>
+        <v>700000</v>
       </c>
       <c r="N8">
         <f>SUM(N2:N7)</f>
@@ -631,20 +643,58 @@
       <c r="A9">
         <v>8</v>
       </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9">
+        <v>45000</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <f>C9*D9</f>
+        <v>90000</v>
+      </c>
       <c r="N9">
         <f>SUM(L8:N8)</f>
-        <v>1200000</v>
+        <v>1400000</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10">
+        <v>25000</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10">
+        <f>C10*D10</f>
+        <v>75000</v>
+      </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11">
+        <v>50000</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>45000</v>
+      </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12">
@@ -702,7 +752,7 @@
       </c>
       <c r="E22">
         <f xml:space="preserve"> SUM(E2:E21)</f>
-        <v>1167000</v>
+        <v>1377000</v>
       </c>
     </row>
   </sheetData>

--- a/Chi tiêu.xlsx
+++ b/Chi tiêu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KẾ HOẠCH\Yolo-Fashion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EF89771-5205-4ADD-891D-CCB0EB168BF1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B55CA15-4125-4D96-825C-265386CCA09F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -434,8 +434,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -469,7 +469,7 @@
       </c>
       <c r="I1" s="1">
         <f>Table1[[#Totals],[PHƯƠNG HÀ]]</f>
-        <v>1400000</v>
+        <v>1865000</v>
       </c>
       <c r="K1" t="s">
         <v>11</v>
@@ -508,6 +508,9 @@
       <c r="M2">
         <v>500000</v>
       </c>
+      <c r="N2">
+        <v>465000</v>
+      </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3">
@@ -530,7 +533,7 @@
       </c>
       <c r="I3" s="1">
         <f>I1-E22</f>
-        <v>23000</v>
+        <v>488000</v>
       </c>
       <c r="L3">
         <v>200000</v>
@@ -636,7 +639,7 @@
       </c>
       <c r="N8">
         <f>SUM(N2:N7)</f>
-        <v>0</v>
+        <v>465000</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.35">
@@ -658,7 +661,7 @@
       </c>
       <c r="N9">
         <f>SUM(L8:N8)</f>
-        <v>1400000</v>
+        <v>1865000</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.35">

--- a/Chi tiêu.xlsx
+++ b/Chi tiêu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KẾ HOẠCH\Yolo-Fashion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B55CA15-4125-4D96-825C-265386CCA09F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4C6E71D-6105-4593-92D5-F39190F878CB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -435,7 +435,7 @@
   <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -469,7 +469,7 @@
       </c>
       <c r="I1" s="1">
         <f>Table1[[#Totals],[PHƯƠNG HÀ]]</f>
-        <v>1865000</v>
+        <v>1900000</v>
       </c>
       <c r="K1" t="s">
         <v>11</v>
@@ -509,7 +509,7 @@
         <v>500000</v>
       </c>
       <c r="N2">
-        <v>465000</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.35">
@@ -533,7 +533,7 @@
       </c>
       <c r="I3" s="1">
         <f>I1-E22</f>
-        <v>488000</v>
+        <v>523000</v>
       </c>
       <c r="L3">
         <v>200000</v>
@@ -639,7 +639,7 @@
       </c>
       <c r="N8">
         <f>SUM(N2:N7)</f>
-        <v>465000</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.35">
@@ -661,7 +661,7 @@
       </c>
       <c r="N9">
         <f>SUM(L8:N8)</f>
-        <v>1865000</v>
+        <v>1900000</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.35">

--- a/Chi tiêu.xlsx
+++ b/Chi tiêu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KẾ HOẠCH\Yolo-Fashion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4C6E71D-6105-4593-92D5-F39190F878CB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42BB41EF-72CD-473C-9CFE-5381735D6D01}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>Tên</t>
   </si>
@@ -88,6 +88,9 @@
   </si>
   <si>
     <t>1k insta</t>
+  </si>
+  <si>
+    <t>Chạy like68</t>
   </si>
 </sst>
 </file>
@@ -434,8 +437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -533,7 +536,7 @@
       </c>
       <c r="I3" s="1">
         <f>I1-E22</f>
-        <v>523000</v>
+        <v>473000</v>
       </c>
       <c r="L3">
         <v>200000</v>
@@ -703,6 +706,18 @@
       <c r="A12">
         <v>11</v>
       </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12">
+        <v>50000</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>50000</v>
+      </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13">
@@ -755,7 +770,7 @@
       </c>
       <c r="E22">
         <f xml:space="preserve"> SUM(E2:E21)</f>
-        <v>1377000</v>
+        <v>1427000</v>
       </c>
     </row>
   </sheetData>

--- a/Chi tiêu.xlsx
+++ b/Chi tiêu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KẾ HOẠCH\Yolo-Fashion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42BB41EF-72CD-473C-9CFE-5381735D6D01}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AC9AF16-989E-447E-BAB7-A4A81DE64C1E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>Tên</t>
   </si>
@@ -91,6 +91,9 @@
   </si>
   <si>
     <t>Chạy like68</t>
+  </si>
+  <si>
+    <t>1 tháng đăng bài group</t>
   </si>
 </sst>
 </file>
@@ -437,8 +440,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -536,7 +539,7 @@
       </c>
       <c r="I3" s="1">
         <f>I1-E22</f>
-        <v>473000</v>
+        <v>173000</v>
       </c>
       <c r="L3">
         <v>200000</v>
@@ -723,6 +726,18 @@
       <c r="A13">
         <v>12</v>
       </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13">
+        <v>300000</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>300000</v>
+      </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14">
@@ -770,7 +785,7 @@
       </c>
       <c r="E22">
         <f xml:space="preserve"> SUM(E2:E21)</f>
-        <v>1427000</v>
+        <v>1727000</v>
       </c>
     </row>
   </sheetData>

--- a/Chi tiêu.xlsx
+++ b/Chi tiêu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KẾ HOẠCH\Yolo-Fashion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AC9AF16-989E-447E-BAB7-A4A81DE64C1E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7D035C7-FFE8-49C3-B844-096E0D2BFEBA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -441,7 +441,7 @@
   <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -475,7 +475,7 @@
       </c>
       <c r="I1" s="1">
         <f>Table1[[#Totals],[PHƯƠNG HÀ]]</f>
-        <v>1900000</v>
+        <v>2100000</v>
       </c>
       <c r="K1" t="s">
         <v>11</v>
@@ -539,12 +539,15 @@
       </c>
       <c r="I3" s="1">
         <f>I1-E22</f>
-        <v>173000</v>
+        <v>373000</v>
       </c>
       <c r="L3">
         <v>200000</v>
       </c>
       <c r="M3">
+        <v>200000</v>
+      </c>
+      <c r="N3">
         <v>200000</v>
       </c>
     </row>
@@ -645,7 +648,7 @@
       </c>
       <c r="N8">
         <f>SUM(N2:N7)</f>
-        <v>500000</v>
+        <v>700000</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.35">
@@ -667,7 +670,7 @@
       </c>
       <c r="N9">
         <f>SUM(L8:N8)</f>
-        <v>1900000</v>
+        <v>2100000</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.35">

--- a/Chi tiêu.xlsx
+++ b/Chi tiêu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KẾ HOẠCH\Yolo-Fashion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7D035C7-FFE8-49C3-B844-096E0D2BFEBA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85C01679-DEC2-474C-A858-400FECD25619}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
   <si>
     <t>Tên</t>
   </si>
@@ -57,9 +57,6 @@
     <t>500 follow insta</t>
   </si>
   <si>
-    <t>Số tiền còn lại</t>
-  </si>
-  <si>
     <t>Column1</t>
   </si>
   <si>
@@ -94,13 +91,37 @@
   </si>
   <si>
     <t>1 tháng đăng bài group</t>
+  </si>
+  <si>
+    <t>BẢNG CHI TIÊU THƯỜNG NGÀY</t>
+  </si>
+  <si>
+    <t>BẢNG CHI TIÊU NHẬP HÀNG TỪNG ĐỢT</t>
+  </si>
+  <si>
+    <t>ĐỢT</t>
+  </si>
+  <si>
+    <t>VỐN</t>
+  </si>
+  <si>
+    <t>SHIP</t>
+  </si>
+  <si>
+    <t>STT</t>
+  </si>
+  <si>
+    <t>9-13/2/2022</t>
+  </si>
+  <si>
+    <t>Còn lại (14/2)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,8 +135,32 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -128,8 +173,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -137,13 +188,98 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -162,13 +298,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A52D2C41-0280-4D2F-914D-B4ECECDC90F5}" name="Table1" displayName="Table1" ref="K1:N9" totalsRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A52D2C41-0280-4D2F-914D-B4ECECDC90F5}" name="Table1" displayName="Table1" ref="O3:R11" totalsRowCount="1">
   <tableColumns count="4">
     <tableColumn id="5" xr3:uid="{F4B9908A-F08F-4505-AD3C-F5F4F7C8C149}" name="Column1"/>
     <tableColumn id="1" xr3:uid="{04EB296B-B4C8-4FA6-93F6-0F295DECB76C}" name="NGỌC HÀ"/>
     <tableColumn id="2" xr3:uid="{D33B723B-1CB5-4499-8F71-40EA7E55E1F0}" name="THẢO NGUYÊN"/>
     <tableColumn id="3" xr3:uid="{9DF80182-5350-4DF5-AB37-0D7C3613C6DC}" name="PHƯƠNG HÀ" totalsRowFunction="custom">
-      <totalsRowFormula>SUM(L8:N8)</totalsRowFormula>
+      <totalsRowFormula>SUM(P10:R10)</totalsRowFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -438,360 +574,1389 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N22"/>
+  <dimension ref="A1:R88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="21.453125" customWidth="1"/>
-    <col min="3" max="3" width="12.54296875" customWidth="1"/>
-    <col min="4" max="4" width="11.6328125" customWidth="1"/>
-    <col min="5" max="5" width="12.90625" customWidth="1"/>
-    <col min="8" max="8" width="14.54296875" customWidth="1"/>
-    <col min="11" max="11" width="18.08984375" customWidth="1"/>
-    <col min="12" max="12" width="14.90625" customWidth="1"/>
-    <col min="13" max="13" width="17.81640625" customWidth="1"/>
-    <col min="14" max="14" width="15.7265625" customWidth="1"/>
+    <col min="1" max="1" width="4.453125" customWidth="1"/>
+    <col min="2" max="2" width="18.81640625" customWidth="1"/>
+    <col min="3" max="3" width="9.26953125" customWidth="1"/>
+    <col min="4" max="4" width="7.6328125" customWidth="1"/>
+    <col min="5" max="5" width="10.26953125" customWidth="1"/>
+    <col min="7" max="7" width="12.7265625" customWidth="1"/>
+    <col min="10" max="10" width="10.54296875" customWidth="1"/>
+    <col min="11" max="11" width="6.6328125" customWidth="1"/>
+    <col min="12" max="12" width="11.08984375" customWidth="1"/>
+    <col min="14" max="14" width="6.6328125" customWidth="1"/>
+    <col min="15" max="15" width="11.6328125" customWidth="1"/>
+    <col min="16" max="16" width="14.90625" customWidth="1"/>
+    <col min="17" max="17" width="17.81640625" customWidth="1"/>
+    <col min="18" max="18" width="15.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B1" t="s">
+    <row r="1" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="G1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="7"/>
+    </row>
+    <row r="2" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="7"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A3" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="G3" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="5"/>
+      <c r="L3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1">
+      <c r="M3" s="2">
         <f>Table1[[#Totals],[PHƯƠNG HÀ]]</f>
-        <v>2100000</v>
-      </c>
-      <c r="K1" t="s">
+        <v>5100000</v>
+      </c>
+      <c r="O3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P3" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>12</v>
+      </c>
+      <c r="R3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1">
+        <v>130000</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>130000</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="1">
+        <v>4099000</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1">
+        <f>H4:H88+I4:I88</f>
+        <v>4099000</v>
+      </c>
+      <c r="K4" s="5"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="P4">
+        <v>500000</v>
+      </c>
+      <c r="Q4">
+        <v>500000</v>
+      </c>
+      <c r="R4">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1">
+        <v>777000</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>777000</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M5" s="2">
+        <f>M3-E51-2000000</f>
+        <v>1373000</v>
+      </c>
+      <c r="P5">
+        <v>200000</v>
+      </c>
+      <c r="Q5">
+        <v>200000</v>
+      </c>
+      <c r="R5">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1">
+        <v>60000</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
+        <v>60000</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="5"/>
+      <c r="P6">
+        <v>1500000</v>
+      </c>
+      <c r="Q6">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="1">
+        <v>80000</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1">
+        <v>80000</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="5"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="1">
+        <v>60000</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1">
+        <v>60000</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="5"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="5"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="1">
+        <v>50000</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1">
+        <v>50000</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="5"/>
+      <c r="O10" t="s">
         <v>11</v>
       </c>
-      <c r="L1" t="s">
+      <c r="P10">
+        <f xml:space="preserve"> SUM(P4:P9)</f>
+        <v>2200000</v>
+      </c>
+      <c r="Q10">
+        <f>SUM(Q4:Q9)</f>
+        <v>2200000</v>
+      </c>
+      <c r="R10">
+        <f>SUM(R4:R9)</f>
+        <v>700000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
+        <v>8</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="1">
+        <v>45000</v>
+      </c>
+      <c r="D11" s="1">
+        <v>2</v>
+      </c>
+      <c r="E11" s="1">
+        <f>C11*D11</f>
+        <v>90000</v>
+      </c>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="5"/>
+      <c r="R11">
+        <f>SUM(P10:R10)</f>
+        <v>5100000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
+        <v>9</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="1">
+        <v>25000</v>
+      </c>
+      <c r="D12" s="1">
+        <v>3</v>
+      </c>
+      <c r="E12" s="1">
+        <f>C12*D12</f>
+        <v>75000</v>
+      </c>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="5"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
+        <v>10</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="1">
+        <v>50000</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1">
+        <v>45000</v>
+      </c>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="5"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
+        <v>11</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="1">
+        <v>50000</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1">
+        <v>50000</v>
+      </c>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="5"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
+        <v>12</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="1">
+        <v>300000</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1">
+        <v>300000</v>
+      </c>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="5"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A16" s="1">
+        <v>13</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="5"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A17" s="1">
         <v>14</v>
       </c>
-      <c r="M1" t="s">
-        <v>13</v>
-      </c>
-      <c r="N1" t="s">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="5"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A18" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2">
-        <v>130000</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>130000</v>
-      </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="L2">
-        <v>500000</v>
-      </c>
-      <c r="M2">
-        <v>500000</v>
-      </c>
-      <c r="N2">
-        <v>500000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3">
-        <v>777000</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>777000</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="1">
-        <f>I1-E22</f>
-        <v>373000</v>
-      </c>
-      <c r="L3">
-        <v>200000</v>
-      </c>
-      <c r="M3">
-        <v>200000</v>
-      </c>
-      <c r="N3">
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4">
-        <v>60000</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>60000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5">
-        <v>80000</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>80000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6">
-        <v>60000</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>60000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="5"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A19" s="1">
         <v>16</v>
       </c>
-      <c r="C7">
-        <v>10000</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="5"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A20" s="1">
         <v>17</v>
       </c>
-      <c r="C8">
-        <v>50000</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>50000</v>
-      </c>
-      <c r="K8" t="s">
-        <v>12</v>
-      </c>
-      <c r="L8">
-        <f xml:space="preserve"> SUM(L2:L7)</f>
-        <v>700000</v>
-      </c>
-      <c r="M8">
-        <f>SUM(M2:M7)</f>
-        <v>700000</v>
-      </c>
-      <c r="N8">
-        <f>SUM(N2:N7)</f>
-        <v>700000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="5"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A21" s="1">
         <v>18</v>
       </c>
-      <c r="C9">
-        <v>45000</v>
-      </c>
-      <c r="D9">
-        <v>2</v>
-      </c>
-      <c r="E9">
-        <f>C9*D9</f>
-        <v>90000</v>
-      </c>
-      <c r="N9">
-        <f>SUM(L8:N8)</f>
-        <v>2100000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="5"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A22" s="1">
         <v>19</v>
       </c>
-      <c r="C10">
-        <v>25000</v>
-      </c>
-      <c r="D10">
-        <v>3</v>
-      </c>
-      <c r="E10">
-        <f>C10*D10</f>
-        <v>75000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="5"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A23" s="1">
         <v>20</v>
       </c>
-      <c r="C11">
-        <v>50000</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11">
-        <v>45000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A12">
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="5"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A24" s="1">
+        <v>21</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="5"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A25" s="1">
+        <v>22</v>
+      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="5"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A26" s="1">
+        <v>23</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="5"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A27" s="1">
+        <v>24</v>
+      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="5"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A28" s="1">
+        <v>25</v>
+      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="5"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A29" s="1">
+        <v>26</v>
+      </c>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="5"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A30" s="1">
+        <v>27</v>
+      </c>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="5"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A31" s="1">
+        <v>28</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="5"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A32" s="1">
+        <v>29</v>
+      </c>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="5"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A33" s="1">
+        <v>30</v>
+      </c>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="5"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A34" s="1">
+        <v>31</v>
+      </c>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="5"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A35" s="1">
+        <v>32</v>
+      </c>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="5"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A36" s="1">
+        <v>33</v>
+      </c>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="5"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A37" s="1">
+        <v>34</v>
+      </c>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="5"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A38" s="1">
+        <v>35</v>
+      </c>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="5"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A39" s="1">
+        <v>36</v>
+      </c>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="5"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A40" s="1">
+        <v>37</v>
+      </c>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="5"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A41" s="1">
+        <v>38</v>
+      </c>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="5"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A42" s="1">
+        <v>39</v>
+      </c>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="5"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A43" s="1">
+        <v>40</v>
+      </c>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="5"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A44" s="1">
+        <v>41</v>
+      </c>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="5"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A45" s="1">
+        <v>42</v>
+      </c>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="5"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A46" s="1">
+        <v>43</v>
+      </c>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="5"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A47" s="1">
+        <v>44</v>
+      </c>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="5"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A48" s="1">
+        <v>45</v>
+      </c>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="5"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A49" s="1">
+        <v>46</v>
+      </c>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="5"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A50" s="1">
+        <v>47</v>
+      </c>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="5"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A51" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12">
-        <v>50000</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13">
-        <v>300000</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <v>300000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A14">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A15">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A16">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>12</v>
-      </c>
-      <c r="E22">
-        <f xml:space="preserve"> SUM(E2:E21)</f>
+      <c r="B51" s="10"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="2">
+        <f>SUM(E4:E50)</f>
         <v>1727000</v>
       </c>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="5"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="5"/>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="5"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+      <c r="K54" s="5"/>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+      <c r="K55" s="5"/>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
+      <c r="K56" s="5"/>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A57" s="1"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
+      <c r="K57" s="5"/>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
+      <c r="K58" s="5"/>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A59" s="1"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
+      <c r="K59" s="5"/>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
+      <c r="K60" s="5"/>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
+      <c r="J61" s="1"/>
+      <c r="K61" s="5"/>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A62" s="1"/>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
+      <c r="J62" s="1"/>
+      <c r="K62" s="5"/>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A63" s="1"/>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1"/>
+      <c r="J63" s="1"/>
+      <c r="K63" s="5"/>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A64" s="1"/>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+      <c r="I64" s="1"/>
+      <c r="J64" s="1"/>
+      <c r="K64" s="5"/>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A65" s="1"/>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+      <c r="I65" s="1"/>
+      <c r="J65" s="1"/>
+      <c r="K65" s="5"/>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A66" s="1"/>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+      <c r="I66" s="1"/>
+      <c r="J66" s="1"/>
+      <c r="K66" s="5"/>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A67" s="1"/>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1"/>
+      <c r="J67" s="1"/>
+      <c r="K67" s="5"/>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A68" s="1"/>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
+      <c r="I68" s="1"/>
+      <c r="J68" s="1"/>
+      <c r="K68" s="5"/>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A69" s="1"/>
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
+      <c r="I69" s="1"/>
+      <c r="J69" s="1"/>
+      <c r="K69" s="5"/>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A70" s="1"/>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+      <c r="I70" s="1"/>
+      <c r="J70" s="1"/>
+      <c r="K70" s="5"/>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A71" s="1"/>
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="G71" s="1"/>
+      <c r="H71" s="1"/>
+      <c r="I71" s="1"/>
+      <c r="J71" s="1"/>
+      <c r="K71" s="5"/>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A72" s="1"/>
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="G72" s="1"/>
+      <c r="H72" s="1"/>
+      <c r="I72" s="1"/>
+      <c r="J72" s="1"/>
+      <c r="K72" s="5"/>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A73" s="1"/>
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="G73" s="1"/>
+      <c r="H73" s="1"/>
+      <c r="I73" s="1"/>
+      <c r="J73" s="1"/>
+      <c r="K73" s="5"/>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A74" s="1"/>
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+      <c r="G74" s="1"/>
+      <c r="H74" s="1"/>
+      <c r="I74" s="1"/>
+      <c r="J74" s="1"/>
+      <c r="K74" s="5"/>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A75" s="1"/>
+      <c r="B75" s="1"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+      <c r="G75" s="1"/>
+      <c r="H75" s="1"/>
+      <c r="I75" s="1"/>
+      <c r="J75" s="1"/>
+      <c r="K75" s="5"/>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A76" s="1"/>
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+      <c r="G76" s="1"/>
+      <c r="H76" s="1"/>
+      <c r="I76" s="1"/>
+      <c r="J76" s="1"/>
+      <c r="K76" s="5"/>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A77" s="1"/>
+      <c r="B77" s="1"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+      <c r="G77" s="1"/>
+      <c r="H77" s="1"/>
+      <c r="I77" s="1"/>
+      <c r="J77" s="1"/>
+      <c r="K77" s="5"/>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A78" s="1"/>
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+      <c r="G78" s="1"/>
+      <c r="H78" s="1"/>
+      <c r="I78" s="1"/>
+      <c r="J78" s="1"/>
+      <c r="K78" s="5"/>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A79" s="1"/>
+      <c r="B79" s="1"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
+      <c r="G79" s="1"/>
+      <c r="H79" s="1"/>
+      <c r="I79" s="1"/>
+      <c r="J79" s="1"/>
+      <c r="K79" s="5"/>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A80" s="1"/>
+      <c r="B80" s="1"/>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1"/>
+      <c r="G80" s="1"/>
+      <c r="H80" s="1"/>
+      <c r="I80" s="1"/>
+      <c r="J80" s="1"/>
+      <c r="K80" s="5"/>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A81" s="1"/>
+      <c r="B81" s="1"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1"/>
+      <c r="G81" s="1"/>
+      <c r="H81" s="1"/>
+      <c r="I81" s="1"/>
+      <c r="J81" s="1"/>
+      <c r="K81" s="5"/>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A82" s="1"/>
+      <c r="B82" s="1"/>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
+      <c r="E82" s="1"/>
+      <c r="G82" s="1"/>
+      <c r="H82" s="1"/>
+      <c r="I82" s="1"/>
+      <c r="J82" s="1"/>
+      <c r="K82" s="5"/>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A83" s="1"/>
+      <c r="B83" s="1"/>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1"/>
+      <c r="G83" s="1"/>
+      <c r="H83" s="1"/>
+      <c r="I83" s="1"/>
+      <c r="J83" s="1"/>
+      <c r="K83" s="5"/>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A84" s="1"/>
+      <c r="B84" s="1"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
+      <c r="E84" s="1"/>
+      <c r="G84" s="1"/>
+      <c r="H84" s="1"/>
+      <c r="I84" s="1"/>
+      <c r="J84" s="1"/>
+      <c r="K84" s="5"/>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A85" s="1"/>
+      <c r="B85" s="1"/>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
+      <c r="E85" s="1"/>
+      <c r="G85" s="1"/>
+      <c r="H85" s="1"/>
+      <c r="I85" s="1"/>
+      <c r="J85" s="1"/>
+      <c r="K85" s="5"/>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A86" s="1"/>
+      <c r="B86" s="1"/>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1"/>
+      <c r="E86" s="1"/>
+      <c r="G86" s="1"/>
+      <c r="H86" s="1"/>
+      <c r="I86" s="1"/>
+      <c r="J86" s="1"/>
+      <c r="K86" s="5"/>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A87" s="1"/>
+      <c r="B87" s="1"/>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1"/>
+      <c r="E87" s="1"/>
+      <c r="G87" s="1"/>
+      <c r="H87" s="1"/>
+      <c r="I87" s="1"/>
+      <c r="J87" s="1"/>
+      <c r="K87" s="5"/>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A88" s="1"/>
+      <c r="B88" s="1"/>
+      <c r="C88" s="1"/>
+      <c r="D88" s="1"/>
+      <c r="E88" s="1"/>
+      <c r="G88" s="1"/>
+      <c r="H88" s="1"/>
+      <c r="I88" s="1"/>
+      <c r="J88" s="1"/>
+      <c r="K88" s="5"/>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="G1:J2"/>
+    <mergeCell ref="A51:D51"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Chi tiêu.xlsx
+++ b/Chi tiêu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KẾ HOẠCH\Yolo-Fashion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85C01679-DEC2-474C-A858-400FECD25619}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91FABBD9-9813-459F-B5A3-99E5219BC347}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -257,20 +257,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -577,7 +577,7 @@
   <dimension ref="A1:R88"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -599,68 +599,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="G1" s="6" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="G1" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="7"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="4"/>
     </row>
     <row r="2" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="7"/>
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="4"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="5"/>
+      <c r="K3" s="3"/>
       <c r="L3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="M3" s="2">
         <f>Table1[[#Totals],[PHƯƠNG HÀ]]</f>
-        <v>5100000</v>
+        <v>6600000</v>
       </c>
       <c r="O3" t="s">
         <v>10</v>
@@ -702,7 +702,7 @@
         <f>H4:H88+I4:I88</f>
         <v>4099000</v>
       </c>
-      <c r="K4" s="5"/>
+      <c r="K4" s="3"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="P4">
@@ -735,13 +735,13 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
-      <c r="K5" s="5"/>
+      <c r="K5" s="3"/>
       <c r="L5" s="2" t="s">
         <v>29</v>
       </c>
       <c r="M5" s="2">
         <f>M3-E51-2000000</f>
-        <v>1373000</v>
+        <v>2873000</v>
       </c>
       <c r="P5">
         <v>200000</v>
@@ -773,11 +773,14 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
-      <c r="K6" s="5"/>
+      <c r="K6" s="3"/>
       <c r="P6">
         <v>1500000</v>
       </c>
       <c r="Q6">
+        <v>1500000</v>
+      </c>
+      <c r="R6">
         <v>1500000</v>
       </c>
     </row>
@@ -801,7 +804,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
-      <c r="K7" s="5"/>
+      <c r="K7" s="3"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
@@ -823,7 +826,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
-      <c r="K8" s="5"/>
+      <c r="K8" s="3"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
@@ -845,7 +848,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
-      <c r="K9" s="5"/>
+      <c r="K9" s="3"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
@@ -867,7 +870,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
-      <c r="K10" s="5"/>
+      <c r="K10" s="3"/>
       <c r="O10" t="s">
         <v>11</v>
       </c>
@@ -881,7 +884,7 @@
       </c>
       <c r="R10">
         <f>SUM(R4:R9)</f>
-        <v>700000</v>
+        <v>2200000</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.35">
@@ -905,10 +908,10 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
-      <c r="K11" s="5"/>
+      <c r="K11" s="3"/>
       <c r="R11">
         <f>SUM(P10:R10)</f>
-        <v>5100000</v>
+        <v>6600000</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.35">
@@ -932,7 +935,7 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
-      <c r="K12" s="5"/>
+      <c r="K12" s="3"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
@@ -954,7 +957,7 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
-      <c r="K13" s="5"/>
+      <c r="K13" s="3"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
@@ -976,7 +979,7 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
-      <c r="K14" s="5"/>
+      <c r="K14" s="3"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
@@ -998,7 +1001,7 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
-      <c r="K15" s="5"/>
+      <c r="K15" s="3"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
@@ -1012,7 +1015,7 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
-      <c r="K16" s="5"/>
+      <c r="K16" s="3"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
@@ -1026,7 +1029,7 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
-      <c r="K17" s="5"/>
+      <c r="K17" s="3"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
@@ -1040,7 +1043,7 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
-      <c r="K18" s="5"/>
+      <c r="K18" s="3"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
@@ -1054,7 +1057,7 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
-      <c r="K19" s="5"/>
+      <c r="K19" s="3"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
@@ -1068,7 +1071,7 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
-      <c r="K20" s="5"/>
+      <c r="K20" s="3"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
@@ -1082,7 +1085,7 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
-      <c r="K21" s="5"/>
+      <c r="K21" s="3"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
@@ -1096,7 +1099,7 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
-      <c r="K22" s="5"/>
+      <c r="K22" s="3"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
@@ -1110,7 +1113,7 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
-      <c r="K23" s="5"/>
+      <c r="K23" s="3"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
@@ -1124,7 +1127,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
-      <c r="K24" s="5"/>
+      <c r="K24" s="3"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
@@ -1138,7 +1141,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
-      <c r="K25" s="5"/>
+      <c r="K25" s="3"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
@@ -1152,7 +1155,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
-      <c r="K26" s="5"/>
+      <c r="K26" s="3"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
@@ -1166,7 +1169,7 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
-      <c r="K27" s="5"/>
+      <c r="K27" s="3"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
@@ -1180,7 +1183,7 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
-      <c r="K28" s="5"/>
+      <c r="K28" s="3"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
@@ -1194,7 +1197,7 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
-      <c r="K29" s="5"/>
+      <c r="K29" s="3"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
@@ -1208,7 +1211,7 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
-      <c r="K30" s="5"/>
+      <c r="K30" s="3"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
@@ -1222,7 +1225,7 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
-      <c r="K31" s="5"/>
+      <c r="K31" s="3"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
@@ -1236,7 +1239,7 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
-      <c r="K32" s="5"/>
+      <c r="K32" s="3"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
@@ -1250,7 +1253,7 @@
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
-      <c r="K33" s="5"/>
+      <c r="K33" s="3"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
@@ -1264,7 +1267,7 @@
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
-      <c r="K34" s="5"/>
+      <c r="K34" s="3"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
@@ -1278,7 +1281,7 @@
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
-      <c r="K35" s="5"/>
+      <c r="K35" s="3"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
@@ -1292,7 +1295,7 @@
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
-      <c r="K36" s="5"/>
+      <c r="K36" s="3"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
@@ -1306,7 +1309,7 @@
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
-      <c r="K37" s="5"/>
+      <c r="K37" s="3"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
@@ -1320,7 +1323,7 @@
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
-      <c r="K38" s="5"/>
+      <c r="K38" s="3"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
@@ -1334,7 +1337,7 @@
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
-      <c r="K39" s="5"/>
+      <c r="K39" s="3"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
@@ -1348,7 +1351,7 @@
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
-      <c r="K40" s="5"/>
+      <c r="K40" s="3"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
@@ -1362,7 +1365,7 @@
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
-      <c r="K41" s="5"/>
+      <c r="K41" s="3"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
@@ -1376,7 +1379,7 @@
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
-      <c r="K42" s="5"/>
+      <c r="K42" s="3"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
@@ -1390,7 +1393,7 @@
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
-      <c r="K43" s="5"/>
+      <c r="K43" s="3"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
@@ -1404,7 +1407,7 @@
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
-      <c r="K44" s="5"/>
+      <c r="K44" s="3"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
@@ -1418,7 +1421,7 @@
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
-      <c r="K45" s="5"/>
+      <c r="K45" s="3"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
@@ -1432,7 +1435,7 @@
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
-      <c r="K46" s="5"/>
+      <c r="K46" s="3"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
@@ -1446,7 +1449,7 @@
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
-      <c r="K47" s="5"/>
+      <c r="K47" s="3"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
@@ -1460,7 +1463,7 @@
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
-      <c r="K48" s="5"/>
+      <c r="K48" s="3"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
@@ -1474,7 +1477,7 @@
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
-      <c r="K49" s="5"/>
+      <c r="K49" s="3"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
@@ -1488,7 +1491,7 @@
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
-      <c r="K50" s="5"/>
+      <c r="K50" s="3"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A51" s="9" t="s">
@@ -1505,7 +1508,7 @@
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
-      <c r="K51" s="5"/>
+      <c r="K51" s="3"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A52" s="1"/>
@@ -1517,7 +1520,7 @@
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
-      <c r="K52" s="5"/>
+      <c r="K52" s="3"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A53" s="1"/>
@@ -1529,7 +1532,7 @@
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
-      <c r="K53" s="5"/>
+      <c r="K53" s="3"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A54" s="1"/>
@@ -1541,7 +1544,7 @@
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
-      <c r="K54" s="5"/>
+      <c r="K54" s="3"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A55" s="1"/>
@@ -1553,7 +1556,7 @@
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
-      <c r="K55" s="5"/>
+      <c r="K55" s="3"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A56" s="1"/>
@@ -1565,7 +1568,7 @@
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
-      <c r="K56" s="5"/>
+      <c r="K56" s="3"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A57" s="1"/>
@@ -1577,7 +1580,7 @@
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
-      <c r="K57" s="5"/>
+      <c r="K57" s="3"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A58" s="1"/>
@@ -1589,7 +1592,7 @@
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
-      <c r="K58" s="5"/>
+      <c r="K58" s="3"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A59" s="1"/>
@@ -1601,7 +1604,7 @@
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
       <c r="J59" s="1"/>
-      <c r="K59" s="5"/>
+      <c r="K59" s="3"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A60" s="1"/>
@@ -1613,7 +1616,7 @@
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
       <c r="J60" s="1"/>
-      <c r="K60" s="5"/>
+      <c r="K60" s="3"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A61" s="1"/>
@@ -1625,7 +1628,7 @@
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
       <c r="J61" s="1"/>
-      <c r="K61" s="5"/>
+      <c r="K61" s="3"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A62" s="1"/>
@@ -1637,7 +1640,7 @@
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
       <c r="J62" s="1"/>
-      <c r="K62" s="5"/>
+      <c r="K62" s="3"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A63" s="1"/>
@@ -1649,7 +1652,7 @@
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
       <c r="J63" s="1"/>
-      <c r="K63" s="5"/>
+      <c r="K63" s="3"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A64" s="1"/>
@@ -1661,7 +1664,7 @@
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
-      <c r="K64" s="5"/>
+      <c r="K64" s="3"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A65" s="1"/>
@@ -1673,7 +1676,7 @@
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
       <c r="J65" s="1"/>
-      <c r="K65" s="5"/>
+      <c r="K65" s="3"/>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A66" s="1"/>
@@ -1685,7 +1688,7 @@
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
       <c r="J66" s="1"/>
-      <c r="K66" s="5"/>
+      <c r="K66" s="3"/>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A67" s="1"/>
@@ -1697,7 +1700,7 @@
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
       <c r="J67" s="1"/>
-      <c r="K67" s="5"/>
+      <c r="K67" s="3"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A68" s="1"/>
@@ -1709,7 +1712,7 @@
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
       <c r="J68" s="1"/>
-      <c r="K68" s="5"/>
+      <c r="K68" s="3"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A69" s="1"/>
@@ -1721,7 +1724,7 @@
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
       <c r="J69" s="1"/>
-      <c r="K69" s="5"/>
+      <c r="K69" s="3"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A70" s="1"/>
@@ -1733,7 +1736,7 @@
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
       <c r="J70" s="1"/>
-      <c r="K70" s="5"/>
+      <c r="K70" s="3"/>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A71" s="1"/>
@@ -1745,7 +1748,7 @@
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
       <c r="J71" s="1"/>
-      <c r="K71" s="5"/>
+      <c r="K71" s="3"/>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A72" s="1"/>
@@ -1757,7 +1760,7 @@
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
       <c r="J72" s="1"/>
-      <c r="K72" s="5"/>
+      <c r="K72" s="3"/>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A73" s="1"/>
@@ -1769,7 +1772,7 @@
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
       <c r="J73" s="1"/>
-      <c r="K73" s="5"/>
+      <c r="K73" s="3"/>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A74" s="1"/>
@@ -1781,7 +1784,7 @@
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
       <c r="J74" s="1"/>
-      <c r="K74" s="5"/>
+      <c r="K74" s="3"/>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A75" s="1"/>
@@ -1793,7 +1796,7 @@
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
       <c r="J75" s="1"/>
-      <c r="K75" s="5"/>
+      <c r="K75" s="3"/>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A76" s="1"/>
@@ -1805,7 +1808,7 @@
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
       <c r="J76" s="1"/>
-      <c r="K76" s="5"/>
+      <c r="K76" s="3"/>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A77" s="1"/>
@@ -1817,7 +1820,7 @@
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
       <c r="J77" s="1"/>
-      <c r="K77" s="5"/>
+      <c r="K77" s="3"/>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A78" s="1"/>
@@ -1829,7 +1832,7 @@
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
       <c r="J78" s="1"/>
-      <c r="K78" s="5"/>
+      <c r="K78" s="3"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A79" s="1"/>
@@ -1841,7 +1844,7 @@
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
       <c r="J79" s="1"/>
-      <c r="K79" s="5"/>
+      <c r="K79" s="3"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A80" s="1"/>
@@ -1853,7 +1856,7 @@
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
       <c r="J80" s="1"/>
-      <c r="K80" s="5"/>
+      <c r="K80" s="3"/>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A81" s="1"/>
@@ -1865,7 +1868,7 @@
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
       <c r="J81" s="1"/>
-      <c r="K81" s="5"/>
+      <c r="K81" s="3"/>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A82" s="1"/>
@@ -1877,7 +1880,7 @@
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
       <c r="J82" s="1"/>
-      <c r="K82" s="5"/>
+      <c r="K82" s="3"/>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A83" s="1"/>
@@ -1889,7 +1892,7 @@
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
       <c r="J83" s="1"/>
-      <c r="K83" s="5"/>
+      <c r="K83" s="3"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A84" s="1"/>
@@ -1901,7 +1904,7 @@
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
       <c r="J84" s="1"/>
-      <c r="K84" s="5"/>
+      <c r="K84" s="3"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A85" s="1"/>
@@ -1913,7 +1916,7 @@
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
       <c r="J85" s="1"/>
-      <c r="K85" s="5"/>
+      <c r="K85" s="3"/>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A86" s="1"/>
@@ -1925,7 +1928,7 @@
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
       <c r="J86" s="1"/>
-      <c r="K86" s="5"/>
+      <c r="K86" s="3"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A87" s="1"/>
@@ -1937,7 +1940,7 @@
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
       <c r="J87" s="1"/>
-      <c r="K87" s="5"/>
+      <c r="K87" s="3"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A88" s="1"/>
@@ -1949,7 +1952,7 @@
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
       <c r="J88" s="1"/>
-      <c r="K88" s="5"/>
+      <c r="K88" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Chi tiêu.xlsx
+++ b/Chi tiêu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KẾ HOẠCH\Yolo-Fashion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91FABBD9-9813-459F-B5A3-99E5219BC347}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49DB3D14-4094-46E4-963C-230E1E483AD0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
   <si>
     <t>Tên</t>
   </si>
@@ -45,9 +45,6 @@
     <t>Khóa học 3 app</t>
   </si>
   <si>
-    <t>Số tiền vốn</t>
-  </si>
-  <si>
     <t>2k like fapage</t>
   </si>
   <si>
@@ -114,13 +111,28 @@
     <t>9-13/2/2022</t>
   </si>
   <si>
-    <t>Còn lại (14/2)</t>
+    <t>đơn sỉ túi xách</t>
+  </si>
+  <si>
+    <t>14/2-17/2</t>
+  </si>
+  <si>
+    <t>THU</t>
+  </si>
+  <si>
+    <t>LỜI</t>
+  </si>
+  <si>
+    <t>Nhập set đen</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
+  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -160,7 +172,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -176,6 +188,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -253,7 +271,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -280,6 +298,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -574,10 +596,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R88"/>
+  <dimension ref="A1:R77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="R14" sqref="R14"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -588,10 +610,8 @@
     <col min="4" max="4" width="7.6328125" customWidth="1"/>
     <col min="5" max="5" width="10.26953125" customWidth="1"/>
     <col min="7" max="7" width="12.7265625" customWidth="1"/>
-    <col min="10" max="10" width="10.54296875" customWidth="1"/>
-    <col min="11" max="11" width="6.6328125" customWidth="1"/>
-    <col min="12" max="12" width="11.08984375" customWidth="1"/>
-    <col min="14" max="14" width="6.6328125" customWidth="1"/>
+    <col min="12" max="12" width="10.54296875" customWidth="1"/>
+    <col min="13" max="14" width="6.6328125" customWidth="1"/>
     <col min="15" max="15" width="11.6328125" customWidth="1"/>
     <col min="16" max="16" width="14.90625" customWidth="1"/>
     <col min="17" max="17" width="17.81640625" customWidth="1"/>
@@ -600,19 +620,21 @@
   <sheetData>
     <row r="1" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
       <c r="G1" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H1" s="8"/>
       <c r="I1" s="8"/>
       <c r="J1" s="8"/>
-      <c r="K1" s="4"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="12"/>
     </row>
     <row r="2" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="7"/>
@@ -624,11 +646,13 @@
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
-      <c r="K2" s="4"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="4"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>0</v>
@@ -643,36 +667,35 @@
         <v>4</v>
       </c>
       <c r="G3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="I3" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="5" t="s">
-        <v>26</v>
-      </c>
       <c r="J3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="M3" s="3"/>
+      <c r="O3" t="s">
+        <v>9</v>
+      </c>
+      <c r="P3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q3" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="3"/>
-      <c r="L3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M3" s="2">
-        <f>Table1[[#Totals],[PHƯƠNG HÀ]]</f>
-        <v>6600000</v>
-      </c>
-      <c r="O3" t="s">
-        <v>10</v>
-      </c>
-      <c r="P3" t="s">
+      <c r="R3" t="s">
         <v>13</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>12</v>
-      </c>
-      <c r="R3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.35">
@@ -692,19 +715,25 @@
         <v>130000</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H4" s="1">
-        <v>4099000</v>
+        <f xml:space="preserve"> 4099000 + 125000</f>
+        <v>4224000</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1">
-        <f>H4:H88+I4:I88</f>
-        <v>4099000</v>
-      </c>
-      <c r="K4" s="3"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
+        <f>H4:H77+I4:I77</f>
+        <v>4224000</v>
+      </c>
+      <c r="K4">
+        <v>5741000</v>
+      </c>
+      <c r="L4" s="1">
+        <f>K4:K77-J4:J77</f>
+        <v>1517000</v>
+      </c>
+      <c r="M4" s="3"/>
       <c r="P4">
         <v>500000</v>
       </c>
@@ -731,18 +760,25 @@
       <c r="E5" s="1">
         <v>777000</v>
       </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
+      <c r="G5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="1">
+        <v>8452000</v>
+      </c>
       <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="M5" s="2">
-        <f>M3-E51-2000000</f>
-        <v>2873000</v>
-      </c>
+      <c r="J5" s="1">
+        <f t="shared" ref="J5:J68" si="0">H5:H78+I5:I78</f>
+        <v>8452000</v>
+      </c>
+      <c r="K5" s="1">
+        <v>10700000</v>
+      </c>
+      <c r="L5" s="1">
+        <f t="shared" ref="L5:L68" si="1">K5:K78-J5:J78</f>
+        <v>2248000</v>
+      </c>
+      <c r="M5" s="3"/>
       <c r="P5">
         <v>200000</v>
       </c>
@@ -758,7 +794,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" s="1">
         <v>60000</v>
@@ -769,11 +805,26 @@
       <c r="E6" s="1">
         <v>60000</v>
       </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="3"/>
+      <c r="G6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="1">
+        <f>1621000 + 82000*4</f>
+        <v>1949000</v>
+      </c>
+      <c r="I6" s="13"/>
+      <c r="J6" s="1">
+        <f t="shared" si="0"/>
+        <v>1949000</v>
+      </c>
+      <c r="K6" s="1">
+        <v>2756000</v>
+      </c>
+      <c r="L6" s="1">
+        <f t="shared" si="1"/>
+        <v>807000</v>
+      </c>
+      <c r="M6" s="3"/>
       <c r="P6">
         <v>1500000</v>
       </c>
@@ -789,7 +840,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" s="1">
         <v>80000</v>
@@ -800,18 +851,34 @@
       <c r="E7" s="1">
         <v>80000</v>
       </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="3"/>
+      <c r="G7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="1">
+        <f>82000*6</f>
+        <v>492000</v>
+      </c>
+      <c r="I7" s="13"/>
+      <c r="J7" s="1">
+        <f t="shared" si="0"/>
+        <v>492000</v>
+      </c>
+      <c r="K7" s="1">
+        <f>170000*6</f>
+        <v>1020000</v>
+      </c>
+      <c r="L7" s="1">
+        <f t="shared" si="1"/>
+        <v>528000</v>
+      </c>
+      <c r="M7" s="3"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8" s="1">
         <v>60000</v>
@@ -825,15 +892,23 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="3"/>
+      <c r="J8" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M8" s="3"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9" s="1">
         <v>10000</v>
@@ -847,15 +922,23 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="3"/>
+      <c r="J9" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M9" s="3"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10" s="1">
         <v>50000</v>
@@ -869,10 +952,18 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="3"/>
+      <c r="J10" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M10" s="3"/>
       <c r="O10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P10">
         <f xml:space="preserve"> SUM(P4:P9)</f>
@@ -892,7 +983,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C11" s="1">
         <v>45000</v>
@@ -907,8 +998,16 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="3"/>
+      <c r="J11" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M11" s="3"/>
       <c r="R11">
         <f>SUM(P10:R10)</f>
         <v>6600000</v>
@@ -919,7 +1018,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C12" s="1">
         <v>25000</v>
@@ -934,15 +1033,23 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="3"/>
+      <c r="J12" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M12" s="3"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C13" s="1">
         <v>50000</v>
@@ -956,15 +1063,23 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="3"/>
+      <c r="J13" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>11</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="1">
         <v>50000</v>
@@ -978,15 +1093,23 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="3"/>
+      <c r="J14" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M14" s="3"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>12</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C15" s="1">
         <v>300000</v>
@@ -1000,8 +1123,16 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="3"/>
+      <c r="J15" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M15" s="3"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
@@ -1014,10 +1145,18 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J16" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -1028,10 +1167,18 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J17" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -1042,10 +1189,18 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J18" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -1056,10 +1211,18 @@
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J19" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -1070,10 +1233,18 @@
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J20" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -1084,10 +1255,18 @@
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J21" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -1098,10 +1277,18 @@
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J22" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>20</v>
       </c>
@@ -1112,10 +1299,18 @@
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J23" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>21</v>
       </c>
@@ -1126,10 +1321,18 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J24" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>22</v>
       </c>
@@ -1140,10 +1343,18 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J25" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>23</v>
       </c>
@@ -1154,10 +1365,18 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J26" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>24</v>
       </c>
@@ -1168,10 +1387,18 @@
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J27" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>25</v>
       </c>
@@ -1182,10 +1409,18 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J28" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>26</v>
       </c>
@@ -1196,10 +1431,18 @@
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J29" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>27</v>
       </c>
@@ -1210,10 +1453,18 @@
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J30" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>28</v>
       </c>
@@ -1224,10 +1475,18 @@
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J31" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>29</v>
       </c>
@@ -1238,10 +1497,18 @@
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J32" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>30</v>
       </c>
@@ -1252,10 +1519,18 @@
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J33" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>31</v>
       </c>
@@ -1266,10 +1541,18 @@
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J34" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>32</v>
       </c>
@@ -1280,10 +1563,18 @@
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J35" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M35" s="3"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>33</v>
       </c>
@@ -1294,10 +1585,18 @@
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="3"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J36" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M36" s="3"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>34</v>
       </c>
@@ -1308,10 +1607,18 @@
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="3"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J37" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M37" s="3"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>35</v>
       </c>
@@ -1322,12 +1629,20 @@
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="3"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J38" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M38" s="3"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -1336,27 +1651,44 @@
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A40" s="1">
-        <v>37</v>
-      </c>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
+      <c r="J39" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A40" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="2">
+        <f>SUM(E4:E39)</f>
+        <v>1727000</v>
+      </c>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A41" s="1">
-        <v>38</v>
-      </c>
+      <c r="J40" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -1364,13 +1696,19 @@
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A42" s="1">
-        <v>39</v>
-      </c>
+      <c r="J41" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1378,13 +1716,19 @@
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A43" s="1">
-        <v>40</v>
-      </c>
+      <c r="J42" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -1392,13 +1736,19 @@
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A44" s="1">
-        <v>41</v>
-      </c>
+      <c r="J43" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -1406,13 +1756,19 @@
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A45" s="1">
-        <v>42</v>
-      </c>
+      <c r="J44" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -1420,13 +1776,19 @@
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
-      <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A46" s="1">
-        <v>43</v>
-      </c>
+      <c r="J45" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -1434,13 +1796,19 @@
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
-      <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A47" s="1">
-        <v>44</v>
-      </c>
+      <c r="J46" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -1448,13 +1816,19 @@
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
-      <c r="J47" s="1"/>
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A48" s="1">
-        <v>45</v>
-      </c>
+      <c r="J47" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -1462,13 +1836,19 @@
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
-      <c r="J48" s="1"/>
-      <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A49" s="1">
-        <v>46</v>
-      </c>
+      <c r="J48" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -1476,13 +1856,19 @@
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
-      <c r="J49" s="1"/>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A50" s="1">
-        <v>47</v>
-      </c>
+      <c r="J49" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -1490,27 +1876,38 @@
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
-      <c r="J50" s="1"/>
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A51" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B51" s="10"/>
-      <c r="C51" s="10"/>
-      <c r="D51" s="11"/>
-      <c r="E51" s="2">
-        <f>SUM(E4:E50)</f>
-        <v>1727000</v>
-      </c>
+      <c r="J50" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
-      <c r="J51" s="1"/>
-      <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J51" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -1519,10 +1916,18 @@
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
-      <c r="J52" s="1"/>
-      <c r="K52" s="3"/>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J52" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -1531,10 +1936,18 @@
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
-      <c r="J53" s="1"/>
-      <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J53" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -1543,10 +1956,18 @@
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
-      <c r="J54" s="1"/>
-      <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J54" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -1555,10 +1976,18 @@
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
-      <c r="J55" s="1"/>
-      <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J55" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -1567,10 +1996,18 @@
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
-      <c r="J56" s="1"/>
-      <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J56" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -1579,10 +2016,18 @@
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
-      <c r="J57" s="1"/>
-      <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J57" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -1591,10 +2036,18 @@
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
-      <c r="J58" s="1"/>
-      <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J58" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K58" s="1"/>
+      <c r="L58" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -1603,10 +2056,18 @@
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
-      <c r="J59" s="1"/>
-      <c r="K59" s="3"/>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J59" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -1615,10 +2076,18 @@
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
-      <c r="J60" s="1"/>
-      <c r="K60" s="3"/>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J60" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -1627,10 +2096,18 @@
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
-      <c r="J61" s="1"/>
-      <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J61" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K61" s="1"/>
+      <c r="L61" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -1639,10 +2116,18 @@
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
-      <c r="J62" s="1"/>
-      <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J62" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K62" s="1"/>
+      <c r="L62" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -1651,10 +2136,18 @@
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
-      <c r="J63" s="1"/>
-      <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J63" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K63" s="1"/>
+      <c r="L63" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -1663,10 +2156,18 @@
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
-      <c r="J64" s="1"/>
-      <c r="K64" s="3"/>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J64" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K64" s="1"/>
+      <c r="L64" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -1675,10 +2176,18 @@
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
-      <c r="J65" s="1"/>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J65" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K65" s="1"/>
+      <c r="L65" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -1687,10 +2196,18 @@
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
-      <c r="J66" s="1"/>
-      <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J66" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K66" s="1"/>
+      <c r="L66" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -1699,10 +2216,18 @@
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
-      <c r="J67" s="1"/>
-      <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J67" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K67" s="1"/>
+      <c r="L67" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -1711,10 +2236,18 @@
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
-      <c r="J68" s="1"/>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J68" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K68" s="1"/>
+      <c r="L68" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -1723,10 +2256,18 @@
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
-      <c r="J69" s="1"/>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J69" s="1">
+        <f t="shared" ref="J69:J77" si="2">H69:H142+I69:I142</f>
+        <v>0</v>
+      </c>
+      <c r="K69" s="1"/>
+      <c r="L69" s="1">
+        <f t="shared" ref="L69:L77" si="3">K69:K142-J69:J142</f>
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -1735,10 +2276,18 @@
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
-      <c r="J70" s="1"/>
-      <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J70" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K70" s="1"/>
+      <c r="L70" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -1747,10 +2296,18 @@
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
-      <c r="J71" s="1"/>
-      <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J71" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K71" s="1"/>
+      <c r="L71" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -1759,10 +2316,18 @@
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
-      <c r="J72" s="1"/>
-      <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J72" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K72" s="1"/>
+      <c r="L72" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -1771,10 +2336,18 @@
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
-      <c r="J73" s="1"/>
-      <c r="K73" s="3"/>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J73" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K73" s="1"/>
+      <c r="L73" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -1783,10 +2356,18 @@
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
-      <c r="J74" s="1"/>
-      <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J74" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K74" s="1"/>
+      <c r="L74" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -1795,10 +2376,18 @@
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
-      <c r="J75" s="1"/>
-      <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J75" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K75" s="1"/>
+      <c r="L75" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -1807,10 +2396,18 @@
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
-      <c r="J76" s="1"/>
-      <c r="K76" s="3"/>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J76" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K76" s="1"/>
+      <c r="L76" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -1819,146 +2416,22 @@
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
-      <c r="J77" s="1"/>
-      <c r="K77" s="3"/>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A78" s="1"/>
-      <c r="B78" s="1"/>
-      <c r="C78" s="1"/>
-      <c r="D78" s="1"/>
-      <c r="E78" s="1"/>
-      <c r="G78" s="1"/>
-      <c r="H78" s="1"/>
-      <c r="I78" s="1"/>
-      <c r="J78" s="1"/>
-      <c r="K78" s="3"/>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A79" s="1"/>
-      <c r="B79" s="1"/>
-      <c r="C79" s="1"/>
-      <c r="D79" s="1"/>
-      <c r="E79" s="1"/>
-      <c r="G79" s="1"/>
-      <c r="H79" s="1"/>
-      <c r="I79" s="1"/>
-      <c r="J79" s="1"/>
-      <c r="K79" s="3"/>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A80" s="1"/>
-      <c r="B80" s="1"/>
-      <c r="C80" s="1"/>
-      <c r="D80" s="1"/>
-      <c r="E80" s="1"/>
-      <c r="G80" s="1"/>
-      <c r="H80" s="1"/>
-      <c r="I80" s="1"/>
-      <c r="J80" s="1"/>
-      <c r="K80" s="3"/>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A81" s="1"/>
-      <c r="B81" s="1"/>
-      <c r="C81" s="1"/>
-      <c r="D81" s="1"/>
-      <c r="E81" s="1"/>
-      <c r="G81" s="1"/>
-      <c r="H81" s="1"/>
-      <c r="I81" s="1"/>
-      <c r="J81" s="1"/>
-      <c r="K81" s="3"/>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A82" s="1"/>
-      <c r="B82" s="1"/>
-      <c r="C82" s="1"/>
-      <c r="D82" s="1"/>
-      <c r="E82" s="1"/>
-      <c r="G82" s="1"/>
-      <c r="H82" s="1"/>
-      <c r="I82" s="1"/>
-      <c r="J82" s="1"/>
-      <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A83" s="1"/>
-      <c r="B83" s="1"/>
-      <c r="C83" s="1"/>
-      <c r="D83" s="1"/>
-      <c r="E83" s="1"/>
-      <c r="G83" s="1"/>
-      <c r="H83" s="1"/>
-      <c r="I83" s="1"/>
-      <c r="J83" s="1"/>
-      <c r="K83" s="3"/>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A84" s="1"/>
-      <c r="B84" s="1"/>
-      <c r="C84" s="1"/>
-      <c r="D84" s="1"/>
-      <c r="E84" s="1"/>
-      <c r="G84" s="1"/>
-      <c r="H84" s="1"/>
-      <c r="I84" s="1"/>
-      <c r="J84" s="1"/>
-      <c r="K84" s="3"/>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A85" s="1"/>
-      <c r="B85" s="1"/>
-      <c r="C85" s="1"/>
-      <c r="D85" s="1"/>
-      <c r="E85" s="1"/>
-      <c r="G85" s="1"/>
-      <c r="H85" s="1"/>
-      <c r="I85" s="1"/>
-      <c r="J85" s="1"/>
-      <c r="K85" s="3"/>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A86" s="1"/>
-      <c r="B86" s="1"/>
-      <c r="C86" s="1"/>
-      <c r="D86" s="1"/>
-      <c r="E86" s="1"/>
-      <c r="G86" s="1"/>
-      <c r="H86" s="1"/>
-      <c r="I86" s="1"/>
-      <c r="J86" s="1"/>
-      <c r="K86" s="3"/>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A87" s="1"/>
-      <c r="B87" s="1"/>
-      <c r="C87" s="1"/>
-      <c r="D87" s="1"/>
-      <c r="E87" s="1"/>
-      <c r="G87" s="1"/>
-      <c r="H87" s="1"/>
-      <c r="I87" s="1"/>
-      <c r="J87" s="1"/>
-      <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A88" s="1"/>
-      <c r="B88" s="1"/>
-      <c r="C88" s="1"/>
-      <c r="D88" s="1"/>
-      <c r="E88" s="1"/>
-      <c r="G88" s="1"/>
-      <c r="H88" s="1"/>
-      <c r="I88" s="1"/>
-      <c r="J88" s="1"/>
-      <c r="K88" s="3"/>
+      <c r="J77" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K77" s="1"/>
+      <c r="L77" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:E2"/>
-    <mergeCell ref="G1:J2"/>
-    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="G1:L2"/>
+    <mergeCell ref="A40:D40"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Chi tiêu.xlsx
+++ b/Chi tiêu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KẾ HOẠCH\Yolo-Fashion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49DB3D14-4094-46E4-963C-230E1E483AD0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72ED679E-0889-4A4A-9CCB-EBC1E2CDDB0E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
   <si>
     <t>Tên</t>
   </si>
@@ -124,6 +124,9 @@
   </si>
   <si>
     <t>Nhập set đen</t>
+  </si>
+  <si>
+    <t>Mượn tiền nhập hàng</t>
   </si>
 </sst>
 </file>
@@ -131,7 +134,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -280,6 +283,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -298,10 +305,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -596,10 +599,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R77"/>
+  <dimension ref="A1:R60"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -619,35 +622,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="G1" s="8" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="G1" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="12"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="6"/>
     </row>
     <row r="2" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
       <c r="M2" s="4"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.35">
@@ -723,14 +726,14 @@
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1">
-        <f>H4:H77+I4:I77</f>
+        <f>H4:H60+I4:I60</f>
         <v>4224000</v>
       </c>
       <c r="K4">
         <v>5741000</v>
       </c>
       <c r="L4" s="1">
-        <f>K4:K77-J4:J77</f>
+        <f>K4:K60-J4:J60</f>
         <v>1517000</v>
       </c>
       <c r="M4" s="3"/>
@@ -768,14 +771,14 @@
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1">
-        <f t="shared" ref="J5:J68" si="0">H5:H78+I5:I78</f>
+        <f>H5:H61+I5:I61</f>
         <v>8452000</v>
       </c>
       <c r="K5" s="1">
         <v>10700000</v>
       </c>
       <c r="L5" s="1">
-        <f t="shared" ref="L5:L68" si="1">K5:K78-J5:J78</f>
+        <f>K5:K61-J5:J61</f>
         <v>2248000</v>
       </c>
       <c r="M5" s="3"/>
@@ -812,19 +815,22 @@
         <f>1621000 + 82000*4</f>
         <v>1949000</v>
       </c>
-      <c r="I6" s="13"/>
+      <c r="I6" s="7"/>
       <c r="J6" s="1">
-        <f t="shared" si="0"/>
+        <f>H6:H62+I6:I62</f>
         <v>1949000</v>
       </c>
       <c r="K6" s="1">
         <v>2756000</v>
       </c>
       <c r="L6" s="1">
-        <f t="shared" si="1"/>
+        <f>K6:K62-J6:J62</f>
         <v>807000</v>
       </c>
       <c r="M6" s="3"/>
+      <c r="O6" t="s">
+        <v>33</v>
+      </c>
       <c r="P6">
         <v>1500000</v>
       </c>
@@ -858,9 +864,9 @@
         <f>82000*6</f>
         <v>492000</v>
       </c>
-      <c r="I7" s="13"/>
+      <c r="I7" s="7"/>
       <c r="J7" s="1">
-        <f t="shared" si="0"/>
+        <f>H7:H63+I7:I63</f>
         <v>492000</v>
       </c>
       <c r="K7" s="1">
@@ -868,7 +874,7 @@
         <v>1020000</v>
       </c>
       <c r="L7" s="1">
-        <f t="shared" si="1"/>
+        <f>K7:K63-J7:J63</f>
         <v>528000</v>
       </c>
       <c r="M7" s="3"/>
@@ -893,12 +899,12 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1">
-        <f t="shared" si="0"/>
+        <f>H8:H64+I8:I64</f>
         <v>0</v>
       </c>
       <c r="K8" s="1"/>
       <c r="L8" s="1">
-        <f t="shared" si="1"/>
+        <f>K8:K64-J8:J64</f>
         <v>0</v>
       </c>
       <c r="M8" s="3"/>
@@ -923,12 +929,12 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1">
-        <f t="shared" si="0"/>
+        <f>H9:H65+I9:I65</f>
         <v>0</v>
       </c>
       <c r="K9" s="1"/>
       <c r="L9" s="1">
-        <f t="shared" si="1"/>
+        <f>K9:K65-J9:J65</f>
         <v>0</v>
       </c>
       <c r="M9" s="3"/>
@@ -953,12 +959,12 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1">
-        <f t="shared" si="0"/>
+        <f>H10:H66+I10:I66</f>
         <v>0</v>
       </c>
       <c r="K10" s="1"/>
       <c r="L10" s="1">
-        <f t="shared" si="1"/>
+        <f>K10:K66-J10:J66</f>
         <v>0</v>
       </c>
       <c r="M10" s="3"/>
@@ -999,12 +1005,12 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1">
-        <f t="shared" si="0"/>
+        <f>H11:H67+I11:I67</f>
         <v>0</v>
       </c>
       <c r="K11" s="1"/>
       <c r="L11" s="1">
-        <f t="shared" si="1"/>
+        <f>K11:K67-J11:J67</f>
         <v>0</v>
       </c>
       <c r="M11" s="3"/>
@@ -1034,12 +1040,12 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1">
-        <f t="shared" si="0"/>
+        <f>H12:H68+I12:I68</f>
         <v>0</v>
       </c>
       <c r="K12" s="1"/>
       <c r="L12" s="1">
-        <f t="shared" si="1"/>
+        <f>K12:K68-J12:J68</f>
         <v>0</v>
       </c>
       <c r="M12" s="3"/>
@@ -1064,12 +1070,12 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1">
-        <f t="shared" si="0"/>
+        <f>H13:H69+I13:I69</f>
         <v>0</v>
       </c>
       <c r="K13" s="1"/>
       <c r="L13" s="1">
-        <f t="shared" si="1"/>
+        <f>K13:K69-J13:J69</f>
         <v>0</v>
       </c>
       <c r="M13" s="3"/>
@@ -1094,12 +1100,12 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1">
-        <f t="shared" si="0"/>
+        <f>H14:H70+I14:I70</f>
         <v>0</v>
       </c>
       <c r="K14" s="1"/>
       <c r="L14" s="1">
-        <f t="shared" si="1"/>
+        <f>K14:K70-J14:J70</f>
         <v>0</v>
       </c>
       <c r="M14" s="3"/>
@@ -1124,12 +1130,12 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1">
-        <f t="shared" si="0"/>
+        <f>H15:H71+I15:I71</f>
         <v>0</v>
       </c>
       <c r="K15" s="1"/>
       <c r="L15" s="1">
-        <f t="shared" si="1"/>
+        <f>K15:K71-J15:J71</f>
         <v>0</v>
       </c>
       <c r="M15" s="3"/>
@@ -1146,19 +1152,19 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1">
-        <f t="shared" si="0"/>
+        <f>H16:H72+I16:I72</f>
         <v>0</v>
       </c>
       <c r="K16" s="1"/>
       <c r="L16" s="1">
-        <f t="shared" si="1"/>
+        <f>K16:K72-J16:J72</f>
         <v>0</v>
       </c>
       <c r="M16" s="3"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -1168,19 +1174,19 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="J17:J51" si="0">H17:H90+I17:I90</f>
         <v>0</v>
       </c>
       <c r="K17" s="1"/>
       <c r="L17" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="L17:L51" si="1">K17:K90-J17:J90</f>
         <v>0</v>
       </c>
       <c r="M17" s="3"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1202,7 +1208,7 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1224,7 +1230,7 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1246,7 +1252,7 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1268,7 +1274,7 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1289,13 +1295,16 @@
       <c r="M22" s="3"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A23" s="1">
-        <v>20</v>
-      </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
+      <c r="A23" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="2">
+        <f>SUM(E4:E22)</f>
+        <v>1727000</v>
+      </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
@@ -1311,9 +1320,7 @@
       <c r="M23" s="3"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A24" s="1">
-        <v>21</v>
-      </c>
+      <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1333,9 +1340,7 @@
       <c r="M24" s="3"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A25" s="1">
-        <v>22</v>
-      </c>
+      <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1355,9 +1360,7 @@
       <c r="M25" s="3"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A26" s="1">
-        <v>23</v>
-      </c>
+      <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1377,9 +1380,7 @@
       <c r="M26" s="3"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A27" s="1">
-        <v>24</v>
-      </c>
+      <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -1399,9 +1400,7 @@
       <c r="M27" s="3"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A28" s="1">
-        <v>25</v>
-      </c>
+      <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1421,9 +1420,7 @@
       <c r="M28" s="3"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A29" s="1">
-        <v>26</v>
-      </c>
+      <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1443,9 +1440,7 @@
       <c r="M29" s="3"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A30" s="1">
-        <v>27</v>
-      </c>
+      <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -1465,9 +1460,7 @@
       <c r="M30" s="3"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A31" s="1">
-        <v>28</v>
-      </c>
+      <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1487,9 +1480,7 @@
       <c r="M31" s="3"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A32" s="1">
-        <v>29</v>
-      </c>
+      <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1509,9 +1500,7 @@
       <c r="M32" s="3"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A33" s="1">
-        <v>30</v>
-      </c>
+      <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1531,9 +1520,7 @@
       <c r="M33" s="3"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A34" s="1">
-        <v>31</v>
-      </c>
+      <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1553,9 +1540,7 @@
       <c r="M34" s="3"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A35" s="1">
-        <v>32</v>
-      </c>
+      <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1575,9 +1560,7 @@
       <c r="M35" s="3"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A36" s="1">
-        <v>33</v>
-      </c>
+      <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1597,9 +1580,7 @@
       <c r="M36" s="3"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A37" s="1">
-        <v>34</v>
-      </c>
+      <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1619,9 +1600,7 @@
       <c r="M37" s="3"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A38" s="1">
-        <v>35</v>
-      </c>
+      <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1641,9 +1620,7 @@
       <c r="M38" s="3"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A39" s="1">
-        <v>47</v>
-      </c>
+      <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1663,16 +1640,11 @@
       <c r="M39" s="3"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A40" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B40" s="10"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="2">
-        <f>SUM(E4:E39)</f>
-        <v>1727000</v>
-      </c>
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
@@ -1917,12 +1889,12 @@
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
       <c r="J52" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="J52:J60" si="2">H52:H125+I52:I125</f>
         <v>0</v>
       </c>
       <c r="K52" s="1"/>
       <c r="L52" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="L52:L60" si="3">K52:K125-J52:J125</f>
         <v>0</v>
       </c>
       <c r="M52" s="3"/>
@@ -1937,12 +1909,12 @@
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
       <c r="J53" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K53" s="1"/>
       <c r="L53" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M53" s="3"/>
@@ -1957,12 +1929,12 @@
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
       <c r="J54" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K54" s="1"/>
       <c r="L54" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M54" s="3"/>
@@ -1977,12 +1949,12 @@
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
       <c r="J55" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K55" s="1"/>
       <c r="L55" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M55" s="3"/>
@@ -1997,12 +1969,12 @@
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
       <c r="J56" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K56" s="1"/>
       <c r="L56" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M56" s="3"/>
@@ -2017,12 +1989,12 @@
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
       <c r="J57" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K57" s="1"/>
       <c r="L57" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M57" s="3"/>
@@ -2037,12 +2009,12 @@
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
       <c r="J58" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K58" s="1"/>
       <c r="L58" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M58" s="3"/>
@@ -2057,12 +2029,12 @@
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
       <c r="J59" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K59" s="1"/>
       <c r="L59" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M59" s="3"/>
@@ -2077,361 +2049,21 @@
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
       <c r="J60" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K60" s="1"/>
       <c r="L60" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A61" s="1"/>
-      <c r="B61" s="1"/>
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
-      <c r="G61" s="1"/>
-      <c r="H61" s="1"/>
-      <c r="I61" s="1"/>
-      <c r="J61" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K61" s="1"/>
-      <c r="L61" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A62" s="1"/>
-      <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
-      <c r="G62" s="1"/>
-      <c r="H62" s="1"/>
-      <c r="I62" s="1"/>
-      <c r="J62" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K62" s="1"/>
-      <c r="L62" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A63" s="1"/>
-      <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
-      <c r="G63" s="1"/>
-      <c r="H63" s="1"/>
-      <c r="I63" s="1"/>
-      <c r="J63" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K63" s="1"/>
-      <c r="L63" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A64" s="1"/>
-      <c r="B64" s="1"/>
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
-      <c r="G64" s="1"/>
-      <c r="H64" s="1"/>
-      <c r="I64" s="1"/>
-      <c r="J64" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K64" s="1"/>
-      <c r="L64" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A65" s="1"/>
-      <c r="B65" s="1"/>
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
-      <c r="G65" s="1"/>
-      <c r="H65" s="1"/>
-      <c r="I65" s="1"/>
-      <c r="J65" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K65" s="1"/>
-      <c r="L65" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A66" s="1"/>
-      <c r="B66" s="1"/>
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
-      <c r="G66" s="1"/>
-      <c r="H66" s="1"/>
-      <c r="I66" s="1"/>
-      <c r="J66" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K66" s="1"/>
-      <c r="L66" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A67" s="1"/>
-      <c r="B67" s="1"/>
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
-      <c r="G67" s="1"/>
-      <c r="H67" s="1"/>
-      <c r="I67" s="1"/>
-      <c r="J67" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K67" s="1"/>
-      <c r="L67" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A68" s="1"/>
-      <c r="B68" s="1"/>
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
-      <c r="G68" s="1"/>
-      <c r="H68" s="1"/>
-      <c r="I68" s="1"/>
-      <c r="J68" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K68" s="1"/>
-      <c r="L68" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A69" s="1"/>
-      <c r="B69" s="1"/>
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
-      <c r="E69" s="1"/>
-      <c r="G69" s="1"/>
-      <c r="H69" s="1"/>
-      <c r="I69" s="1"/>
-      <c r="J69" s="1">
-        <f t="shared" ref="J69:J77" si="2">H69:H142+I69:I142</f>
-        <v>0</v>
-      </c>
-      <c r="K69" s="1"/>
-      <c r="L69" s="1">
-        <f t="shared" ref="L69:L77" si="3">K69:K142-J69:J142</f>
-        <v>0</v>
-      </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A70" s="1"/>
-      <c r="B70" s="1"/>
-      <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
-      <c r="E70" s="1"/>
-      <c r="G70" s="1"/>
-      <c r="H70" s="1"/>
-      <c r="I70" s="1"/>
-      <c r="J70" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K70" s="1"/>
-      <c r="L70" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A71" s="1"/>
-      <c r="B71" s="1"/>
-      <c r="C71" s="1"/>
-      <c r="D71" s="1"/>
-      <c r="E71" s="1"/>
-      <c r="G71" s="1"/>
-      <c r="H71" s="1"/>
-      <c r="I71" s="1"/>
-      <c r="J71" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K71" s="1"/>
-      <c r="L71" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A72" s="1"/>
-      <c r="B72" s="1"/>
-      <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
-      <c r="E72" s="1"/>
-      <c r="G72" s="1"/>
-      <c r="H72" s="1"/>
-      <c r="I72" s="1"/>
-      <c r="J72" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K72" s="1"/>
-      <c r="L72" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A73" s="1"/>
-      <c r="B73" s="1"/>
-      <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
-      <c r="E73" s="1"/>
-      <c r="G73" s="1"/>
-      <c r="H73" s="1"/>
-      <c r="I73" s="1"/>
-      <c r="J73" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K73" s="1"/>
-      <c r="L73" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A74" s="1"/>
-      <c r="B74" s="1"/>
-      <c r="C74" s="1"/>
-      <c r="D74" s="1"/>
-      <c r="E74" s="1"/>
-      <c r="G74" s="1"/>
-      <c r="H74" s="1"/>
-      <c r="I74" s="1"/>
-      <c r="J74" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K74" s="1"/>
-      <c r="L74" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A75" s="1"/>
-      <c r="B75" s="1"/>
-      <c r="C75" s="1"/>
-      <c r="D75" s="1"/>
-      <c r="E75" s="1"/>
-      <c r="G75" s="1"/>
-      <c r="H75" s="1"/>
-      <c r="I75" s="1"/>
-      <c r="J75" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K75" s="1"/>
-      <c r="L75" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A76" s="1"/>
-      <c r="B76" s="1"/>
-      <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
-      <c r="E76" s="1"/>
-      <c r="G76" s="1"/>
-      <c r="H76" s="1"/>
-      <c r="I76" s="1"/>
-      <c r="J76" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K76" s="1"/>
-      <c r="L76" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A77" s="1"/>
-      <c r="B77" s="1"/>
-      <c r="C77" s="1"/>
-      <c r="D77" s="1"/>
-      <c r="E77" s="1"/>
-      <c r="G77" s="1"/>
-      <c r="H77" s="1"/>
-      <c r="I77" s="1"/>
-      <c r="J77" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K77" s="1"/>
-      <c r="L77" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M77" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:E2"/>
     <mergeCell ref="G1:L2"/>
-    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="A23:D23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Chi tiêu.xlsx
+++ b/Chi tiêu.xlsx
@@ -1,31 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KẾ HOẠCH\Yolo-Fashion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\Yolo-Fashion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72ED679E-0889-4A4A-9CCB-EBC1E2CDDB0E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76F55EB8-00C2-43CC-A2D5-021CDF1A1F41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
   <si>
     <t>Tên</t>
   </si>
@@ -54,9 +61,6 @@
     <t>500 follow insta</t>
   </si>
   <si>
-    <t>Column1</t>
-  </si>
-  <si>
     <t>TỔNG</t>
   </si>
   <si>
@@ -127,6 +131,15 @@
   </si>
   <si>
     <t>Mượn tiền nhập hàng</t>
+  </si>
+  <si>
+    <t>Ghi chú</t>
+  </si>
+  <si>
+    <t>Lần 1</t>
+  </si>
+  <si>
+    <t>Lần 2</t>
   </si>
 </sst>
 </file>
@@ -274,7 +287,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -286,7 +299,6 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -305,11 +317,28 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -323,13 +352,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A52D2C41-0280-4D2F-914D-B4ECECDC90F5}" name="Table1" displayName="Table1" ref="O3:R11" totalsRowCount="1">
-  <tableColumns count="4">
-    <tableColumn id="5" xr3:uid="{F4B9908A-F08F-4505-AD3C-F5F4F7C8C149}" name="Column1"/>
-    <tableColumn id="1" xr3:uid="{04EB296B-B4C8-4FA6-93F6-0F295DECB76C}" name="NGỌC HÀ"/>
-    <tableColumn id="2" xr3:uid="{D33B723B-1CB5-4499-8F71-40EA7E55E1F0}" name="THẢO NGUYÊN"/>
-    <tableColumn id="3" xr3:uid="{9DF80182-5350-4DF5-AB37-0D7C3613C6DC}" name="PHƯƠNG HÀ" totalsRowFunction="custom">
-      <totalsRowFormula>SUM(P10:R10)</totalsRowFormula>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A52D2C41-0280-4D2F-914D-B4ECECDC90F5}" name="Table1" displayName="Table1" ref="O3:S11" totalsRowCount="1">
+  <tableColumns count="5">
+    <tableColumn id="5" xr3:uid="{F4B9908A-F08F-4505-AD3C-F5F4F7C8C149}" name="Ghi chú"/>
+    <tableColumn id="1" xr3:uid="{04EB296B-B4C8-4FA6-93F6-0F295DECB76C}" name="NGỌC HÀ" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{D33B723B-1CB5-4499-8F71-40EA7E55E1F0}" name="THẢO NGUYÊN" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{9DF80182-5350-4DF5-AB37-0D7C3613C6DC}" name="PHƯƠNG HÀ" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{72C8D604-241D-4B0A-B33D-FBA2293D9CA8}" name="Tổng" dataDxfId="0">
+      <calculatedColumnFormula>SUM(P4:R4)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -599,10 +629,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R60"/>
+  <dimension ref="A1:S60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="Q19" sqref="Q19"/>
+    <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -613,49 +643,53 @@
     <col min="4" max="4" width="7.6328125" customWidth="1"/>
     <col min="5" max="5" width="10.26953125" customWidth="1"/>
     <col min="7" max="7" width="12.7265625" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.453125" customWidth="1"/>
     <col min="12" max="12" width="10.54296875" customWidth="1"/>
     <col min="13" max="14" width="6.6328125" customWidth="1"/>
-    <col min="15" max="15" width="11.6328125" customWidth="1"/>
+    <col min="15" max="15" width="14.453125" customWidth="1"/>
     <col min="16" max="16" width="14.90625" customWidth="1"/>
     <col min="17" max="17" width="17.81640625" customWidth="1"/>
     <col min="18" max="18" width="15.7265625" customWidth="1"/>
+    <col min="19" max="19" width="13.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="G1" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="G1" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
       <c r="M1" s="6"/>
     </row>
-    <row r="2" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
+    <row r="2" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
       <c r="M2" s="4"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>0</v>
@@ -670,656 +704,750 @@
         <v>4</v>
       </c>
       <c r="G3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="I3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="5" t="s">
-        <v>25</v>
-      </c>
       <c r="J3" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" s="5" t="s">
         <v>30</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>31</v>
       </c>
       <c r="M3" s="3"/>
       <c r="O3" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="P3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R3" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" t="s">
-        <v>11</v>
-      </c>
-      <c r="R3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="13">
         <v>130000</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="13">
         <v>130000</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" s="1">
+        <v>26</v>
+      </c>
+      <c r="H4" s="13">
         <f xml:space="preserve"> 4099000 + 125000</f>
         <v>4224000</v>
       </c>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1">
-        <f>H4:H60+I4:I60</f>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13">
+        <f t="shared" ref="J4:J16" si="0">H4:H60+I4:I60</f>
         <v>4224000</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="14">
         <v>5741000</v>
       </c>
-      <c r="L4" s="1">
-        <f>K4:K60-J4:J60</f>
+      <c r="L4" s="13">
+        <f t="shared" ref="L4:L16" si="1">K4:K60-J4:J60</f>
         <v>1517000</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="P4">
+      <c r="O4" t="s">
+        <v>34</v>
+      </c>
+      <c r="P4" s="14">
         <v>500000</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" s="14">
         <v>500000</v>
       </c>
-      <c r="R4">
+      <c r="R4" s="14">
         <v>500000</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S4" s="14">
+        <f t="shared" ref="S4:S10" si="2">SUM(P4:R4)</f>
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="13">
         <v>777000</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="13">
         <v>777000</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" s="1">
+        <v>27</v>
+      </c>
+      <c r="H5" s="13">
         <v>8452000</v>
       </c>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1">
-        <f>H5:H61+I5:I61</f>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13">
+        <f t="shared" si="0"/>
         <v>8452000</v>
       </c>
-      <c r="K5" s="1">
+      <c r="K5" s="13">
         <v>10700000</v>
       </c>
-      <c r="L5" s="1">
-        <f>K5:K61-J5:J61</f>
+      <c r="L5" s="13">
+        <f t="shared" si="1"/>
         <v>2248000</v>
       </c>
       <c r="M5" s="3"/>
-      <c r="P5">
+      <c r="O5" t="s">
+        <v>35</v>
+      </c>
+      <c r="P5" s="14">
         <v>200000</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" s="14">
         <v>200000</v>
       </c>
-      <c r="R5">
+      <c r="R5" s="14">
         <v>200000</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S5" s="14">
+        <f t="shared" si="2"/>
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="13">
         <v>60000</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="13">
         <v>60000</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H6" s="1">
+        <v>28</v>
+      </c>
+      <c r="H6" s="13">
         <f>1621000 + 82000*4</f>
         <v>1949000</v>
       </c>
-      <c r="I6" s="7"/>
-      <c r="J6" s="1">
-        <f>H6:H62+I6:I62</f>
+      <c r="I6" s="15"/>
+      <c r="J6" s="13">
+        <f t="shared" si="0"/>
         <v>1949000</v>
       </c>
-      <c r="K6" s="1">
+      <c r="K6" s="13">
         <v>2756000</v>
       </c>
-      <c r="L6" s="1">
-        <f>K6:K62-J6:J62</f>
+      <c r="L6" s="13">
+        <f t="shared" si="1"/>
         <v>807000</v>
       </c>
       <c r="M6" s="3"/>
       <c r="O6" t="s">
-        <v>33</v>
-      </c>
-      <c r="P6">
+        <v>32</v>
+      </c>
+      <c r="P6" s="14">
         <v>1500000</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" s="14">
         <v>1500000</v>
       </c>
-      <c r="R6">
+      <c r="R6" s="14">
         <v>1500000</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S6" s="14">
+        <f t="shared" si="2"/>
+        <v>4500000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="13">
         <v>80000</v>
       </c>
       <c r="D7" s="1">
         <v>1</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="13">
         <v>80000</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H7" s="1">
+        <v>31</v>
+      </c>
+      <c r="H7" s="13">
         <f>82000*6</f>
         <v>492000</v>
       </c>
-      <c r="I7" s="7"/>
-      <c r="J7" s="1">
-        <f>H7:H63+I7:I63</f>
+      <c r="I7" s="15"/>
+      <c r="J7" s="13">
+        <f t="shared" si="0"/>
         <v>492000</v>
       </c>
-      <c r="K7" s="1">
+      <c r="K7" s="13">
         <f>170000*6</f>
         <v>1020000</v>
       </c>
-      <c r="L7" s="1">
-        <f>K7:K63-J7:J63</f>
+      <c r="L7" s="13">
+        <f t="shared" si="1"/>
         <v>528000</v>
       </c>
       <c r="M7" s="3"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="14"/>
+      <c r="S7" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="13">
         <v>60000</v>
       </c>
       <c r="D8" s="1">
         <v>1</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="13">
         <v>60000</v>
       </c>
       <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1">
-        <f>H8:H64+I8:I64</f>
-        <v>0</v>
-      </c>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1">
-        <f>K8:K64-J8:J64</f>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="P8" s="14"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="14"/>
+      <c r="S8" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="1">
+        <v>13</v>
+      </c>
+      <c r="C9" s="13">
         <v>10000</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="13">
         <v>10000</v>
       </c>
       <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1">
-        <f>H9:H65+I9:I65</f>
-        <v>0</v>
-      </c>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1">
-        <f>K9:K65-J9:J65</f>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="P9" s="14"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="14"/>
+      <c r="S9" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="1">
+        <v>14</v>
+      </c>
+      <c r="C10" s="13">
         <v>50000</v>
       </c>
       <c r="D10" s="1">
         <v>1</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="13">
         <v>50000</v>
       </c>
       <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1">
-        <f>H10:H66+I10:I66</f>
-        <v>0</v>
-      </c>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1">
-        <f>K10:K66-J10:J66</f>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M10" s="3"/>
       <c r="O10" t="s">
-        <v>10</v>
-      </c>
-      <c r="P10">
+        <v>9</v>
+      </c>
+      <c r="P10" s="14">
         <f xml:space="preserve"> SUM(P4:P9)</f>
         <v>2200000</v>
       </c>
-      <c r="Q10">
+      <c r="Q10" s="14">
         <f>SUM(Q4:Q9)</f>
         <v>2200000</v>
       </c>
-      <c r="R10">
+      <c r="R10" s="14">
         <f>SUM(R4:R9)</f>
         <v>2200000</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S10" s="16">
+        <f t="shared" si="2"/>
+        <v>6600000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="1">
+        <v>15</v>
+      </c>
+      <c r="C11" s="13">
         <v>45000</v>
       </c>
       <c r="D11" s="1">
         <v>2</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="13">
         <f>C11*D11</f>
         <v>90000</v>
       </c>
       <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1">
-        <f>H11:H67+I11:I67</f>
-        <v>0</v>
-      </c>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1">
-        <f>K11:K67-J11:J67</f>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M11" s="3"/>
-      <c r="R11">
-        <f>SUM(P10:R10)</f>
-        <v>6600000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="P11" s="14"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="14"/>
+      <c r="S11" s="14"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="1">
+        <v>16</v>
+      </c>
+      <c r="C12" s="13">
         <v>25000</v>
       </c>
       <c r="D12" s="1">
         <v>3</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="13">
         <f>C12*D12</f>
         <v>75000</v>
       </c>
       <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1">
-        <f>H12:H68+I12:I68</f>
-        <v>0</v>
-      </c>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1">
-        <f>K12:K68-J12:J68</f>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="14"/>
+      <c r="S12" s="14"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="1">
+        <v>17</v>
+      </c>
+      <c r="C13" s="13">
         <v>50000</v>
       </c>
       <c r="D13" s="1">
         <v>1</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="13">
         <v>45000</v>
       </c>
       <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1">
-        <f>H13:H69+I13:I69</f>
-        <v>0</v>
-      </c>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1">
-        <f>K13:K69-J13:J69</f>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="P13" s="14"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="14"/>
+      <c r="S13" s="14"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>11</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="1">
+        <v>18</v>
+      </c>
+      <c r="C14" s="13">
         <v>50000</v>
       </c>
       <c r="D14" s="1">
         <v>1</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="13">
         <v>50000</v>
       </c>
       <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1">
-        <f>H14:H70+I14:I70</f>
-        <v>0</v>
-      </c>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1">
-        <f>K14:K70-J14:J70</f>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="P14" s="14"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="14"/>
+      <c r="S14" s="14"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>12</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="1">
+        <v>19</v>
+      </c>
+      <c r="C15" s="13">
         <v>300000</v>
       </c>
       <c r="D15" s="1">
         <v>1</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="13">
         <v>300000</v>
       </c>
       <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1">
-        <f>H15:H71+I15:I71</f>
-        <v>0</v>
-      </c>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1">
-        <f>K15:K71-J15:J71</f>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="P15" s="14"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="14"/>
+      <c r="S15" s="14"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>13</v>
       </c>
       <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
+      <c r="C16" s="13"/>
       <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
+      <c r="E16" s="13"/>
       <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1">
-        <f>H16:H72+I16:I72</f>
-        <v>0</v>
-      </c>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1">
-        <f>K16:K72-J16:J72</f>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="P16" s="14"/>
+      <c r="Q16" s="14"/>
+      <c r="R16" s="14"/>
+      <c r="S16" s="14"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>31</v>
       </c>
       <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
+      <c r="C17" s="13"/>
       <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
+      <c r="E17" s="13"/>
       <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1">
-        <f t="shared" ref="J17:J51" si="0">H17:H90+I17:I90</f>
-        <v>0</v>
-      </c>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1">
-        <f t="shared" ref="L17:L51" si="1">K17:K90-J17:J90</f>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13">
+        <f t="shared" ref="J17:J51" si="3">H17:H90+I17:I90</f>
+        <v>0</v>
+      </c>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13">
+        <f t="shared" ref="L17:L51" si="4">K17:K90-J17:J90</f>
         <v>0</v>
       </c>
       <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="P17" s="14"/>
+      <c r="Q17" s="14"/>
+      <c r="R17" s="14"/>
+      <c r="S17" s="14"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>32</v>
       </c>
       <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
+      <c r="C18" s="13"/>
       <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
+      <c r="E18" s="13"/>
       <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1">
-        <f t="shared" si="1"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="P18" s="14"/>
+      <c r="Q18" s="14"/>
+      <c r="R18" s="14"/>
+      <c r="S18" s="14"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>33</v>
       </c>
       <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
+      <c r="C19" s="13"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
+      <c r="E19" s="13"/>
       <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1">
-        <f t="shared" si="1"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="P19" s="14"/>
+      <c r="Q19" s="14"/>
+      <c r="R19" s="14"/>
+      <c r="S19" s="14"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>34</v>
       </c>
       <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
+      <c r="C20" s="13"/>
       <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
+      <c r="E20" s="13"/>
       <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1">
-        <f t="shared" si="1"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="P20" s="14"/>
+      <c r="Q20" s="14"/>
+      <c r="R20" s="14"/>
+      <c r="S20" s="14"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>35</v>
       </c>
       <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
+      <c r="C21" s="13"/>
       <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
+      <c r="E21" s="13"/>
       <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1">
-        <f t="shared" si="1"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="P21" s="14"/>
+      <c r="Q21" s="14"/>
+      <c r="R21" s="14"/>
+      <c r="S21" s="14"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>47</v>
       </c>
       <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
+      <c r="C22" s="13"/>
       <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
+      <c r="E22" s="13"/>
       <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1">
-        <f t="shared" si="1"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A23" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="13"/>
+      <c r="P22" s="14"/>
+      <c r="Q22" s="14"/>
+      <c r="R22" s="14"/>
+      <c r="S22" s="14"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A23" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="12"/>
       <c r="E23" s="2">
         <f>SUM(E4:E22)</f>
         <v>1727000</v>
       </c>
       <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1">
-        <f t="shared" si="1"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="P23" s="14"/>
+      <c r="Q23" s="14"/>
+      <c r="R23" s="14"/>
+      <c r="S23" s="14"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1329,17 +1457,21 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K24" s="1"/>
       <c r="L24" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="P24" s="14"/>
+      <c r="Q24" s="14"/>
+      <c r="R24" s="14"/>
+      <c r="S24" s="14"/>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1349,17 +1481,21 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K25" s="1"/>
       <c r="L25" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="P25" s="14"/>
+      <c r="Q25" s="14"/>
+      <c r="R25" s="14"/>
+      <c r="S25" s="14"/>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1369,17 +1505,17 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K26" s="1"/>
       <c r="L26" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M26" s="3"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1389,17 +1525,17 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K27" s="1"/>
       <c r="L27" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M27" s="3"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -1409,17 +1545,17 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K28" s="1"/>
       <c r="L28" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M28" s="3"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1429,17 +1565,17 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K29" s="1"/>
       <c r="L29" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M29" s="3"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1449,17 +1585,17 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K30" s="1"/>
       <c r="L30" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M30" s="3"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -1469,17 +1605,17 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K31" s="1"/>
       <c r="L31" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M31" s="3"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -1489,12 +1625,12 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K32" s="1"/>
       <c r="L32" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M32" s="3"/>
@@ -1509,12 +1645,12 @@
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K33" s="1"/>
       <c r="L33" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M33" s="3"/>
@@ -1529,12 +1665,12 @@
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K34" s="1"/>
       <c r="L34" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M34" s="3"/>
@@ -1549,12 +1685,12 @@
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K35" s="1"/>
       <c r="L35" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M35" s="3"/>
@@ -1569,12 +1705,12 @@
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K36" s="1"/>
       <c r="L36" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M36" s="3"/>
@@ -1589,12 +1725,12 @@
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K37" s="1"/>
       <c r="L37" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M37" s="3"/>
@@ -1609,12 +1745,12 @@
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K38" s="1"/>
       <c r="L38" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M38" s="3"/>
@@ -1629,12 +1765,12 @@
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K39" s="1"/>
       <c r="L39" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M39" s="3"/>
@@ -1649,12 +1785,12 @@
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
       <c r="J40" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K40" s="1"/>
       <c r="L40" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M40" s="3"/>
@@ -1669,12 +1805,12 @@
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K41" s="1"/>
       <c r="L41" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M41" s="3"/>
@@ -1689,12 +1825,12 @@
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K42" s="1"/>
       <c r="L42" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M42" s="3"/>
@@ -1709,12 +1845,12 @@
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
       <c r="J43" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K43" s="1"/>
       <c r="L43" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M43" s="3"/>
@@ -1729,12 +1865,12 @@
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K44" s="1"/>
       <c r="L44" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M44" s="3"/>
@@ -1749,12 +1885,12 @@
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K45" s="1"/>
       <c r="L45" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M45" s="3"/>
@@ -1769,12 +1905,12 @@
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
       <c r="J46" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K46" s="1"/>
       <c r="L46" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M46" s="3"/>
@@ -1789,12 +1925,12 @@
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
       <c r="J47" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K47" s="1"/>
       <c r="L47" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M47" s="3"/>
@@ -1809,12 +1945,12 @@
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
       <c r="J48" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K48" s="1"/>
       <c r="L48" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M48" s="3"/>
@@ -1829,12 +1965,12 @@
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
       <c r="J49" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K49" s="1"/>
       <c r="L49" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M49" s="3"/>
@@ -1849,12 +1985,12 @@
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
       <c r="J50" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K50" s="1"/>
       <c r="L50" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M50" s="3"/>
@@ -1869,12 +2005,12 @@
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
       <c r="J51" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K51" s="1"/>
       <c r="L51" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M51" s="3"/>
@@ -1889,12 +2025,12 @@
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
       <c r="J52" s="1">
-        <f t="shared" ref="J52:J60" si="2">H52:H125+I52:I125</f>
+        <f t="shared" ref="J52:J60" si="5">H52:H125+I52:I125</f>
         <v>0</v>
       </c>
       <c r="K52" s="1"/>
       <c r="L52" s="1">
-        <f t="shared" ref="L52:L60" si="3">K52:K125-J52:J125</f>
+        <f t="shared" ref="L52:L60" si="6">K52:K125-J52:J125</f>
         <v>0</v>
       </c>
       <c r="M52" s="3"/>
@@ -1909,12 +2045,12 @@
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
       <c r="J53" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K53" s="1"/>
       <c r="L53" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M53" s="3"/>
@@ -1929,12 +2065,12 @@
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
       <c r="J54" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K54" s="1"/>
       <c r="L54" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M54" s="3"/>
@@ -1949,12 +2085,12 @@
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
       <c r="J55" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K55" s="1"/>
       <c r="L55" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M55" s="3"/>
@@ -1969,12 +2105,12 @@
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
       <c r="J56" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K56" s="1"/>
       <c r="L56" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M56" s="3"/>
@@ -1989,12 +2125,12 @@
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
       <c r="J57" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K57" s="1"/>
       <c r="L57" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M57" s="3"/>
@@ -2009,12 +2145,12 @@
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
       <c r="J58" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K58" s="1"/>
       <c r="L58" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M58" s="3"/>
@@ -2029,12 +2165,12 @@
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
       <c r="J59" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K59" s="1"/>
       <c r="L59" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M59" s="3"/>
@@ -2049,12 +2185,12 @@
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
       <c r="J60" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K60" s="1"/>
       <c r="L60" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M60" s="3"/>

--- a/Chi tiêu.xlsx
+++ b/Chi tiêu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KẾ HOẠCH\Yolo-Fashion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72ED679E-0889-4A4A-9CCB-EBC1E2CDDB0E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{903E69A8-C5B9-457B-A343-03A7BBE001AF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
   <si>
     <t>Tên</t>
   </si>
@@ -127,6 +127,9 @@
   </si>
   <si>
     <t>Mượn tiền nhập hàng</t>
+  </si>
+  <si>
+    <t>cọc 2tr, còn 2tr1</t>
   </si>
 </sst>
 </file>
@@ -274,7 +277,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -305,6 +308,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -602,7 +606,7 @@
   <dimension ref="A1:R60"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="Q19" sqref="Q19"/>
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -720,23 +724,25 @@
       <c r="G4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4" s="2">
         <f xml:space="preserve"> 4099000 + 125000</f>
         <v>4224000</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1">
-        <f>H4:H60+I4:I60</f>
+        <f t="shared" ref="J4:J16" si="0">H4:H60+I4:I60</f>
         <v>4224000</v>
       </c>
       <c r="K4">
         <v>5741000</v>
       </c>
       <c r="L4" s="1">
-        <f>K4:K60-J4:J60</f>
+        <f t="shared" ref="L4:L16" si="1">K4:K60-J4:J60</f>
         <v>1517000</v>
       </c>
-      <c r="M4" s="3"/>
+      <c r="M4" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="P4">
         <v>500000</v>
       </c>
@@ -766,19 +772,19 @@
       <c r="G5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="14">
         <v>8452000</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1">
-        <f>H5:H61+I5:I61</f>
+        <f t="shared" si="0"/>
         <v>8452000</v>
       </c>
       <c r="K5" s="1">
         <v>10700000</v>
       </c>
       <c r="L5" s="1">
-        <f>K5:K61-J5:J61</f>
+        <f t="shared" si="1"/>
         <v>2248000</v>
       </c>
       <c r="M5" s="3"/>
@@ -811,20 +817,20 @@
       <c r="G6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="14">
         <f>1621000 + 82000*4</f>
         <v>1949000</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="1">
-        <f>H6:H62+I6:I62</f>
+        <f t="shared" si="0"/>
         <v>1949000</v>
       </c>
       <c r="K6" s="1">
         <v>2756000</v>
       </c>
       <c r="L6" s="1">
-        <f>K6:K62-J6:J62</f>
+        <f t="shared" si="1"/>
         <v>807000</v>
       </c>
       <c r="M6" s="3"/>
@@ -860,22 +866,24 @@
       <c r="G7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7" s="14">
         <f>82000*6</f>
         <v>492000</v>
       </c>
-      <c r="I7" s="7"/>
+      <c r="I7" s="7">
+        <v>30000</v>
+      </c>
       <c r="J7" s="1">
-        <f>H7:H63+I7:I63</f>
-        <v>492000</v>
+        <f t="shared" si="0"/>
+        <v>522000</v>
       </c>
       <c r="K7" s="1">
         <f>170000*6</f>
         <v>1020000</v>
       </c>
       <c r="L7" s="1">
-        <f>K7:K63-J7:J63</f>
-        <v>528000</v>
+        <f t="shared" si="1"/>
+        <v>498000</v>
       </c>
       <c r="M7" s="3"/>
     </row>
@@ -899,12 +907,12 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1">
-        <f>H8:H64+I8:I64</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K8" s="1"/>
       <c r="L8" s="1">
-        <f>K8:K64-J8:J64</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M8" s="3"/>
@@ -929,12 +937,12 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1">
-        <f>H9:H65+I9:I65</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K9" s="1"/>
       <c r="L9" s="1">
-        <f>K9:K65-J9:J65</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M9" s="3"/>
@@ -959,12 +967,12 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1">
-        <f>H10:H66+I10:I66</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K10" s="1"/>
       <c r="L10" s="1">
-        <f>K10:K66-J10:J66</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M10" s="3"/>
@@ -1005,12 +1013,12 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1">
-        <f>H11:H67+I11:I67</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K11" s="1"/>
       <c r="L11" s="1">
-        <f>K11:K67-J11:J67</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M11" s="3"/>
@@ -1040,12 +1048,12 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1">
-        <f>H12:H68+I12:I68</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K12" s="1"/>
       <c r="L12" s="1">
-        <f>K12:K68-J12:J68</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M12" s="3"/>
@@ -1070,12 +1078,12 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1">
-        <f>H13:H69+I13:I69</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K13" s="1"/>
       <c r="L13" s="1">
-        <f>K13:K69-J13:J69</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M13" s="3"/>
@@ -1100,12 +1108,12 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1">
-        <f>H14:H70+I14:I70</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K14" s="1"/>
       <c r="L14" s="1">
-        <f>K14:K70-J14:J70</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M14" s="3"/>
@@ -1130,12 +1138,12 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1">
-        <f>H15:H71+I15:I71</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K15" s="1"/>
       <c r="L15" s="1">
-        <f>K15:K71-J15:J71</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M15" s="3"/>
@@ -1152,12 +1160,12 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1">
-        <f>H16:H72+I16:I72</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K16" s="1"/>
       <c r="L16" s="1">
-        <f>K16:K72-J16:J72</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M16" s="3"/>
@@ -1174,12 +1182,12 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1">
-        <f t="shared" ref="J17:J51" si="0">H17:H90+I17:I90</f>
+        <f t="shared" ref="J17:J51" si="2">H17:H90+I17:I90</f>
         <v>0</v>
       </c>
       <c r="K17" s="1"/>
       <c r="L17" s="1">
-        <f t="shared" ref="L17:L51" si="1">K17:K90-J17:J90</f>
+        <f t="shared" ref="L17:L51" si="3">K17:K90-J17:J90</f>
         <v>0</v>
       </c>
       <c r="M17" s="3"/>
@@ -1196,12 +1204,12 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K18" s="1"/>
       <c r="L18" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M18" s="3"/>
@@ -1218,12 +1226,12 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K19" s="1"/>
       <c r="L19" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M19" s="3"/>
@@ -1240,12 +1248,12 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K20" s="1"/>
       <c r="L20" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M20" s="3"/>
@@ -1262,12 +1270,12 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K21" s="1"/>
       <c r="L21" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M21" s="3"/>
@@ -1284,12 +1292,12 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K22" s="1"/>
       <c r="L22" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M22" s="3"/>
@@ -1309,12 +1317,12 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K23" s="1"/>
       <c r="L23" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M23" s="3"/>
@@ -1329,12 +1337,12 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K24" s="1"/>
       <c r="L24" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M24" s="3"/>
@@ -1349,12 +1357,12 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K25" s="1"/>
       <c r="L25" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M25" s="3"/>
@@ -1369,12 +1377,12 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K26" s="1"/>
       <c r="L26" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M26" s="3"/>
@@ -1389,12 +1397,12 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K27" s="1"/>
       <c r="L27" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M27" s="3"/>
@@ -1409,12 +1417,12 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K28" s="1"/>
       <c r="L28" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M28" s="3"/>
@@ -1429,12 +1437,12 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K29" s="1"/>
       <c r="L29" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M29" s="3"/>
@@ -1449,12 +1457,12 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K30" s="1"/>
       <c r="L30" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M30" s="3"/>
@@ -1469,12 +1477,12 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K31" s="1"/>
       <c r="L31" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M31" s="3"/>
@@ -1489,12 +1497,12 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K32" s="1"/>
       <c r="L32" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M32" s="3"/>
@@ -1509,12 +1517,12 @@
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K33" s="1"/>
       <c r="L33" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M33" s="3"/>
@@ -1529,12 +1537,12 @@
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K34" s="1"/>
       <c r="L34" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M34" s="3"/>
@@ -1549,12 +1557,12 @@
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K35" s="1"/>
       <c r="L35" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M35" s="3"/>
@@ -1569,12 +1577,12 @@
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K36" s="1"/>
       <c r="L36" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M36" s="3"/>
@@ -1589,12 +1597,12 @@
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K37" s="1"/>
       <c r="L37" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M37" s="3"/>
@@ -1609,12 +1617,12 @@
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K38" s="1"/>
       <c r="L38" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M38" s="3"/>
@@ -1629,12 +1637,12 @@
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K39" s="1"/>
       <c r="L39" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M39" s="3"/>
@@ -1649,12 +1657,12 @@
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
       <c r="J40" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K40" s="1"/>
       <c r="L40" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M40" s="3"/>
@@ -1669,12 +1677,12 @@
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K41" s="1"/>
       <c r="L41" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M41" s="3"/>
@@ -1689,12 +1697,12 @@
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K42" s="1"/>
       <c r="L42" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M42" s="3"/>
@@ -1709,12 +1717,12 @@
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
       <c r="J43" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K43" s="1"/>
       <c r="L43" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M43" s="3"/>
@@ -1729,12 +1737,12 @@
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K44" s="1"/>
       <c r="L44" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M44" s="3"/>
@@ -1749,12 +1757,12 @@
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K45" s="1"/>
       <c r="L45" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M45" s="3"/>
@@ -1769,12 +1777,12 @@
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
       <c r="J46" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K46" s="1"/>
       <c r="L46" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M46" s="3"/>
@@ -1789,12 +1797,12 @@
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
       <c r="J47" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K47" s="1"/>
       <c r="L47" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M47" s="3"/>
@@ -1809,12 +1817,12 @@
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
       <c r="J48" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K48" s="1"/>
       <c r="L48" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M48" s="3"/>
@@ -1829,12 +1837,12 @@
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
       <c r="J49" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K49" s="1"/>
       <c r="L49" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M49" s="3"/>
@@ -1849,12 +1857,12 @@
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
       <c r="J50" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K50" s="1"/>
       <c r="L50" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M50" s="3"/>
@@ -1869,12 +1877,12 @@
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
       <c r="J51" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K51" s="1"/>
       <c r="L51" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M51" s="3"/>
@@ -1889,12 +1897,12 @@
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
       <c r="J52" s="1">
-        <f t="shared" ref="J52:J60" si="2">H52:H125+I52:I125</f>
+        <f t="shared" ref="J52:J60" si="4">H52:H125+I52:I125</f>
         <v>0</v>
       </c>
       <c r="K52" s="1"/>
       <c r="L52" s="1">
-        <f t="shared" ref="L52:L60" si="3">K52:K125-J52:J125</f>
+        <f t="shared" ref="L52:L60" si="5">K52:K125-J52:J125</f>
         <v>0</v>
       </c>
       <c r="M52" s="3"/>
@@ -1909,12 +1917,12 @@
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
       <c r="J53" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K53" s="1"/>
       <c r="L53" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M53" s="3"/>
@@ -1929,12 +1937,12 @@
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
       <c r="J54" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K54" s="1"/>
       <c r="L54" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M54" s="3"/>
@@ -1949,12 +1957,12 @@
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
       <c r="J55" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K55" s="1"/>
       <c r="L55" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M55" s="3"/>
@@ -1969,12 +1977,12 @@
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
       <c r="J56" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K56" s="1"/>
       <c r="L56" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M56" s="3"/>
@@ -1989,12 +1997,12 @@
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
       <c r="J57" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K57" s="1"/>
       <c r="L57" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M57" s="3"/>
@@ -2009,12 +2017,12 @@
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
       <c r="J58" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K58" s="1"/>
       <c r="L58" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M58" s="3"/>
@@ -2029,12 +2037,12 @@
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
       <c r="J59" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K59" s="1"/>
       <c r="L59" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M59" s="3"/>
@@ -2049,12 +2057,12 @@
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
       <c r="J60" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K60" s="1"/>
       <c r="L60" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M60" s="3"/>

--- a/Chi tiêu.xlsx
+++ b/Chi tiêu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KẾ HOẠCH\Yolo-Fashion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{903E69A8-C5B9-457B-A343-03A7BBE001AF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{124F3EBD-E0C5-4CC1-B633-18952F40684E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
   <si>
     <t>Tên</t>
   </si>
@@ -130,6 +130,9 @@
   </si>
   <si>
     <t>cọc 2tr, còn 2tr1</t>
+  </si>
+  <si>
+    <t>18-22/2</t>
   </si>
 </sst>
 </file>
@@ -290,6 +293,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -308,7 +312,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -606,7 +609,7 @@
   <dimension ref="A1:R60"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -626,35 +629,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="G1" s="10" t="s">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="G1" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
       <c r="M1" s="6"/>
     </row>
     <row r="2" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
       <c r="M2" s="4"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.35">
@@ -725,20 +728,20 @@
         <v>27</v>
       </c>
       <c r="H4" s="2">
-        <f xml:space="preserve"> 4099000 + 125000</f>
-        <v>4224000</v>
+        <f xml:space="preserve"> 4099000</f>
+        <v>4099000</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1">
         <f t="shared" ref="J4:J16" si="0">H4:H60+I4:I60</f>
-        <v>4224000</v>
+        <v>4099000</v>
       </c>
       <c r="K4">
-        <v>5741000</v>
+        <v>5552000</v>
       </c>
       <c r="L4" s="1">
         <f t="shared" ref="L4:L16" si="1">K4:K60-J4:J60</f>
-        <v>1517000</v>
+        <v>1453000</v>
       </c>
       <c r="M4" s="3" t="s">
         <v>34</v>
@@ -772,7 +775,7 @@
       <c r="G5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="14">
+      <c r="H5" s="8">
         <v>8452000</v>
       </c>
       <c r="I5" s="1"/>
@@ -817,7 +820,7 @@
       <c r="G6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H6" s="14">
+      <c r="H6" s="8">
         <f>1621000 + 82000*4</f>
         <v>1949000</v>
       </c>
@@ -866,7 +869,7 @@
       <c r="G7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="14">
+      <c r="H7" s="8">
         <f>82000*6</f>
         <v>492000</v>
       </c>
@@ -903,7 +906,9 @@
       <c r="E8" s="1">
         <v>60000</v>
       </c>
-      <c r="G8" s="1"/>
+      <c r="G8" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1">
@@ -912,7 +917,7 @@
       </c>
       <c r="K8" s="1"/>
       <c r="L8" s="1">
-        <f t="shared" si="1"/>
+        <f>K8:K64-J8:J64</f>
         <v>0</v>
       </c>
       <c r="M8" s="3"/>
@@ -1303,12 +1308,12 @@
       <c r="M22" s="3"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="13"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="14"/>
       <c r="E23" s="2">
         <f>SUM(E4:E22)</f>
         <v>1727000</v>

--- a/Chi tiêu.xlsx
+++ b/Chi tiêu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KẾ HOẠCH\Yolo-Fashion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{124F3EBD-E0C5-4CC1-B633-18952F40684E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5990B32-E825-4216-9ECD-63E6DCD243A0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -608,8 +608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+    <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -621,7 +621,8 @@
     <col min="5" max="5" width="10.26953125" customWidth="1"/>
     <col min="7" max="7" width="12.7265625" customWidth="1"/>
     <col min="12" max="12" width="10.54296875" customWidth="1"/>
-    <col min="13" max="14" width="6.6328125" customWidth="1"/>
+    <col min="13" max="13" width="11.7265625" customWidth="1"/>
+    <col min="14" max="14" width="6.6328125" customWidth="1"/>
     <col min="15" max="15" width="11.6328125" customWidth="1"/>
     <col min="16" max="16" width="14.90625" customWidth="1"/>
     <col min="17" max="17" width="17.81640625" customWidth="1"/>
@@ -909,16 +910,20 @@
       <c r="G8" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H8" s="1"/>
+      <c r="H8" s="1">
+        <v>1338000</v>
+      </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K8" s="1"/>
+        <v>1338000</v>
+      </c>
+      <c r="K8" s="1">
+        <v>1872000</v>
+      </c>
       <c r="L8" s="1">
         <f>K8:K64-J8:J64</f>
-        <v>0</v>
+        <v>534000</v>
       </c>
       <c r="M8" s="3"/>
     </row>
@@ -950,7 +955,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M9" s="3"/>
+      <c r="M9" s="3">
+        <f>SUM(L4:L8)</f>
+        <v>5540000</v>
+      </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A10" s="1">

--- a/Chi tiêu.xlsx
+++ b/Chi tiêu.xlsx
@@ -1,31 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KẾ HOẠCH\Yolo-Fashion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\Yolo-Fashion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{903E69A8-C5B9-457B-A343-03A7BBE001AF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EE558C6-EC00-4F95-823B-B3CB35C1E1D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
   <si>
     <t>Tên</t>
   </si>
@@ -130,6 +137,24 @@
   </si>
   <si>
     <t>cọc 2tr, còn 2tr1</t>
+  </si>
+  <si>
+    <t>20/2</t>
+  </si>
+  <si>
+    <t>Nguyên nhận 975.000</t>
+  </si>
+  <si>
+    <t>Ngày</t>
+  </si>
+  <si>
+    <t>Chi trả</t>
+  </si>
+  <si>
+    <t>10 set váy đen, 1 áo blazer</t>
+  </si>
+  <si>
+    <t>Số tiền</t>
   </si>
 </sst>
 </file>
@@ -277,7 +302,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -289,7 +314,6 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -308,7 +332,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -606,7 +634,7 @@
   <dimension ref="A1:R60"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -617,44 +645,48 @@
     <col min="4" max="4" width="7.6328125" customWidth="1"/>
     <col min="5" max="5" width="10.26953125" customWidth="1"/>
     <col min="7" max="7" width="12.7265625" customWidth="1"/>
+    <col min="8" max="8" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.7265625" customWidth="1"/>
     <col min="12" max="12" width="10.54296875" customWidth="1"/>
     <col min="13" max="14" width="6.6328125" customWidth="1"/>
     <col min="15" max="15" width="11.6328125" customWidth="1"/>
-    <col min="16" max="16" width="14.90625" customWidth="1"/>
-    <col min="17" max="17" width="17.81640625" customWidth="1"/>
-    <col min="18" max="18" width="15.7265625" customWidth="1"/>
+    <col min="16" max="16" width="21.26953125" customWidth="1"/>
+    <col min="17" max="17" width="19.81640625" customWidth="1"/>
+    <col min="18" max="18" width="18.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="G1" s="10" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="G1" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
       <c r="M1" s="6"/>
     </row>
     <row r="2" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
       <c r="M2" s="4"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.35">
@@ -724,19 +756,19 @@
       <c r="G4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="13">
         <f xml:space="preserve"> 4099000 + 125000</f>
         <v>4224000</v>
       </c>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1">
+      <c r="I4" s="14"/>
+      <c r="J4" s="14">
         <f t="shared" ref="J4:J16" si="0">H4:H60+I4:I60</f>
         <v>4224000</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="15">
         <v>5741000</v>
       </c>
-      <c r="L4" s="1">
+      <c r="L4" s="14">
         <f t="shared" ref="L4:L16" si="1">K4:K60-J4:J60</f>
         <v>1517000</v>
       </c>
@@ -772,18 +804,18 @@
       <c r="G5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="14">
+      <c r="H5" s="16">
         <v>8452000</v>
       </c>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1">
+      <c r="I5" s="14"/>
+      <c r="J5" s="14">
         <f t="shared" si="0"/>
         <v>8452000</v>
       </c>
-      <c r="K5" s="1">
+      <c r="K5" s="14">
         <v>10700000</v>
       </c>
-      <c r="L5" s="1">
+      <c r="L5" s="14">
         <f t="shared" si="1"/>
         <v>2248000</v>
       </c>
@@ -817,19 +849,19 @@
       <c r="G6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H6" s="14">
+      <c r="H6" s="16">
         <f>1621000 + 82000*4</f>
         <v>1949000</v>
       </c>
-      <c r="I6" s="7"/>
-      <c r="J6" s="1">
+      <c r="I6" s="17"/>
+      <c r="J6" s="14">
         <f t="shared" si="0"/>
         <v>1949000</v>
       </c>
-      <c r="K6" s="1">
+      <c r="K6" s="14">
         <v>2756000</v>
       </c>
-      <c r="L6" s="1">
+      <c r="L6" s="14">
         <f t="shared" si="1"/>
         <v>807000</v>
       </c>
@@ -866,22 +898,22 @@
       <c r="G7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="14">
+      <c r="H7" s="16">
         <f>82000*6</f>
         <v>492000</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="17">
         <v>30000</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J7" s="14">
         <f t="shared" si="0"/>
         <v>522000</v>
       </c>
-      <c r="K7" s="1">
+      <c r="K7" s="14">
         <f>170000*6</f>
         <v>1020000</v>
       </c>
-      <c r="L7" s="1">
+      <c r="L7" s="14">
         <f t="shared" si="1"/>
         <v>498000</v>
       </c>
@@ -1169,8 +1201,17 @@
         <v>0</v>
       </c>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O16" t="s">
+        <v>37</v>
+      </c>
+      <c r="P16" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>31</v>
       </c>
@@ -1191,8 +1232,17 @@
         <v>0</v>
       </c>
       <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O17" t="s">
+        <v>35</v>
+      </c>
+      <c r="P17" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>32</v>
       </c>
@@ -1214,7 +1264,7 @@
       </c>
       <c r="M18" s="3"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>33</v>
       </c>
@@ -1236,7 +1286,7 @@
       </c>
       <c r="M19" s="3"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>34</v>
       </c>
@@ -1258,7 +1308,7 @@
       </c>
       <c r="M20" s="3"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>35</v>
       </c>
@@ -1280,7 +1330,7 @@
       </c>
       <c r="M21" s="3"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>47</v>
       </c>
@@ -1302,13 +1352,13 @@
       </c>
       <c r="M22" s="3"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A23" s="11" t="s">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A23" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="13"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="12"/>
       <c r="E23" s="2">
         <f>SUM(E4:E22)</f>
         <v>1727000</v>
@@ -1327,7 +1377,7 @@
       </c>
       <c r="M23" s="3"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1347,7 +1397,7 @@
       </c>
       <c r="M24" s="3"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1367,7 +1417,7 @@
       </c>
       <c r="M25" s="3"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1387,7 +1437,7 @@
       </c>
       <c r="M26" s="3"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1407,7 +1457,7 @@
       </c>
       <c r="M27" s="3"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -1427,7 +1477,7 @@
       </c>
       <c r="M28" s="3"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1447,7 +1497,7 @@
       </c>
       <c r="M29" s="3"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1467,7 +1517,7 @@
       </c>
       <c r="M30" s="3"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -1487,7 +1537,7 @@
       </c>
       <c r="M31" s="3"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>

--- a/Chi tiêu.xlsx
+++ b/Chi tiêu.xlsx
@@ -1,38 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\Yolo-Fashion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KẾ HOẠCH\Yolo-Fashion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EE558C6-EC00-4F95-823B-B3CB35C1E1D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{448067ED-5CF5-408E-8271-82FB79AD5B8F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="48">
   <si>
     <t>Tên</t>
   </si>
@@ -151,20 +144,43 @@
     <t>Chi trả</t>
   </si>
   <si>
-    <t>10 set váy đen, 1 áo blazer</t>
-  </si>
-  <si>
     <t>Số tiền</t>
+  </si>
+  <si>
+    <t>18/2-22/2</t>
+  </si>
+  <si>
+    <t>tối 22/2</t>
+  </si>
+  <si>
+    <t>Mua bao đóng hàng</t>
+  </si>
+  <si>
+    <t>Mua baăng keo gói hàng</t>
+  </si>
+  <si>
+    <t>Ship + 7 set váy</t>
+  </si>
+  <si>
+    <t>25/2</t>
+  </si>
+  <si>
+    <t>Nguyên còn cầm 456.000</t>
+  </si>
+  <si>
+    <t>lấy hàng</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="3">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="169" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -198,6 +214,13 @@
       <b/>
       <sz val="14"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -299,13 +322,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -332,16 +355,34 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="0" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <numFmt numFmtId="169" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -355,13 +396,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A52D2C41-0280-4D2F-914D-B4ECECDC90F5}" name="Table1" displayName="Table1" ref="O3:R11" totalsRowCount="1">
-  <tableColumns count="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A52D2C41-0280-4D2F-914D-B4ECECDC90F5}" name="Table1" displayName="Table1" ref="O3:S10" totalsRowShown="0">
+  <tableColumns count="5">
     <tableColumn id="5" xr3:uid="{F4B9908A-F08F-4505-AD3C-F5F4F7C8C149}" name="Column1"/>
-    <tableColumn id="1" xr3:uid="{04EB296B-B4C8-4FA6-93F6-0F295DECB76C}" name="NGỌC HÀ"/>
-    <tableColumn id="2" xr3:uid="{D33B723B-1CB5-4499-8F71-40EA7E55E1F0}" name="THẢO NGUYÊN"/>
-    <tableColumn id="3" xr3:uid="{9DF80182-5350-4DF5-AB37-0D7C3613C6DC}" name="PHƯƠNG HÀ" totalsRowFunction="custom">
-      <totalsRowFormula>SUM(P10:R10)</totalsRowFormula>
+    <tableColumn id="1" xr3:uid="{04EB296B-B4C8-4FA6-93F6-0F295DECB76C}" name="NGỌC HÀ" dataDxfId="3" dataCellStyle="Comma"/>
+    <tableColumn id="2" xr3:uid="{D33B723B-1CB5-4499-8F71-40EA7E55E1F0}" name="THẢO NGUYÊN" dataDxfId="2" dataCellStyle="Comma"/>
+    <tableColumn id="3" xr3:uid="{9DF80182-5350-4DF5-AB37-0D7C3613C6DC}" name="PHƯƠNG HÀ" dataDxfId="1" dataCellStyle="Comma"/>
+    <tableColumn id="4" xr3:uid="{51AB8A72-D881-4140-839B-F6EE4E7F5DEA}" name="TỔNG" dataDxfId="0" dataCellStyle="Comma">
+      <calculatedColumnFormula>SUM(Table1[NGỌC HÀ]+Table1[THẢO NGUYÊN]+Table1[PHƯƠNG HÀ])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -631,615 +673,695 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R60"/>
+  <dimension ref="A1:S60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="4.453125" customWidth="1"/>
     <col min="2" max="2" width="18.81640625" customWidth="1"/>
-    <col min="3" max="3" width="9.26953125" customWidth="1"/>
-    <col min="4" max="4" width="7.6328125" customWidth="1"/>
-    <col min="5" max="5" width="10.26953125" customWidth="1"/>
+    <col min="3" max="3" width="9.26953125" style="17" customWidth="1"/>
+    <col min="4" max="4" width="7.6328125" style="17" customWidth="1"/>
+    <col min="5" max="5" width="10.26953125" style="17" customWidth="1"/>
     <col min="7" max="7" width="12.7265625" customWidth="1"/>
-    <col min="8" max="8" width="13.08984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.08984375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.7265625" customWidth="1"/>
-    <col min="12" max="12" width="10.54296875" customWidth="1"/>
-    <col min="13" max="14" width="6.6328125" customWidth="1"/>
+    <col min="8" max="8" width="13.08984375" style="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.453125" style="17" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.08984375" style="17" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.7265625" style="17" customWidth="1"/>
+    <col min="12" max="12" width="10.54296875" style="17" customWidth="1"/>
+    <col min="13" max="13" width="7" customWidth="1"/>
+    <col min="14" max="14" width="6.6328125" customWidth="1"/>
     <col min="15" max="15" width="11.6328125" customWidth="1"/>
-    <col min="16" max="16" width="21.26953125" customWidth="1"/>
-    <col min="17" max="17" width="19.81640625" customWidth="1"/>
-    <col min="18" max="18" width="18.54296875" customWidth="1"/>
+    <col min="16" max="16" width="20.26953125" style="17" customWidth="1"/>
+    <col min="17" max="17" width="18.81640625" style="17" customWidth="1"/>
+    <col min="18" max="18" width="18.1796875" style="17" customWidth="1"/>
+    <col min="19" max="19" width="13.453125" style="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="G1" s="9" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="G1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="6"/>
-    </row>
-    <row r="2" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="4"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="s">
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="5"/>
+    </row>
+    <row r="2" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="3"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="5" t="s">
+      <c r="B3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="L3" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="M3" s="3"/>
+      <c r="M3" s="2"/>
       <c r="O3" t="s">
         <v>9</v>
       </c>
-      <c r="P3" t="s">
+      <c r="P3" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="Q3" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="R3" t="s">
+      <c r="R3" s="17" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S3" s="17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="16">
         <v>130000</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="16">
         <v>1</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="16">
+        <f>C4:C22*D4:D22</f>
         <v>130000</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="13">
-        <f xml:space="preserve"> 4099000 + 125000</f>
-        <v>4224000</v>
-      </c>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14">
+      <c r="H4" s="14">
+        <f xml:space="preserve"> 4099000</f>
+        <v>4099000</v>
+      </c>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16">
         <f t="shared" ref="J4:J16" si="0">H4:H60+I4:I60</f>
-        <v>4224000</v>
-      </c>
-      <c r="K4" s="15">
-        <v>5741000</v>
-      </c>
-      <c r="L4" s="14">
+        <v>4099000</v>
+      </c>
+      <c r="K4" s="17">
+        <v>5552000</v>
+      </c>
+      <c r="L4" s="16">
         <f t="shared" ref="L4:L16" si="1">K4:K60-J4:J60</f>
-        <v>1517000</v>
-      </c>
-      <c r="M4" s="3" t="s">
+        <v>1453000</v>
+      </c>
+      <c r="M4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="P4">
+      <c r="P4" s="17">
         <v>500000</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" s="17">
         <v>500000</v>
       </c>
-      <c r="R4">
+      <c r="R4" s="17">
         <v>500000</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S4" s="17">
+        <f>SUM(Table1[NGỌC HÀ]+Table1[THẢO NGUYÊN]+Table1[PHƯƠNG HÀ])</f>
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="16">
         <v>777000</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="16">
         <v>1</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="16">
+        <f t="shared" ref="E5:E22" si="2">C5:C23*D5:D23</f>
         <v>777000</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="16">
+      <c r="H5" s="15">
         <v>8452000</v>
       </c>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14">
+      <c r="I5" s="16"/>
+      <c r="J5" s="16">
         <f t="shared" si="0"/>
         <v>8452000</v>
       </c>
-      <c r="K5" s="14">
+      <c r="K5" s="16">
         <v>10700000</v>
       </c>
-      <c r="L5" s="14">
+      <c r="L5" s="16">
         <f t="shared" si="1"/>
         <v>2248000</v>
       </c>
-      <c r="M5" s="3"/>
-      <c r="P5">
+      <c r="M5" s="2"/>
+      <c r="P5" s="17">
         <v>200000</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" s="17">
         <v>200000</v>
       </c>
-      <c r="R5">
+      <c r="R5" s="17">
         <v>200000</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S5" s="17">
+        <f>SUM(Table1[NGỌC HÀ]+Table1[THẢO NGUYÊN]+Table1[PHƯƠNG HÀ])</f>
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="16">
         <v>60000</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="16">
         <v>1</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="16">
+        <f t="shared" si="2"/>
         <v>60000</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H6" s="16">
+      <c r="H6" s="15">
         <f>1621000 + 82000*4</f>
         <v>1949000</v>
       </c>
-      <c r="I6" s="17"/>
-      <c r="J6" s="14">
+      <c r="I6" s="18">
+        <v>15000</v>
+      </c>
+      <c r="J6" s="16">
         <f t="shared" si="0"/>
-        <v>1949000</v>
-      </c>
-      <c r="K6" s="14">
+        <v>1964000</v>
+      </c>
+      <c r="K6" s="16">
         <v>2756000</v>
       </c>
-      <c r="L6" s="14">
+      <c r="L6" s="16">
         <f t="shared" si="1"/>
-        <v>807000</v>
-      </c>
-      <c r="M6" s="3"/>
+        <v>792000</v>
+      </c>
+      <c r="M6" s="2"/>
       <c r="O6" t="s">
         <v>33</v>
       </c>
-      <c r="P6">
+      <c r="P6" s="17">
         <v>1500000</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" s="17">
         <v>1500000</v>
       </c>
-      <c r="R6">
+      <c r="R6" s="17">
         <v>1500000</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S6" s="17">
+        <f>SUM(Table1[NGỌC HÀ]+Table1[THẢO NGUYÊN]+Table1[PHƯƠNG HÀ])</f>
+        <v>4500000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="16">
         <v>80000</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="16">
         <v>1</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="16">
+        <f t="shared" si="2"/>
         <v>80000</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="16">
-        <f>82000*6</f>
-        <v>492000</v>
-      </c>
-      <c r="I7" s="17">
-        <v>30000</v>
-      </c>
-      <c r="J7" s="14">
+      <c r="H7" s="15">
+        <f>82000*3</f>
+        <v>246000</v>
+      </c>
+      <c r="I7" s="18">
+        <v>15000</v>
+      </c>
+      <c r="J7" s="16">
         <f t="shared" si="0"/>
-        <v>522000</v>
-      </c>
-      <c r="K7" s="14">
-        <f>170000*6</f>
-        <v>1020000</v>
-      </c>
-      <c r="L7" s="14">
+        <v>261000</v>
+      </c>
+      <c r="K7" s="16">
+        <f>170000*3</f>
+        <v>510000</v>
+      </c>
+      <c r="L7" s="16">
         <f t="shared" si="1"/>
-        <v>498000</v>
-      </c>
-      <c r="M7" s="3"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+        <v>249000</v>
+      </c>
+      <c r="M7" s="2"/>
+      <c r="S7" s="17">
+        <f>SUM(Table1[NGỌC HÀ]+Table1[THẢO NGUYÊN]+Table1[PHƯƠNG HÀ])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="16">
         <v>60000</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="16">
         <v>1</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="16">
+        <f t="shared" si="2"/>
         <v>60000</v>
       </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1">
+      <c r="G8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" s="15">
+        <v>1338000</v>
+      </c>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1">
+        <v>1338000</v>
+      </c>
+      <c r="K8" s="16">
+        <v>1872000</v>
+      </c>
+      <c r="L8" s="16">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+        <v>534000</v>
+      </c>
+      <c r="M8" s="2"/>
+      <c r="S8" s="17">
+        <f>SUM(Table1[NGỌC HÀ]+Table1[THẢO NGUYÊN]+Table1[PHƯƠNG HÀ])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="16">
         <v>10000</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="16">
         <v>1</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="16">
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1">
+      <c r="G9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9" s="15">
+        <v>230000</v>
+      </c>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16">
+        <f>H9:H65+I9:I65</f>
+        <v>230000</v>
+      </c>
+      <c r="K9" s="16">
+        <v>389000</v>
+      </c>
+      <c r="L9" s="16">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+        <v>159000</v>
+      </c>
+      <c r="M9" s="2"/>
+      <c r="S9" s="17">
+        <f>SUM(Table1[NGỌC HÀ]+Table1[THẢO NGUYÊN]+Table1[PHƯƠNG HÀ])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="16">
         <v>50000</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="16">
         <v>1</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="16">
+        <f t="shared" si="2"/>
         <v>50000</v>
       </c>
       <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1">
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16">
+        <f>H10:H66+I10:I66</f>
+        <v>0</v>
+      </c>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M10" s="3"/>
+      <c r="M10" s="12"/>
       <c r="O10" t="s">
         <v>10</v>
       </c>
-      <c r="P10">
+      <c r="P10" s="17">
         <f xml:space="preserve"> SUM(P4:P9)</f>
         <v>2200000</v>
       </c>
-      <c r="Q10">
+      <c r="Q10" s="17">
         <f>SUM(Q4:Q9)</f>
         <v>2200000</v>
       </c>
-      <c r="R10">
+      <c r="R10" s="17">
         <f>SUM(R4:R9)</f>
         <v>2200000</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S10" s="19">
+        <f>SUM(Table1[NGỌC HÀ]+Table1[THẢO NGUYÊN]+Table1[PHƯƠNG HÀ])</f>
+        <v>6600000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="16">
         <v>45000</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="16">
         <v>2</v>
       </c>
-      <c r="E11" s="1">
-        <f>C11*D11</f>
+      <c r="E11" s="16">
+        <f t="shared" si="2"/>
         <v>90000</v>
       </c>
       <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1">
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1">
+      <c r="K11" s="16"/>
+      <c r="L11" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M11" s="3"/>
-      <c r="R11">
-        <f>SUM(P10:R10)</f>
-        <v>6600000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="M11" s="12"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="16">
         <v>25000</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="16">
         <v>3</v>
       </c>
-      <c r="E12" s="1">
-        <f>C12*D12</f>
+      <c r="E12" s="16">
+        <f t="shared" si="2"/>
         <v>75000</v>
       </c>
       <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1">
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1">
+      <c r="K12" s="16"/>
+      <c r="L12" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="M12" s="2"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="16">
         <v>50000</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="16">
         <v>1</v>
       </c>
-      <c r="E13" s="1">
-        <v>45000</v>
+      <c r="E13" s="16">
+        <f t="shared" si="2"/>
+        <v>50000</v>
       </c>
       <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1">
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1">
+      <c r="K13" s="16"/>
+      <c r="L13" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="M13" s="2"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>11</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="16">
         <v>50000</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="16">
         <v>1</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="16">
+        <f t="shared" si="2"/>
         <v>50000</v>
       </c>
       <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1">
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1">
+      <c r="K14" s="16"/>
+      <c r="L14" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="M14" s="2"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>12</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="16">
         <v>300000</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="16">
         <v>1</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="16">
+        <f t="shared" si="2"/>
         <v>300000</v>
       </c>
       <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1">
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1">
+      <c r="K15" s="16"/>
+      <c r="L15" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="M15" s="2"/>
+      <c r="O15" t="s">
+        <v>37</v>
+      </c>
+      <c r="P15" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q15" s="17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>13</v>
       </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
+      <c r="B16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="16">
+        <v>75000</v>
+      </c>
+      <c r="D16" s="16">
+        <v>1</v>
+      </c>
+      <c r="E16" s="16">
+        <f t="shared" si="2"/>
+        <v>75000</v>
+      </c>
       <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1">
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1">
+      <c r="K16" s="16"/>
+      <c r="L16" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M16" s="3"/>
+      <c r="M16" s="2"/>
       <c r="O16" t="s">
-        <v>37</v>
-      </c>
-      <c r="P16" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>38</v>
+        <v>35</v>
+      </c>
+      <c r="P16" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q16" s="17" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>31</v>
       </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
+      <c r="B17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="16">
+        <v>40000</v>
+      </c>
+      <c r="D17" s="16">
+        <v>1</v>
+      </c>
+      <c r="E17" s="16">
+        <f t="shared" si="2"/>
+        <v>40000</v>
+      </c>
       <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1">
-        <f t="shared" ref="J17:J51" si="2">H17:H90+I17:I90</f>
-        <v>0</v>
-      </c>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1">
-        <f t="shared" ref="L17:L51" si="3">K17:K90-J17:J90</f>
-        <v>0</v>
-      </c>
-      <c r="M17" s="3"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16">
+        <f t="shared" ref="J17:J51" si="3">H17:H90+I17:I90</f>
+        <v>0</v>
+      </c>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16">
+        <f t="shared" ref="L17:L51" si="4">K17:K90-J17:J90</f>
+        <v>0</v>
+      </c>
+      <c r="M17" s="2"/>
       <c r="O17" t="s">
-        <v>35</v>
-      </c>
-      <c r="P17" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>39</v>
+        <v>45</v>
+      </c>
+      <c r="P17" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q17" s="17" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.35">
@@ -1247,875 +1369,890 @@
         <v>32</v>
       </c>
       <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M18" s="3"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M18" s="2"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>33</v>
       </c>
       <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M19" s="3"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M19" s="2"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>34</v>
       </c>
       <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M20" s="3"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K20" s="16"/>
+      <c r="L20" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M20" s="2"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>35</v>
       </c>
       <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M21" s="3"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K21" s="16"/>
+      <c r="L21" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M21" s="2"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>47</v>
       </c>
       <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M22" s="3"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K22" s="16"/>
+      <c r="L22" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M22" s="2"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="2">
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="20">
         <f>SUM(E4:E22)</f>
-        <v>1727000</v>
+        <v>1847000</v>
       </c>
       <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M23" s="3"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K23" s="16"/>
+      <c r="L23" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M23" s="2"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
       <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M24" s="3"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K24" s="16"/>
+      <c r="L24" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M24" s="2"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
       <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M25" s="3"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K25" s="16"/>
+      <c r="L25" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M25" s="2"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
       <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M26" s="3"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K26" s="16"/>
+      <c r="L26" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M26" s="2"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
       <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M27" s="3"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K27" s="16"/>
+      <c r="L27" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M27" s="2"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
       <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M28" s="3"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K28" s="16"/>
+      <c r="L28" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M28" s="2"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M29" s="3"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K29" s="16"/>
+      <c r="L29" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M29" s="2"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
       <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M30" s="3"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K30" s="16"/>
+      <c r="L30" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M30" s="2"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
       <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M31" s="3"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K31" s="16"/>
+      <c r="L31" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M31" s="2"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
       <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M32" s="3"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K32" s="16"/>
+      <c r="L32" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M32" s="2"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
       <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M33" s="3"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="16"/>
+      <c r="J33" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K33" s="16"/>
+      <c r="L33" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M33" s="2"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
       <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M34" s="3"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K34" s="16"/>
+      <c r="L34" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M34" s="2"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
       <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M35" s="3"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="16"/>
+      <c r="J35" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K35" s="16"/>
+      <c r="L35" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M35" s="2"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="16"/>
       <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M36" s="3"/>
+      <c r="H36" s="16"/>
+      <c r="I36" s="16"/>
+      <c r="J36" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K36" s="16"/>
+      <c r="L36" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M36" s="2"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
       <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K37" s="1"/>
-      <c r="L37" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M37" s="3"/>
+      <c r="H37" s="16"/>
+      <c r="I37" s="16"/>
+      <c r="J37" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K37" s="16"/>
+      <c r="L37" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M37" s="2"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="16"/>
       <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M38" s="3"/>
+      <c r="H38" s="16"/>
+      <c r="I38" s="16"/>
+      <c r="J38" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K38" s="16"/>
+      <c r="L38" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M38" s="2"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="16"/>
       <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K39" s="1"/>
-      <c r="L39" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M39" s="3"/>
+      <c r="H39" s="16"/>
+      <c r="I39" s="16"/>
+      <c r="J39" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K39" s="16"/>
+      <c r="L39" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M39" s="2"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="16"/>
       <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K40" s="1"/>
-      <c r="L40" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M40" s="3"/>
+      <c r="H40" s="16"/>
+      <c r="I40" s="16"/>
+      <c r="J40" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K40" s="16"/>
+      <c r="L40" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M40" s="2"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="16"/>
       <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K41" s="1"/>
-      <c r="L41" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M41" s="3"/>
+      <c r="H41" s="16"/>
+      <c r="I41" s="16"/>
+      <c r="J41" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K41" s="16"/>
+      <c r="L41" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M41" s="2"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="16"/>
       <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K42" s="1"/>
-      <c r="L42" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M42" s="3"/>
+      <c r="H42" s="16"/>
+      <c r="I42" s="16"/>
+      <c r="J42" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K42" s="16"/>
+      <c r="L42" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M42" s="2"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="16"/>
       <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K43" s="1"/>
-      <c r="L43" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M43" s="3"/>
+      <c r="H43" s="16"/>
+      <c r="I43" s="16"/>
+      <c r="J43" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K43" s="16"/>
+      <c r="L43" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M43" s="2"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="16"/>
       <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
-      <c r="J44" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K44" s="1"/>
-      <c r="L44" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M44" s="3"/>
+      <c r="H44" s="16"/>
+      <c r="I44" s="16"/>
+      <c r="J44" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K44" s="16"/>
+      <c r="L44" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M44" s="2"/>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
+      <c r="C45" s="16"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="16"/>
       <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
-      <c r="J45" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K45" s="1"/>
-      <c r="L45" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M45" s="3"/>
+      <c r="H45" s="16"/>
+      <c r="I45" s="16"/>
+      <c r="J45" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K45" s="16"/>
+      <c r="L45" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M45" s="2"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
+      <c r="C46" s="16"/>
+      <c r="D46" s="16"/>
+      <c r="E46" s="16"/>
       <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
-      <c r="J46" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K46" s="1"/>
-      <c r="L46" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M46" s="3"/>
+      <c r="H46" s="16"/>
+      <c r="I46" s="16"/>
+      <c r="J46" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K46" s="16"/>
+      <c r="L46" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M46" s="2"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="16"/>
       <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
-      <c r="J47" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K47" s="1"/>
-      <c r="L47" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M47" s="3"/>
+      <c r="H47" s="16"/>
+      <c r="I47" s="16"/>
+      <c r="J47" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K47" s="16"/>
+      <c r="L47" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M47" s="2"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
+      <c r="C48" s="16"/>
+      <c r="D48" s="16"/>
+      <c r="E48" s="16"/>
       <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
-      <c r="I48" s="1"/>
-      <c r="J48" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K48" s="1"/>
-      <c r="L48" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M48" s="3"/>
+      <c r="H48" s="16"/>
+      <c r="I48" s="16"/>
+      <c r="J48" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K48" s="16"/>
+      <c r="L48" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M48" s="2"/>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
+      <c r="C49" s="16"/>
+      <c r="D49" s="16"/>
+      <c r="E49" s="16"/>
       <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
-      <c r="J49" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K49" s="1"/>
-      <c r="L49" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M49" s="3"/>
+      <c r="H49" s="16"/>
+      <c r="I49" s="16"/>
+      <c r="J49" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K49" s="16"/>
+      <c r="L49" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M49" s="2"/>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
+      <c r="C50" s="16"/>
+      <c r="D50" s="16"/>
+      <c r="E50" s="16"/>
       <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
-      <c r="I50" s="1"/>
-      <c r="J50" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K50" s="1"/>
-      <c r="L50" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M50" s="3"/>
+      <c r="H50" s="16"/>
+      <c r="I50" s="16"/>
+      <c r="J50" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K50" s="16"/>
+      <c r="L50" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M50" s="2"/>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
+      <c r="C51" s="16"/>
+      <c r="D51" s="16"/>
+      <c r="E51" s="16"/>
       <c r="G51" s="1"/>
-      <c r="H51" s="1"/>
-      <c r="I51" s="1"/>
-      <c r="J51" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K51" s="1"/>
-      <c r="L51" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M51" s="3"/>
+      <c r="H51" s="16"/>
+      <c r="I51" s="16"/>
+      <c r="J51" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K51" s="16"/>
+      <c r="L51" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M51" s="2"/>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
+      <c r="C52" s="16"/>
+      <c r="D52" s="16"/>
+      <c r="E52" s="16"/>
       <c r="G52" s="1"/>
-      <c r="H52" s="1"/>
-      <c r="I52" s="1"/>
-      <c r="J52" s="1">
-        <f t="shared" ref="J52:J60" si="4">H52:H125+I52:I125</f>
-        <v>0</v>
-      </c>
-      <c r="K52" s="1"/>
-      <c r="L52" s="1">
-        <f t="shared" ref="L52:L60" si="5">K52:K125-J52:J125</f>
-        <v>0</v>
-      </c>
-      <c r="M52" s="3"/>
+      <c r="H52" s="16"/>
+      <c r="I52" s="16"/>
+      <c r="J52" s="16">
+        <f t="shared" ref="J52:J60" si="5">H52:H125+I52:I125</f>
+        <v>0</v>
+      </c>
+      <c r="K52" s="16"/>
+      <c r="L52" s="16">
+        <f t="shared" ref="L52:L60" si="6">K52:K125-J52:J125</f>
+        <v>0</v>
+      </c>
+      <c r="M52" s="2"/>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
+      <c r="C53" s="16"/>
+      <c r="D53" s="16"/>
+      <c r="E53" s="16"/>
       <c r="G53" s="1"/>
-      <c r="H53" s="1"/>
-      <c r="I53" s="1"/>
-      <c r="J53" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K53" s="1"/>
-      <c r="L53" s="1">
+      <c r="H53" s="16"/>
+      <c r="I53" s="16"/>
+      <c r="J53" s="16">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
+      <c r="K53" s="16"/>
+      <c r="L53" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M53" s="2"/>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
+      <c r="C54" s="16"/>
+      <c r="D54" s="16"/>
+      <c r="E54" s="16"/>
       <c r="G54" s="1"/>
-      <c r="H54" s="1"/>
-      <c r="I54" s="1"/>
-      <c r="J54" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K54" s="1"/>
-      <c r="L54" s="1">
+      <c r="H54" s="16"/>
+      <c r="I54" s="16"/>
+      <c r="J54" s="16">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M54" s="3"/>
+      <c r="K54" s="16"/>
+      <c r="L54" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M54" s="2"/>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
+      <c r="C55" s="16"/>
+      <c r="D55" s="16"/>
+      <c r="E55" s="16"/>
       <c r="G55" s="1"/>
-      <c r="H55" s="1"/>
-      <c r="I55" s="1"/>
-      <c r="J55" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K55" s="1"/>
-      <c r="L55" s="1">
+      <c r="H55" s="16"/>
+      <c r="I55" s="16"/>
+      <c r="J55" s="16">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M55" s="3"/>
+      <c r="K55" s="16"/>
+      <c r="L55" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M55" s="2"/>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
+      <c r="C56" s="16"/>
+      <c r="D56" s="16"/>
+      <c r="E56" s="16"/>
       <c r="G56" s="1"/>
-      <c r="H56" s="1"/>
-      <c r="I56" s="1"/>
-      <c r="J56" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K56" s="1"/>
-      <c r="L56" s="1">
+      <c r="H56" s="16"/>
+      <c r="I56" s="16"/>
+      <c r="J56" s="16">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M56" s="3"/>
+      <c r="K56" s="16"/>
+      <c r="L56" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M56" s="2"/>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
+      <c r="C57" s="16"/>
+      <c r="D57" s="16"/>
+      <c r="E57" s="16"/>
       <c r="G57" s="1"/>
-      <c r="H57" s="1"/>
-      <c r="I57" s="1"/>
-      <c r="J57" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K57" s="1"/>
-      <c r="L57" s="1">
+      <c r="H57" s="16"/>
+      <c r="I57" s="16"/>
+      <c r="J57" s="16">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M57" s="3"/>
+      <c r="K57" s="16"/>
+      <c r="L57" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M57" s="2"/>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
+      <c r="C58" s="16"/>
+      <c r="D58" s="16"/>
+      <c r="E58" s="16"/>
       <c r="G58" s="1"/>
-      <c r="H58" s="1"/>
-      <c r="I58" s="1"/>
-      <c r="J58" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K58" s="1"/>
-      <c r="L58" s="1">
+      <c r="H58" s="16"/>
+      <c r="I58" s="16"/>
+      <c r="J58" s="16">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M58" s="3"/>
+      <c r="K58" s="16"/>
+      <c r="L58" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M58" s="2"/>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
+      <c r="C59" s="16"/>
+      <c r="D59" s="16"/>
+      <c r="E59" s="16"/>
       <c r="G59" s="1"/>
-      <c r="H59" s="1"/>
-      <c r="I59" s="1"/>
-      <c r="J59" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K59" s="1"/>
-      <c r="L59" s="1">
+      <c r="H59" s="16"/>
+      <c r="I59" s="16"/>
+      <c r="J59" s="16">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M59" s="3"/>
+      <c r="K59" s="16"/>
+      <c r="L59" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M59" s="2"/>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
+      <c r="C60" s="16"/>
+      <c r="D60" s="16"/>
+      <c r="E60" s="16"/>
       <c r="G60" s="1"/>
-      <c r="H60" s="1"/>
-      <c r="I60" s="1"/>
-      <c r="J60" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K60" s="1"/>
-      <c r="L60" s="1">
+      <c r="H60" s="16"/>
+      <c r="I60" s="16"/>
+      <c r="J60" s="16">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M60" s="3"/>
+      <c r="K60" s="16"/>
+      <c r="L60" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M60" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Chi tiêu.xlsx
+++ b/Chi tiêu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KẾ HOẠCH\Yolo-Fashion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{448067ED-5CF5-408E-8271-82FB79AD5B8F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB03534F-7924-450D-8857-D0B1F98E5DE8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="49">
   <si>
     <t>Tên</t>
   </si>
@@ -169,6 +169,9 @@
   </si>
   <si>
     <t>lấy hàng</t>
+  </si>
+  <si>
+    <t>23-26/2</t>
   </si>
 </sst>
 </file>
@@ -178,7 +181,7 @@
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="169" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -337,6 +340,15 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -355,15 +367,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="0" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -371,16 +374,16 @@
   </cellStyles>
   <dxfs count="4">
     <dxf>
-      <numFmt numFmtId="169" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="169" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="169" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="169" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -676,61 +679,61 @@
   <dimension ref="A1:S60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="4.453125" customWidth="1"/>
     <col min="2" max="2" width="18.81640625" customWidth="1"/>
-    <col min="3" max="3" width="9.26953125" style="17" customWidth="1"/>
-    <col min="4" max="4" width="7.6328125" style="17" customWidth="1"/>
-    <col min="5" max="5" width="10.26953125" style="17" customWidth="1"/>
+    <col min="3" max="3" width="9.26953125" style="11" customWidth="1"/>
+    <col min="4" max="4" width="7.6328125" style="11" customWidth="1"/>
+    <col min="5" max="5" width="10.26953125" style="11" customWidth="1"/>
     <col min="7" max="7" width="12.7265625" customWidth="1"/>
-    <col min="8" max="8" width="13.08984375" style="17" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.453125" style="17" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.08984375" style="17" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.7265625" style="17" customWidth="1"/>
-    <col min="12" max="12" width="10.54296875" style="17" customWidth="1"/>
+    <col min="8" max="8" width="13.08984375" style="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.453125" style="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.08984375" style="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.7265625" style="11" customWidth="1"/>
+    <col min="12" max="12" width="10.54296875" style="11" customWidth="1"/>
     <col min="13" max="13" width="7" customWidth="1"/>
     <col min="14" max="14" width="6.6328125" customWidth="1"/>
     <col min="15" max="15" width="11.6328125" customWidth="1"/>
-    <col min="16" max="16" width="20.26953125" style="17" customWidth="1"/>
-    <col min="17" max="17" width="18.81640625" style="17" customWidth="1"/>
-    <col min="18" max="18" width="18.1796875" style="17" customWidth="1"/>
-    <col min="19" max="19" width="13.453125" style="17" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.26953125" style="11" customWidth="1"/>
+    <col min="17" max="17" width="18.81640625" style="11" customWidth="1"/>
+    <col min="18" max="18" width="18.1796875" style="11" customWidth="1"/>
+    <col min="19" max="19" width="13.453125" style="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="G1" s="8" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="G1" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
       <c r="M1" s="5"/>
     </row>
     <row r="2" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
       <c r="M2" s="3"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.35">
@@ -740,47 +743,47 @@
       <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="7" t="s">
         <v>4</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="I3" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="J3" s="13" t="s">
+      <c r="J3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="13" t="s">
+      <c r="K3" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="L3" s="13" t="s">
+      <c r="L3" s="7" t="s">
         <v>31</v>
       </c>
       <c r="M3" s="2"/>
       <c r="O3" t="s">
         <v>9</v>
       </c>
-      <c r="P3" s="17" t="s">
+      <c r="P3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="17" t="s">
+      <c r="Q3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="R3" s="17" t="s">
+      <c r="R3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="S3" s="17" t="s">
+      <c r="S3" s="11" t="s">
         <v>10</v>
       </c>
     </row>
@@ -791,48 +794,48 @@
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C4" s="10">
         <v>130000</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D4" s="10">
         <v>1</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4" s="10">
         <f>C4:C22*D4:D22</f>
         <v>130000</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="14">
+      <c r="H4" s="8">
         <f xml:space="preserve"> 4099000</f>
         <v>4099000</v>
       </c>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16">
+      <c r="I4" s="10"/>
+      <c r="J4" s="10">
         <f t="shared" ref="J4:J16" si="0">H4:H60+I4:I60</f>
         <v>4099000</v>
       </c>
-      <c r="K4" s="17">
+      <c r="K4" s="11">
         <v>5552000</v>
       </c>
-      <c r="L4" s="16">
+      <c r="L4" s="10">
         <f t="shared" ref="L4:L16" si="1">K4:K60-J4:J60</f>
         <v>1453000</v>
       </c>
       <c r="M4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="P4" s="17">
+      <c r="P4" s="11">
         <v>500000</v>
       </c>
-      <c r="Q4" s="17">
+      <c r="Q4" s="11">
         <v>500000</v>
       </c>
-      <c r="R4" s="17">
+      <c r="R4" s="11">
         <v>500000</v>
       </c>
-      <c r="S4" s="17">
+      <c r="S4" s="11">
         <f>SUM(Table1[NGỌC HÀ]+Table1[THẢO NGUYÊN]+Table1[PHƯƠNG HÀ])</f>
         <v>1500000</v>
       </c>
@@ -844,45 +847,45 @@
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="10">
         <v>777000</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="10">
         <v>1</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="10">
         <f t="shared" ref="E5:E22" si="2">C5:C23*D5:D23</f>
         <v>777000</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="15">
+      <c r="H5" s="9">
         <v>8452000</v>
       </c>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16">
+      <c r="I5" s="10"/>
+      <c r="J5" s="10">
         <f t="shared" si="0"/>
         <v>8452000</v>
       </c>
-      <c r="K5" s="16">
+      <c r="K5" s="10">
         <v>10700000</v>
       </c>
-      <c r="L5" s="16">
+      <c r="L5" s="10">
         <f t="shared" si="1"/>
         <v>2248000</v>
       </c>
       <c r="M5" s="2"/>
-      <c r="P5" s="17">
+      <c r="P5" s="11">
         <v>200000</v>
       </c>
-      <c r="Q5" s="17">
+      <c r="Q5" s="11">
         <v>200000</v>
       </c>
-      <c r="R5" s="17">
+      <c r="R5" s="11">
         <v>200000</v>
       </c>
-      <c r="S5" s="17">
+      <c r="S5" s="11">
         <f>SUM(Table1[NGỌC HÀ]+Table1[THẢO NGUYÊN]+Table1[PHƯƠNG HÀ])</f>
         <v>600000</v>
       </c>
@@ -894,34 +897,34 @@
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="10">
         <v>60000</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="10">
         <v>1</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="10">
         <f t="shared" si="2"/>
         <v>60000</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H6" s="15">
+      <c r="H6" s="9">
         <f>1621000 + 82000*4</f>
         <v>1949000</v>
       </c>
-      <c r="I6" s="18">
+      <c r="I6" s="12">
         <v>15000</v>
       </c>
-      <c r="J6" s="16">
+      <c r="J6" s="10">
         <f t="shared" si="0"/>
         <v>1964000</v>
       </c>
-      <c r="K6" s="16">
+      <c r="K6" s="10">
         <v>2756000</v>
       </c>
-      <c r="L6" s="16">
+      <c r="L6" s="10">
         <f t="shared" si="1"/>
         <v>792000</v>
       </c>
@@ -929,16 +932,16 @@
       <c r="O6" t="s">
         <v>33</v>
       </c>
-      <c r="P6" s="17">
+      <c r="P6" s="11">
         <v>1500000</v>
       </c>
-      <c r="Q6" s="17">
+      <c r="Q6" s="11">
         <v>1500000</v>
       </c>
-      <c r="R6" s="17">
+      <c r="R6" s="11">
         <v>1500000</v>
       </c>
-      <c r="S6" s="17">
+      <c r="S6" s="11">
         <f>SUM(Table1[NGỌC HÀ]+Table1[THẢO NGUYÊN]+Table1[PHƯƠNG HÀ])</f>
         <v>4500000</v>
       </c>
@@ -950,40 +953,40 @@
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="10">
         <v>80000</v>
       </c>
-      <c r="D7" s="16">
+      <c r="D7" s="10">
         <v>1</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E7" s="10">
         <f t="shared" si="2"/>
         <v>80000</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="15">
+      <c r="H7" s="9">
         <f>82000*3</f>
         <v>246000</v>
       </c>
-      <c r="I7" s="18">
+      <c r="I7" s="12">
         <v>15000</v>
       </c>
-      <c r="J7" s="16">
+      <c r="J7" s="10">
         <f t="shared" si="0"/>
         <v>261000</v>
       </c>
-      <c r="K7" s="16">
+      <c r="K7" s="10">
         <f>170000*3</f>
         <v>510000</v>
       </c>
-      <c r="L7" s="16">
+      <c r="L7" s="10">
         <f t="shared" si="1"/>
         <v>249000</v>
       </c>
       <c r="M7" s="2"/>
-      <c r="S7" s="17">
+      <c r="S7" s="11">
         <f>SUM(Table1[NGỌC HÀ]+Table1[THẢO NGUYÊN]+Table1[PHƯƠNG HÀ])</f>
         <v>0</v>
       </c>
@@ -995,36 +998,36 @@
       <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8" s="10">
         <v>60000</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D8" s="10">
         <v>1</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="10">
         <f t="shared" si="2"/>
         <v>60000</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H8" s="15">
+      <c r="H8" s="9">
         <v>1338000</v>
       </c>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16">
+      <c r="I8" s="10"/>
+      <c r="J8" s="10">
         <f t="shared" si="0"/>
         <v>1338000</v>
       </c>
-      <c r="K8" s="16">
+      <c r="K8" s="10">
         <v>1872000</v>
       </c>
-      <c r="L8" s="16">
+      <c r="L8" s="10">
         <f t="shared" si="1"/>
         <v>534000</v>
       </c>
       <c r="M8" s="2"/>
-      <c r="S8" s="17">
+      <c r="S8" s="11">
         <f>SUM(Table1[NGỌC HÀ]+Table1[THẢO NGUYÊN]+Table1[PHƯƠNG HÀ])</f>
         <v>0</v>
       </c>
@@ -1036,36 +1039,36 @@
       <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C9" s="10">
         <v>10000</v>
       </c>
-      <c r="D9" s="16">
+      <c r="D9" s="10">
         <v>1</v>
       </c>
-      <c r="E9" s="16">
+      <c r="E9" s="10">
         <f t="shared" si="2"/>
         <v>10000</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H9" s="15">
+      <c r="H9" s="9">
         <v>230000</v>
       </c>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16">
+      <c r="I9" s="10"/>
+      <c r="J9" s="10">
         <f>H9:H65+I9:I65</f>
         <v>230000</v>
       </c>
-      <c r="K9" s="16">
+      <c r="K9" s="10">
         <v>389000</v>
       </c>
-      <c r="L9" s="16">
+      <c r="L9" s="10">
         <f t="shared" si="1"/>
         <v>159000</v>
       </c>
       <c r="M9" s="2"/>
-      <c r="S9" s="17">
+      <c r="S9" s="11">
         <f>SUM(Table1[NGỌC HÀ]+Table1[THẢO NGUYÊN]+Table1[PHƯƠNG HÀ])</f>
         <v>0</v>
       </c>
@@ -1077,45 +1080,51 @@
       <c r="B10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C10" s="10">
         <v>50000</v>
       </c>
-      <c r="D10" s="16">
+      <c r="D10" s="10">
         <v>1</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E10" s="10">
         <f t="shared" si="2"/>
         <v>50000</v>
       </c>
-      <c r="G10" s="1"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16">
+      <c r="G10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" s="9">
+        <v>113000</v>
+      </c>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10">
         <f>H10:H66+I10:I66</f>
-        <v>0</v>
-      </c>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16">
+        <v>113000</v>
+      </c>
+      <c r="K10" s="10">
+        <v>194000</v>
+      </c>
+      <c r="L10" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M10" s="12"/>
+        <v>81000</v>
+      </c>
+      <c r="M10" s="6"/>
       <c r="O10" t="s">
         <v>10</v>
       </c>
-      <c r="P10" s="17">
+      <c r="P10" s="11">
         <f xml:space="preserve"> SUM(P4:P9)</f>
         <v>2200000</v>
       </c>
-      <c r="Q10" s="17">
+      <c r="Q10" s="11">
         <f>SUM(Q4:Q9)</f>
         <v>2200000</v>
       </c>
-      <c r="R10" s="17">
+      <c r="R10" s="11">
         <f>SUM(R4:R9)</f>
         <v>2200000</v>
       </c>
-      <c r="S10" s="19">
+      <c r="S10" s="13">
         <f>SUM(Table1[NGỌC HÀ]+Table1[THẢO NGUYÊN]+Table1[PHƯƠNG HÀ])</f>
         <v>6600000</v>
       </c>
@@ -1127,29 +1136,29 @@
       <c r="B11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="16">
+      <c r="C11" s="10">
         <v>45000</v>
       </c>
-      <c r="D11" s="16">
+      <c r="D11" s="10">
         <v>2</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E11" s="10">
         <f t="shared" si="2"/>
         <v>90000</v>
       </c>
       <c r="G11" s="1"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16">
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16">
+      <c r="K11" s="10"/>
+      <c r="L11" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M11" s="12"/>
+      <c r="M11" s="6"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
@@ -1158,25 +1167,25 @@
       <c r="B12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="16">
+      <c r="C12" s="10">
         <v>25000</v>
       </c>
-      <c r="D12" s="16">
+      <c r="D12" s="10">
         <v>3</v>
       </c>
-      <c r="E12" s="16">
+      <c r="E12" s="10">
         <f t="shared" si="2"/>
         <v>75000</v>
       </c>
       <c r="G12" s="1"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16">
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16">
+      <c r="K12" s="10"/>
+      <c r="L12" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1189,25 +1198,25 @@
       <c r="B13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="16">
+      <c r="C13" s="10">
         <v>50000</v>
       </c>
-      <c r="D13" s="16">
+      <c r="D13" s="10">
         <v>1</v>
       </c>
-      <c r="E13" s="16">
+      <c r="E13" s="10">
         <f t="shared" si="2"/>
         <v>50000</v>
       </c>
       <c r="G13" s="1"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16">
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K13" s="16"/>
-      <c r="L13" s="16">
+      <c r="K13" s="10"/>
+      <c r="L13" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1220,25 +1229,25 @@
       <c r="B14" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="16">
+      <c r="C14" s="10">
         <v>50000</v>
       </c>
-      <c r="D14" s="16">
+      <c r="D14" s="10">
         <v>1</v>
       </c>
-      <c r="E14" s="16">
+      <c r="E14" s="10">
         <f t="shared" si="2"/>
         <v>50000</v>
       </c>
       <c r="G14" s="1"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16">
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K14" s="16"/>
-      <c r="L14" s="16">
+      <c r="K14" s="10"/>
+      <c r="L14" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1251,25 +1260,25 @@
       <c r="B15" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="16">
+      <c r="C15" s="10">
         <v>300000</v>
       </c>
-      <c r="D15" s="16">
+      <c r="D15" s="10">
         <v>1</v>
       </c>
-      <c r="E15" s="16">
+      <c r="E15" s="10">
         <f t="shared" si="2"/>
         <v>300000</v>
       </c>
       <c r="G15" s="1"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16">
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K15" s="16"/>
-      <c r="L15" s="16">
+      <c r="K15" s="10"/>
+      <c r="L15" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1277,10 +1286,10 @@
       <c r="O15" t="s">
         <v>37</v>
       </c>
-      <c r="P15" s="17" t="s">
+      <c r="P15" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="Q15" s="17" t="s">
+      <c r="Q15" s="11" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1291,25 +1300,25 @@
       <c r="B16" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="16">
+      <c r="C16" s="10">
         <v>75000</v>
       </c>
-      <c r="D16" s="16">
+      <c r="D16" s="10">
         <v>1</v>
       </c>
-      <c r="E16" s="16">
+      <c r="E16" s="10">
         <f t="shared" si="2"/>
         <v>75000</v>
       </c>
       <c r="G16" s="1"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16">
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K16" s="16"/>
-      <c r="L16" s="16">
+      <c r="K16" s="10"/>
+      <c r="L16" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1317,10 +1326,10 @@
       <c r="O16" t="s">
         <v>35</v>
       </c>
-      <c r="P16" s="17" t="s">
+      <c r="P16" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="Q16" s="17" t="s">
+      <c r="Q16" s="11" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1331,25 +1340,25 @@
       <c r="B17" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="16">
+      <c r="C17" s="10">
         <v>40000</v>
       </c>
-      <c r="D17" s="16">
+      <c r="D17" s="10">
         <v>1</v>
       </c>
-      <c r="E17" s="16">
+      <c r="E17" s="10">
         <f t="shared" si="2"/>
         <v>40000</v>
       </c>
       <c r="G17" s="1"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16">
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10">
         <f t="shared" ref="J17:J51" si="3">H17:H90+I17:I90</f>
         <v>0</v>
       </c>
-      <c r="K17" s="16"/>
-      <c r="L17" s="16">
+      <c r="K17" s="10"/>
+      <c r="L17" s="10">
         <f t="shared" ref="L17:L51" si="4">K17:K90-J17:J90</f>
         <v>0</v>
       </c>
@@ -1357,10 +1366,10 @@
       <c r="O17" t="s">
         <v>45</v>
       </c>
-      <c r="P17" s="17" t="s">
+      <c r="P17" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="Q17" s="17" t="s">
+      <c r="Q17" s="11" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1369,21 +1378,21 @@
         <v>32</v>
       </c>
       <c r="B18" s="1"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16">
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G18" s="1"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K18" s="16"/>
-      <c r="L18" s="16">
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -1394,21 +1403,21 @@
         <v>33</v>
       </c>
       <c r="B19" s="1"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16">
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G19" s="1"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K19" s="16"/>
-      <c r="L19" s="16">
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -1419,21 +1428,21 @@
         <v>34</v>
       </c>
       <c r="B20" s="1"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16">
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G20" s="1"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="16">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K20" s="16"/>
-      <c r="L20" s="16">
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -1444,21 +1453,21 @@
         <v>35</v>
       </c>
       <c r="B21" s="1"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16">
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G21" s="1"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="16">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K21" s="16"/>
-      <c r="L21" s="16">
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -1469,46 +1478,46 @@
         <v>47</v>
       </c>
       <c r="B22" s="1"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16">
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G22" s="1"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="16">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K22" s="16"/>
-      <c r="L22" s="16">
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M22" s="2"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="20">
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="14">
         <f>SUM(E4:E22)</f>
         <v>1847000</v>
       </c>
       <c r="G23" s="1"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="16">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K23" s="16"/>
-      <c r="L23" s="16">
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -1517,18 +1526,18 @@
     <row r="24" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
       <c r="G24" s="1"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="16">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K24" s="16"/>
-      <c r="L24" s="16">
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -1537,18 +1546,18 @@
     <row r="25" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
       <c r="G25" s="1"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="16">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K25" s="16"/>
-      <c r="L25" s="16">
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -1557,18 +1566,18 @@
     <row r="26" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
       <c r="G26" s="1"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="16">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K26" s="16"/>
-      <c r="L26" s="16">
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -1577,18 +1586,18 @@
     <row r="27" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
       <c r="G27" s="1"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="16"/>
-      <c r="J27" s="16">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K27" s="16"/>
-      <c r="L27" s="16">
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -1597,18 +1606,18 @@
     <row r="28" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
       <c r="G28" s="1"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="16">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K28" s="16"/>
-      <c r="L28" s="16">
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -1617,18 +1626,18 @@
     <row r="29" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="16">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K29" s="16"/>
-      <c r="L29" s="16">
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -1637,18 +1646,18 @@
     <row r="30" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
       <c r="G30" s="1"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="16"/>
-      <c r="J30" s="16">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K30" s="16"/>
-      <c r="L30" s="16">
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -1657,18 +1666,18 @@
     <row r="31" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
       <c r="G31" s="1"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="16"/>
-      <c r="J31" s="16">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K31" s="16"/>
-      <c r="L31" s="16">
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K31" s="10"/>
+      <c r="L31" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -1677,18 +1686,18 @@
     <row r="32" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
       <c r="G32" s="1"/>
-      <c r="H32" s="16"/>
-      <c r="I32" s="16"/>
-      <c r="J32" s="16">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K32" s="16"/>
-      <c r="L32" s="16">
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K32" s="10"/>
+      <c r="L32" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -1697,18 +1706,18 @@
     <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="16"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
       <c r="G33" s="1"/>
-      <c r="H33" s="16"/>
-      <c r="I33" s="16"/>
-      <c r="J33" s="16">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K33" s="16"/>
-      <c r="L33" s="16">
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K33" s="10"/>
+      <c r="L33" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -1717,18 +1726,18 @@
     <row r="34" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="16"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
       <c r="G34" s="1"/>
-      <c r="H34" s="16"/>
-      <c r="I34" s="16"/>
-      <c r="J34" s="16">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K34" s="16"/>
-      <c r="L34" s="16">
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K34" s="10"/>
+      <c r="L34" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -1737,18 +1746,18 @@
     <row r="35" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="16"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
       <c r="G35" s="1"/>
-      <c r="H35" s="16"/>
-      <c r="I35" s="16"/>
-      <c r="J35" s="16">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K35" s="16"/>
-      <c r="L35" s="16">
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K35" s="10"/>
+      <c r="L35" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -1757,18 +1766,18 @@
     <row r="36" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
-      <c r="C36" s="16"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="16"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
       <c r="G36" s="1"/>
-      <c r="H36" s="16"/>
-      <c r="I36" s="16"/>
-      <c r="J36" s="16">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K36" s="16"/>
-      <c r="L36" s="16">
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K36" s="10"/>
+      <c r="L36" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -1777,18 +1786,18 @@
     <row r="37" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
-      <c r="C37" s="16"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="16"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
       <c r="G37" s="1"/>
-      <c r="H37" s="16"/>
-      <c r="I37" s="16"/>
-      <c r="J37" s="16">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K37" s="16"/>
-      <c r="L37" s="16">
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K37" s="10"/>
+      <c r="L37" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -1797,18 +1806,18 @@
     <row r="38" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
-      <c r="C38" s="16"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="16"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
       <c r="G38" s="1"/>
-      <c r="H38" s="16"/>
-      <c r="I38" s="16"/>
-      <c r="J38" s="16">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K38" s="16"/>
-      <c r="L38" s="16">
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K38" s="10"/>
+      <c r="L38" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -1817,18 +1826,18 @@
     <row r="39" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
-      <c r="C39" s="16"/>
-      <c r="D39" s="16"/>
-      <c r="E39" s="16"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
       <c r="G39" s="1"/>
-      <c r="H39" s="16"/>
-      <c r="I39" s="16"/>
-      <c r="J39" s="16">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K39" s="16"/>
-      <c r="L39" s="16">
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K39" s="10"/>
+      <c r="L39" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -1837,18 +1846,18 @@
     <row r="40" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
-      <c r="C40" s="16"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="16"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
       <c r="G40" s="1"/>
-      <c r="H40" s="16"/>
-      <c r="I40" s="16"/>
-      <c r="J40" s="16">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K40" s="16"/>
-      <c r="L40" s="16">
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K40" s="10"/>
+      <c r="L40" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -1857,18 +1866,18 @@
     <row r="41" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
-      <c r="C41" s="16"/>
-      <c r="D41" s="16"/>
-      <c r="E41" s="16"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
       <c r="G41" s="1"/>
-      <c r="H41" s="16"/>
-      <c r="I41" s="16"/>
-      <c r="J41" s="16">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K41" s="16"/>
-      <c r="L41" s="16">
+      <c r="H41" s="10"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K41" s="10"/>
+      <c r="L41" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -1877,18 +1886,18 @@
     <row r="42" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
-      <c r="C42" s="16"/>
-      <c r="D42" s="16"/>
-      <c r="E42" s="16"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
       <c r="G42" s="1"/>
-      <c r="H42" s="16"/>
-      <c r="I42" s="16"/>
-      <c r="J42" s="16">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K42" s="16"/>
-      <c r="L42" s="16">
+      <c r="H42" s="10"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K42" s="10"/>
+      <c r="L42" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -1897,18 +1906,18 @@
     <row r="43" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
-      <c r="C43" s="16"/>
-      <c r="D43" s="16"/>
-      <c r="E43" s="16"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
       <c r="G43" s="1"/>
-      <c r="H43" s="16"/>
-      <c r="I43" s="16"/>
-      <c r="J43" s="16">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K43" s="16"/>
-      <c r="L43" s="16">
+      <c r="H43" s="10"/>
+      <c r="I43" s="10"/>
+      <c r="J43" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K43" s="10"/>
+      <c r="L43" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -1917,18 +1926,18 @@
     <row r="44" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
-      <c r="C44" s="16"/>
-      <c r="D44" s="16"/>
-      <c r="E44" s="16"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
       <c r="G44" s="1"/>
-      <c r="H44" s="16"/>
-      <c r="I44" s="16"/>
-      <c r="J44" s="16">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K44" s="16"/>
-      <c r="L44" s="16">
+      <c r="H44" s="10"/>
+      <c r="I44" s="10"/>
+      <c r="J44" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K44" s="10"/>
+      <c r="L44" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -1937,18 +1946,18 @@
     <row r="45" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
-      <c r="C45" s="16"/>
-      <c r="D45" s="16"/>
-      <c r="E45" s="16"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
       <c r="G45" s="1"/>
-      <c r="H45" s="16"/>
-      <c r="I45" s="16"/>
-      <c r="J45" s="16">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K45" s="16"/>
-      <c r="L45" s="16">
+      <c r="H45" s="10"/>
+      <c r="I45" s="10"/>
+      <c r="J45" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K45" s="10"/>
+      <c r="L45" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -1957,18 +1966,18 @@
     <row r="46" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
-      <c r="C46" s="16"/>
-      <c r="D46" s="16"/>
-      <c r="E46" s="16"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
       <c r="G46" s="1"/>
-      <c r="H46" s="16"/>
-      <c r="I46" s="16"/>
-      <c r="J46" s="16">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K46" s="16"/>
-      <c r="L46" s="16">
+      <c r="H46" s="10"/>
+      <c r="I46" s="10"/>
+      <c r="J46" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K46" s="10"/>
+      <c r="L46" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -1977,18 +1986,18 @@
     <row r="47" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
-      <c r="C47" s="16"/>
-      <c r="D47" s="16"/>
-      <c r="E47" s="16"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
       <c r="G47" s="1"/>
-      <c r="H47" s="16"/>
-      <c r="I47" s="16"/>
-      <c r="J47" s="16">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K47" s="16"/>
-      <c r="L47" s="16">
+      <c r="H47" s="10"/>
+      <c r="I47" s="10"/>
+      <c r="J47" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K47" s="10"/>
+      <c r="L47" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -1997,18 +2006,18 @@
     <row r="48" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
-      <c r="C48" s="16"/>
-      <c r="D48" s="16"/>
-      <c r="E48" s="16"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
       <c r="G48" s="1"/>
-      <c r="H48" s="16"/>
-      <c r="I48" s="16"/>
-      <c r="J48" s="16">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K48" s="16"/>
-      <c r="L48" s="16">
+      <c r="H48" s="10"/>
+      <c r="I48" s="10"/>
+      <c r="J48" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K48" s="10"/>
+      <c r="L48" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -2017,18 +2026,18 @@
     <row r="49" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
-      <c r="C49" s="16"/>
-      <c r="D49" s="16"/>
-      <c r="E49" s="16"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
       <c r="G49" s="1"/>
-      <c r="H49" s="16"/>
-      <c r="I49" s="16"/>
-      <c r="J49" s="16">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K49" s="16"/>
-      <c r="L49" s="16">
+      <c r="H49" s="10"/>
+      <c r="I49" s="10"/>
+      <c r="J49" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K49" s="10"/>
+      <c r="L49" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -2037,18 +2046,18 @@
     <row r="50" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
-      <c r="C50" s="16"/>
-      <c r="D50" s="16"/>
-      <c r="E50" s="16"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="10"/>
       <c r="G50" s="1"/>
-      <c r="H50" s="16"/>
-      <c r="I50" s="16"/>
-      <c r="J50" s="16">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K50" s="16"/>
-      <c r="L50" s="16">
+      <c r="H50" s="10"/>
+      <c r="I50" s="10"/>
+      <c r="J50" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K50" s="10"/>
+      <c r="L50" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -2057,18 +2066,18 @@
     <row r="51" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
-      <c r="C51" s="16"/>
-      <c r="D51" s="16"/>
-      <c r="E51" s="16"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="10"/>
       <c r="G51" s="1"/>
-      <c r="H51" s="16"/>
-      <c r="I51" s="16"/>
-      <c r="J51" s="16">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K51" s="16"/>
-      <c r="L51" s="16">
+      <c r="H51" s="10"/>
+      <c r="I51" s="10"/>
+      <c r="J51" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K51" s="10"/>
+      <c r="L51" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -2077,18 +2086,18 @@
     <row r="52" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
-      <c r="C52" s="16"/>
-      <c r="D52" s="16"/>
-      <c r="E52" s="16"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="10"/>
       <c r="G52" s="1"/>
-      <c r="H52" s="16"/>
-      <c r="I52" s="16"/>
-      <c r="J52" s="16">
+      <c r="H52" s="10"/>
+      <c r="I52" s="10"/>
+      <c r="J52" s="10">
         <f t="shared" ref="J52:J60" si="5">H52:H125+I52:I125</f>
         <v>0</v>
       </c>
-      <c r="K52" s="16"/>
-      <c r="L52" s="16">
+      <c r="K52" s="10"/>
+      <c r="L52" s="10">
         <f t="shared" ref="L52:L60" si="6">K52:K125-J52:J125</f>
         <v>0</v>
       </c>
@@ -2097,18 +2106,18 @@
     <row r="53" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
-      <c r="C53" s="16"/>
-      <c r="D53" s="16"/>
-      <c r="E53" s="16"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="10"/>
       <c r="G53" s="1"/>
-      <c r="H53" s="16"/>
-      <c r="I53" s="16"/>
-      <c r="J53" s="16">
+      <c r="H53" s="10"/>
+      <c r="I53" s="10"/>
+      <c r="J53" s="10">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K53" s="16"/>
-      <c r="L53" s="16">
+      <c r="K53" s="10"/>
+      <c r="L53" s="10">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -2117,18 +2126,18 @@
     <row r="54" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
-      <c r="C54" s="16"/>
-      <c r="D54" s="16"/>
-      <c r="E54" s="16"/>
+      <c r="C54" s="10"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="10"/>
       <c r="G54" s="1"/>
-      <c r="H54" s="16"/>
-      <c r="I54" s="16"/>
-      <c r="J54" s="16">
+      <c r="H54" s="10"/>
+      <c r="I54" s="10"/>
+      <c r="J54" s="10">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K54" s="16"/>
-      <c r="L54" s="16">
+      <c r="K54" s="10"/>
+      <c r="L54" s="10">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -2137,18 +2146,18 @@
     <row r="55" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
-      <c r="C55" s="16"/>
-      <c r="D55" s="16"/>
-      <c r="E55" s="16"/>
+      <c r="C55" s="10"/>
+      <c r="D55" s="10"/>
+      <c r="E55" s="10"/>
       <c r="G55" s="1"/>
-      <c r="H55" s="16"/>
-      <c r="I55" s="16"/>
-      <c r="J55" s="16">
+      <c r="H55" s="10"/>
+      <c r="I55" s="10"/>
+      <c r="J55" s="10">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K55" s="16"/>
-      <c r="L55" s="16">
+      <c r="K55" s="10"/>
+      <c r="L55" s="10">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -2157,18 +2166,18 @@
     <row r="56" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
-      <c r="C56" s="16"/>
-      <c r="D56" s="16"/>
-      <c r="E56" s="16"/>
+      <c r="C56" s="10"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="10"/>
       <c r="G56" s="1"/>
-      <c r="H56" s="16"/>
-      <c r="I56" s="16"/>
-      <c r="J56" s="16">
+      <c r="H56" s="10"/>
+      <c r="I56" s="10"/>
+      <c r="J56" s="10">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K56" s="16"/>
-      <c r="L56" s="16">
+      <c r="K56" s="10"/>
+      <c r="L56" s="10">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -2177,18 +2186,18 @@
     <row r="57" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
-      <c r="C57" s="16"/>
-      <c r="D57" s="16"/>
-      <c r="E57" s="16"/>
+      <c r="C57" s="10"/>
+      <c r="D57" s="10"/>
+      <c r="E57" s="10"/>
       <c r="G57" s="1"/>
-      <c r="H57" s="16"/>
-      <c r="I57" s="16"/>
-      <c r="J57" s="16">
+      <c r="H57" s="10"/>
+      <c r="I57" s="10"/>
+      <c r="J57" s="10">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K57" s="16"/>
-      <c r="L57" s="16">
+      <c r="K57" s="10"/>
+      <c r="L57" s="10">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -2197,18 +2206,18 @@
     <row r="58" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
-      <c r="C58" s="16"/>
-      <c r="D58" s="16"/>
-      <c r="E58" s="16"/>
+      <c r="C58" s="10"/>
+      <c r="D58" s="10"/>
+      <c r="E58" s="10"/>
       <c r="G58" s="1"/>
-      <c r="H58" s="16"/>
-      <c r="I58" s="16"/>
-      <c r="J58" s="16">
+      <c r="H58" s="10"/>
+      <c r="I58" s="10"/>
+      <c r="J58" s="10">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K58" s="16"/>
-      <c r="L58" s="16">
+      <c r="K58" s="10"/>
+      <c r="L58" s="10">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -2217,18 +2226,18 @@
     <row r="59" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
-      <c r="C59" s="16"/>
-      <c r="D59" s="16"/>
-      <c r="E59" s="16"/>
+      <c r="C59" s="10"/>
+      <c r="D59" s="10"/>
+      <c r="E59" s="10"/>
       <c r="G59" s="1"/>
-      <c r="H59" s="16"/>
-      <c r="I59" s="16"/>
-      <c r="J59" s="16">
+      <c r="H59" s="10"/>
+      <c r="I59" s="10"/>
+      <c r="J59" s="10">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K59" s="16"/>
-      <c r="L59" s="16">
+      <c r="K59" s="10"/>
+      <c r="L59" s="10">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -2237,18 +2246,18 @@
     <row r="60" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
-      <c r="C60" s="16"/>
-      <c r="D60" s="16"/>
-      <c r="E60" s="16"/>
+      <c r="C60" s="10"/>
+      <c r="D60" s="10"/>
+      <c r="E60" s="10"/>
       <c r="G60" s="1"/>
-      <c r="H60" s="16"/>
-      <c r="I60" s="16"/>
-      <c r="J60" s="16">
+      <c r="H60" s="10"/>
+      <c r="I60" s="10"/>
+      <c r="J60" s="10">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K60" s="16"/>
-      <c r="L60" s="16">
+      <c r="K60" s="10"/>
+      <c r="L60" s="10">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>

--- a/Chi tiêu.xlsx
+++ b/Chi tiêu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KẾ HOẠCH\Yolo-Fashion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB03534F-7924-450D-8857-D0B1F98E5DE8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A1D422B-E562-4A95-97AB-8CE543F3D677}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="50">
   <si>
     <t>Tên</t>
   </si>
@@ -172,6 +172,9 @@
   </si>
   <si>
     <t>23-26/2</t>
+  </si>
+  <si>
+    <t>1/3</t>
   </si>
 </sst>
 </file>
@@ -329,7 +332,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -367,6 +370,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -678,8 +682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -817,11 +821,11 @@
         <v>4099000</v>
       </c>
       <c r="K4" s="11">
-        <v>5552000</v>
+        <v>5517000</v>
       </c>
       <c r="L4" s="10">
         <f t="shared" ref="L4:L16" si="1">K4:K60-J4:J60</f>
-        <v>1453000</v>
+        <v>1418000</v>
       </c>
       <c r="M4" s="2" t="s">
         <v>34</v>
@@ -922,11 +926,11 @@
         <v>1964000</v>
       </c>
       <c r="K6" s="10">
-        <v>2756000</v>
+        <v>2738000</v>
       </c>
       <c r="L6" s="10">
         <f t="shared" si="1"/>
-        <v>792000</v>
+        <v>774000</v>
       </c>
       <c r="M6" s="2"/>
       <c r="O6" t="s">
@@ -1146,7 +1150,9 @@
         <f t="shared" si="2"/>
         <v>90000</v>
       </c>
-      <c r="G11" s="1"/>
+      <c r="G11" s="21" t="s">
+        <v>49</v>
+      </c>
       <c r="H11" s="10"/>
       <c r="I11" s="10"/>
       <c r="J11" s="10">

--- a/Chi tiêu.xlsx
+++ b/Chi tiêu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KẾ HOẠCH\Yolo-Fashion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A1D422B-E562-4A95-97AB-8CE543F3D677}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AB1C025-35F1-497C-83C7-72AF869CFEF7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -332,7 +332,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -352,6 +352,7 @@
     <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -370,7 +371,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -683,7 +685,7 @@
   <dimension ref="A1:S60"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -699,7 +701,7 @@
     <col min="10" max="10" width="13.08984375" style="11" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.7265625" style="11" customWidth="1"/>
     <col min="12" max="12" width="10.54296875" style="11" customWidth="1"/>
-    <col min="13" max="13" width="7" customWidth="1"/>
+    <col min="13" max="13" width="11.54296875" customWidth="1"/>
     <col min="14" max="14" width="6.6328125" customWidth="1"/>
     <col min="15" max="15" width="11.6328125" customWidth="1"/>
     <col min="16" max="16" width="20.26953125" style="11" customWidth="1"/>
@@ -709,35 +711,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="G1" s="17" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="G1" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
       <c r="M1" s="5"/>
     </row>
     <row r="2" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
       <c r="M2" s="3"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.35">
@@ -932,7 +934,7 @@
         <f t="shared" si="1"/>
         <v>774000</v>
       </c>
-      <c r="M6" s="2"/>
+      <c r="M6" s="22"/>
       <c r="O6" t="s">
         <v>33</v>
       </c>
@@ -1112,7 +1114,7 @@
         <f t="shared" si="1"/>
         <v>81000</v>
       </c>
-      <c r="M10" s="6"/>
+      <c r="M10" s="23"/>
       <c r="O10" t="s">
         <v>10</v>
       </c>
@@ -1150,19 +1152,23 @@
         <f t="shared" si="2"/>
         <v>90000</v>
       </c>
-      <c r="G11" s="21" t="s">
+      <c r="G11" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="H11" s="10"/>
+      <c r="H11" s="9">
+        <v>1126000</v>
+      </c>
       <c r="I11" s="10"/>
       <c r="J11" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K11" s="10"/>
+        <v>1126000</v>
+      </c>
+      <c r="K11" s="10">
+        <v>1520000</v>
+      </c>
       <c r="L11" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>394000</v>
       </c>
       <c r="M11" s="6"/>
     </row>
@@ -1226,7 +1232,6 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M13" s="2"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
@@ -1257,7 +1262,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M14" s="2"/>
+      <c r="M14" s="6"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
@@ -1505,12 +1510,12 @@
       <c r="M22" s="2"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A23" s="18" t="s">
+      <c r="A23" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="20"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="21"/>
       <c r="E23" s="14">
         <f>SUM(E4:E22)</f>
         <v>1847000</v>

--- a/Chi tiêu.xlsx
+++ b/Chi tiêu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KẾ HOẠCH\Yolo-Fashion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AB1C025-35F1-497C-83C7-72AF869CFEF7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F29D1214-F8D2-4473-A5CE-4C2F63F8B190}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -353,6 +353,8 @@
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -371,8 +373,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -685,7 +685,7 @@
   <dimension ref="A1:S60"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -711,35 +711,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="G1" s="18" t="s">
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="G1" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
       <c r="M1" s="5"/>
     </row>
     <row r="2" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
       <c r="M2" s="3"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.35">
@@ -817,17 +817,19 @@
         <f xml:space="preserve"> 4099000</f>
         <v>4099000</v>
       </c>
-      <c r="I4" s="10"/>
+      <c r="I4" s="10">
+        <v>615000</v>
+      </c>
       <c r="J4" s="10">
         <f t="shared" ref="J4:J16" si="0">H4:H60+I4:I60</f>
-        <v>4099000</v>
+        <v>4714000</v>
       </c>
       <c r="K4" s="11">
         <v>5517000</v>
       </c>
       <c r="L4" s="10">
         <f t="shared" ref="L4:L16" si="1">K4:K60-J4:J60</f>
-        <v>1418000</v>
+        <v>803000</v>
       </c>
       <c r="M4" s="2" t="s">
         <v>34</v>
@@ -869,17 +871,19 @@
       <c r="H5" s="9">
         <v>8452000</v>
       </c>
-      <c r="I5" s="10"/>
+      <c r="I5" s="10">
+        <v>250000</v>
+      </c>
       <c r="J5" s="10">
         <f t="shared" si="0"/>
-        <v>8452000</v>
+        <v>8702000</v>
       </c>
       <c r="K5" s="10">
         <v>10700000</v>
       </c>
       <c r="L5" s="10">
         <f t="shared" si="1"/>
-        <v>2248000</v>
+        <v>1998000</v>
       </c>
       <c r="M5" s="2"/>
       <c r="P5" s="11">
@@ -934,7 +938,7 @@
         <f t="shared" si="1"/>
         <v>774000</v>
       </c>
-      <c r="M6" s="22"/>
+      <c r="M6" s="16"/>
       <c r="O6" t="s">
         <v>33</v>
       </c>
@@ -1114,7 +1118,7 @@
         <f t="shared" si="1"/>
         <v>81000</v>
       </c>
-      <c r="M10" s="23"/>
+      <c r="M10" s="17"/>
       <c r="O10" t="s">
         <v>10</v>
       </c>
@@ -1510,12 +1514,12 @@
       <c r="M22" s="2"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A23" s="19" t="s">
+      <c r="A23" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="20"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="21"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="23"/>
       <c r="E23" s="14">
         <f>SUM(E4:E22)</f>
         <v>1847000</v>

--- a/Chi tiêu.xlsx
+++ b/Chi tiêu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KẾ HOẠCH\Yolo-Fashion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F29D1214-F8D2-4473-A5CE-4C2F63F8B190}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34E5DF42-D461-4F64-9609-4D2CA582C6EE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
   <si>
     <t>Tên</t>
   </si>
@@ -132,21 +132,6 @@
     <t>cọc 2tr, còn 2tr1</t>
   </si>
   <si>
-    <t>20/2</t>
-  </si>
-  <si>
-    <t>Nguyên nhận 975.000</t>
-  </si>
-  <si>
-    <t>Ngày</t>
-  </si>
-  <si>
-    <t>Chi trả</t>
-  </si>
-  <si>
-    <t>Số tiền</t>
-  </si>
-  <si>
     <t>18/2-22/2</t>
   </si>
   <si>
@@ -159,22 +144,22 @@
     <t>Mua baăng keo gói hàng</t>
   </si>
   <si>
-    <t>Ship + 7 set váy</t>
-  </si>
-  <si>
-    <t>25/2</t>
-  </si>
-  <si>
-    <t>Nguyên còn cầm 456.000</t>
-  </si>
-  <si>
-    <t>lấy hàng</t>
-  </si>
-  <si>
     <t>23-26/2</t>
   </si>
   <si>
     <t>1/3</t>
+  </si>
+  <si>
+    <t>Làm đơn thứ 2</t>
+  </si>
+  <si>
+    <t>6/3/2022.</t>
+  </si>
+  <si>
+    <t>Hà lấy 500k</t>
+  </si>
+  <si>
+    <t>(trả tiền ship)</t>
   </si>
 </sst>
 </file>
@@ -332,7 +317,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -345,7 +330,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -355,6 +339,8 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -373,6 +359,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -684,62 +671,62 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="4.453125" customWidth="1"/>
     <col min="2" max="2" width="18.81640625" customWidth="1"/>
-    <col min="3" max="3" width="9.26953125" style="11" customWidth="1"/>
-    <col min="4" max="4" width="7.6328125" style="11" customWidth="1"/>
-    <col min="5" max="5" width="10.26953125" style="11" customWidth="1"/>
+    <col min="3" max="3" width="9.26953125" style="10" customWidth="1"/>
+    <col min="4" max="4" width="7.6328125" style="10" customWidth="1"/>
+    <col min="5" max="5" width="10.26953125" style="10" customWidth="1"/>
     <col min="7" max="7" width="12.7265625" customWidth="1"/>
-    <col min="8" max="8" width="13.08984375" style="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.453125" style="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.08984375" style="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.7265625" style="11" customWidth="1"/>
-    <col min="12" max="12" width="10.54296875" style="11" customWidth="1"/>
+    <col min="8" max="8" width="13.08984375" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.453125" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.08984375" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.7265625" style="10" customWidth="1"/>
+    <col min="12" max="12" width="10.54296875" style="10" customWidth="1"/>
     <col min="13" max="13" width="11.54296875" customWidth="1"/>
     <col min="14" max="14" width="6.6328125" customWidth="1"/>
     <col min="15" max="15" width="11.6328125" customWidth="1"/>
-    <col min="16" max="16" width="20.26953125" style="11" customWidth="1"/>
-    <col min="17" max="17" width="18.81640625" style="11" customWidth="1"/>
-    <col min="18" max="18" width="18.1796875" style="11" customWidth="1"/>
-    <col min="19" max="19" width="13.453125" style="11" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.26953125" style="10" customWidth="1"/>
+    <col min="17" max="17" width="18.81640625" style="10" customWidth="1"/>
+    <col min="18" max="18" width="18.1796875" style="10" customWidth="1"/>
+    <col min="19" max="19" width="13.453125" style="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="G1" s="20" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="G1" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
       <c r="M1" s="5"/>
     </row>
     <row r="2" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
       <c r="M2" s="3"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.35">
@@ -780,16 +767,16 @@
       <c r="O3" t="s">
         <v>9</v>
       </c>
-      <c r="P3" s="11" t="s">
+      <c r="P3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="11" t="s">
+      <c r="Q3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="R3" s="11" t="s">
+      <c r="R3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="S3" s="11" t="s">
+      <c r="S3" s="10" t="s">
         <v>10</v>
       </c>
     </row>
@@ -800,13 +787,13 @@
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="9">
         <v>130000</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="9">
         <v>1</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="9">
         <f>C4:C22*D4:D22</f>
         <v>130000</v>
       </c>
@@ -817,33 +804,33 @@
         <f xml:space="preserve"> 4099000</f>
         <v>4099000</v>
       </c>
-      <c r="I4" s="10">
-        <v>615000</v>
-      </c>
-      <c r="J4" s="10">
+      <c r="I4" s="9">
+        <v>250000</v>
+      </c>
+      <c r="J4" s="9">
         <f t="shared" ref="J4:J16" si="0">H4:H60+I4:I60</f>
-        <v>4714000</v>
-      </c>
-      <c r="K4" s="11">
+        <v>4349000</v>
+      </c>
+      <c r="K4" s="10">
         <v>5517000</v>
       </c>
-      <c r="L4" s="10">
+      <c r="L4" s="9">
         <f t="shared" ref="L4:L16" si="1">K4:K60-J4:J60</f>
-        <v>803000</v>
+        <v>1168000</v>
       </c>
       <c r="M4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="P4" s="11">
+      <c r="P4" s="10">
         <v>500000</v>
       </c>
-      <c r="Q4" s="11">
+      <c r="Q4" s="10">
         <v>500000</v>
       </c>
-      <c r="R4" s="11">
+      <c r="R4" s="10">
         <v>500000</v>
       </c>
-      <c r="S4" s="11">
+      <c r="S4" s="10">
         <f>SUM(Table1[NGỌC HÀ]+Table1[THẢO NGUYÊN]+Table1[PHƯƠNG HÀ])</f>
         <v>1500000</v>
       </c>
@@ -855,47 +842,47 @@
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="9">
         <v>777000</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="9">
         <v>1</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="9">
         <f t="shared" ref="E5:E22" si="2">C5:C23*D5:D23</f>
         <v>777000</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="8">
         <v>8452000</v>
       </c>
-      <c r="I5" s="10">
-        <v>250000</v>
-      </c>
-      <c r="J5" s="10">
+      <c r="I5" s="9">
+        <v>615000</v>
+      </c>
+      <c r="J5" s="9">
         <f t="shared" si="0"/>
-        <v>8702000</v>
-      </c>
-      <c r="K5" s="10">
+        <v>9067000</v>
+      </c>
+      <c r="K5" s="9">
         <v>10700000</v>
       </c>
-      <c r="L5" s="10">
+      <c r="L5" s="9">
         <f t="shared" si="1"/>
-        <v>1998000</v>
+        <v>1633000</v>
       </c>
       <c r="M5" s="2"/>
-      <c r="P5" s="11">
+      <c r="P5" s="10">
         <v>200000</v>
       </c>
-      <c r="Q5" s="11">
+      <c r="Q5" s="10">
         <v>200000</v>
       </c>
-      <c r="R5" s="11">
+      <c r="R5" s="10">
         <v>200000</v>
       </c>
-      <c r="S5" s="11">
+      <c r="S5" s="10">
         <f>SUM(Table1[NGỌC HÀ]+Table1[THẢO NGUYÊN]+Table1[PHƯƠNG HÀ])</f>
         <v>600000</v>
       </c>
@@ -907,51 +894,51 @@
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="9">
         <v>60000</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="9">
         <v>1</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="9">
         <f t="shared" si="2"/>
         <v>60000</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="8">
         <f>1621000 + 82000*4</f>
         <v>1949000</v>
       </c>
-      <c r="I6" s="12">
+      <c r="I6" s="11">
         <v>15000</v>
       </c>
-      <c r="J6" s="10">
+      <c r="J6" s="9">
         <f t="shared" si="0"/>
         <v>1964000</v>
       </c>
-      <c r="K6" s="10">
+      <c r="K6" s="9">
         <v>2738000</v>
       </c>
-      <c r="L6" s="10">
+      <c r="L6" s="9">
         <f t="shared" si="1"/>
         <v>774000</v>
       </c>
-      <c r="M6" s="16"/>
+      <c r="M6" s="15"/>
       <c r="O6" t="s">
         <v>33</v>
       </c>
-      <c r="P6" s="11">
+      <c r="P6" s="10">
         <v>1500000</v>
       </c>
-      <c r="Q6" s="11">
+      <c r="Q6" s="10">
         <v>1500000</v>
       </c>
-      <c r="R6" s="11">
+      <c r="R6" s="10">
         <v>1500000</v>
       </c>
-      <c r="S6" s="11">
+      <c r="S6" s="10">
         <f>SUM(Table1[NGỌC HÀ]+Table1[THẢO NGUYÊN]+Table1[PHƯƠNG HÀ])</f>
         <v>4500000</v>
       </c>
@@ -963,40 +950,40 @@
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="9">
         <v>80000</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="9">
         <v>1</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="9">
         <f t="shared" si="2"/>
         <v>80000</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="8">
         <f>82000*3</f>
         <v>246000</v>
       </c>
-      <c r="I7" s="12">
+      <c r="I7" s="11">
         <v>15000</v>
       </c>
-      <c r="J7" s="10">
+      <c r="J7" s="9">
         <f t="shared" si="0"/>
         <v>261000</v>
       </c>
-      <c r="K7" s="10">
+      <c r="K7" s="9">
         <f>170000*3</f>
         <v>510000</v>
       </c>
-      <c r="L7" s="10">
+      <c r="L7" s="9">
         <f t="shared" si="1"/>
         <v>249000</v>
       </c>
       <c r="M7" s="2"/>
-      <c r="S7" s="11">
+      <c r="S7" s="10">
         <f>SUM(Table1[NGỌC HÀ]+Table1[THẢO NGUYÊN]+Table1[PHƯƠNG HÀ])</f>
         <v>0</v>
       </c>
@@ -1008,36 +995,38 @@
       <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="9">
         <v>60000</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="9">
         <v>1</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="9">
         <f t="shared" si="2"/>
         <v>60000</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H8" s="9">
-        <v>1338000</v>
-      </c>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10">
+        <v>35</v>
+      </c>
+      <c r="H8" s="8">
+        <v>1040000</v>
+      </c>
+      <c r="I8" s="9">
+        <v>1155000</v>
+      </c>
+      <c r="J8" s="9">
         <f t="shared" si="0"/>
-        <v>1338000</v>
-      </c>
-      <c r="K8" s="10">
-        <v>1872000</v>
-      </c>
-      <c r="L8" s="10">
-        <f t="shared" si="1"/>
-        <v>534000</v>
+        <v>2195000</v>
+      </c>
+      <c r="K8" s="9">
+        <v>1492000</v>
+      </c>
+      <c r="L8" s="18">
+        <f>K8:K64-J8:J64</f>
+        <v>-703000</v>
       </c>
       <c r="M8" s="2"/>
-      <c r="S8" s="11">
+      <c r="S8" s="10">
         <f>SUM(Table1[NGỌC HÀ]+Table1[THẢO NGUYÊN]+Table1[PHƯƠNG HÀ])</f>
         <v>0</v>
       </c>
@@ -1049,36 +1038,38 @@
       <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="9">
         <v>10000</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="9">
         <v>1</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="9">
         <f t="shared" si="2"/>
         <v>10000</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H9" s="9">
+        <v>36</v>
+      </c>
+      <c r="H9" s="8">
         <v>230000</v>
       </c>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10">
+      <c r="I9" s="9">
+        <v>0</v>
+      </c>
+      <c r="J9" s="9">
         <f>H9:H65+I9:I65</f>
         <v>230000</v>
       </c>
-      <c r="K9" s="10">
+      <c r="K9" s="9">
         <v>389000</v>
       </c>
-      <c r="L9" s="10">
+      <c r="L9" s="9">
         <f t="shared" si="1"/>
         <v>159000</v>
       </c>
       <c r="M9" s="2"/>
-      <c r="S9" s="11">
+      <c r="S9" s="10">
         <f>SUM(Table1[NGỌC HÀ]+Table1[THẢO NGUYÊN]+Table1[PHƯƠNG HÀ])</f>
         <v>0</v>
       </c>
@@ -1090,51 +1081,53 @@
       <c r="B10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="9">
         <v>50000</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="9">
         <v>1</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="9">
         <f t="shared" si="2"/>
         <v>50000</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H10" s="9">
+        <v>39</v>
+      </c>
+      <c r="H10" s="8">
         <v>113000</v>
       </c>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10">
+      <c r="I10" s="9">
+        <v>0</v>
+      </c>
+      <c r="J10" s="9">
         <f>H10:H66+I10:I66</f>
         <v>113000</v>
       </c>
-      <c r="K10" s="10">
+      <c r="K10" s="9">
         <v>194000</v>
       </c>
-      <c r="L10" s="10">
+      <c r="L10" s="9">
         <f t="shared" si="1"/>
         <v>81000</v>
       </c>
-      <c r="M10" s="17"/>
+      <c r="M10" s="16"/>
       <c r="O10" t="s">
         <v>10</v>
       </c>
-      <c r="P10" s="11">
+      <c r="P10" s="10">
         <f xml:space="preserve"> SUM(P4:P9)</f>
         <v>2200000</v>
       </c>
-      <c r="Q10" s="11">
+      <c r="Q10" s="10">
         <f>SUM(Q4:Q9)</f>
         <v>2200000</v>
       </c>
-      <c r="R10" s="11">
+      <c r="R10" s="10">
         <f>SUM(R4:R9)</f>
         <v>2200000</v>
       </c>
-      <c r="S10" s="13">
+      <c r="S10" s="12">
         <f>SUM(Table1[NGỌC HÀ]+Table1[THẢO NGUYÊN]+Table1[PHƯƠNG HÀ])</f>
         <v>6600000</v>
       </c>
@@ -1146,31 +1139,31 @@
       <c r="B11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="9">
         <v>45000</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="9">
         <v>2</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E11" s="9">
         <f t="shared" si="2"/>
         <v>90000</v>
       </c>
-      <c r="G11" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="H11" s="9">
+      <c r="G11" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="8">
         <v>1126000</v>
       </c>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10">
+      <c r="I11" s="9"/>
+      <c r="J11" s="9">
         <f t="shared" si="0"/>
         <v>1126000</v>
       </c>
-      <c r="K11" s="10">
+      <c r="K11" s="9">
         <v>1520000</v>
       </c>
-      <c r="L11" s="10">
+      <c r="L11" s="9">
         <f t="shared" si="1"/>
         <v>394000</v>
       </c>
@@ -1183,25 +1176,25 @@
       <c r="B12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="9">
         <v>25000</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="9">
         <v>3</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E12" s="9">
         <f t="shared" si="2"/>
         <v>75000</v>
       </c>
       <c r="G12" s="1"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10">
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10">
+      <c r="K12" s="9"/>
+      <c r="L12" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1214,25 +1207,25 @@
       <c r="B13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13" s="9">
         <v>50000</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="9">
         <v>1</v>
       </c>
-      <c r="E13" s="10">
+      <c r="E13" s="9">
         <f t="shared" si="2"/>
         <v>50000</v>
       </c>
       <c r="G13" s="1"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10">
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10">
+      <c r="K13" s="9"/>
+      <c r="L13" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1244,25 +1237,25 @@
       <c r="B14" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C14" s="9">
         <v>50000</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="9">
         <v>1</v>
       </c>
-      <c r="E14" s="10">
+      <c r="E14" s="9">
         <f t="shared" si="2"/>
         <v>50000</v>
       </c>
       <c r="G14" s="1"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10">
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10">
+      <c r="K14" s="9"/>
+      <c r="L14" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1275,444 +1268,432 @@
       <c r="B15" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C15" s="9">
         <v>300000</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D15" s="9">
         <v>1</v>
       </c>
-      <c r="E15" s="10">
+      <c r="E15" s="9">
         <f t="shared" si="2"/>
         <v>300000</v>
       </c>
       <c r="G15" s="1"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10">
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10">
+      <c r="K15" s="9"/>
+      <c r="L15" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M15" s="2"/>
-      <c r="O15" t="s">
-        <v>37</v>
-      </c>
-      <c r="P15" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q15" s="11" t="s">
-        <v>38</v>
-      </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>13</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" s="10">
+        <v>37</v>
+      </c>
+      <c r="C16" s="9">
         <v>75000</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D16" s="9">
         <v>1</v>
       </c>
-      <c r="E16" s="10">
+      <c r="E16" s="9">
         <f t="shared" si="2"/>
         <v>75000</v>
       </c>
       <c r="G16" s="1"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10">
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10">
+      <c r="K16" s="9"/>
+      <c r="L16" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M16" s="2"/>
-      <c r="O16" t="s">
-        <v>35</v>
-      </c>
-      <c r="P16" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q16" s="11" t="s">
+      <c r="O16" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="P16" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q16" s="10" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>31</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17" s="10">
+        <v>38</v>
+      </c>
+      <c r="C17" s="9">
         <v>40000</v>
       </c>
-      <c r="D17" s="10">
+      <c r="D17" s="9">
         <v>1</v>
       </c>
-      <c r="E17" s="10">
+      <c r="E17" s="9">
         <f t="shared" si="2"/>
         <v>40000</v>
       </c>
       <c r="G17" s="1"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10">
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9">
         <f t="shared" ref="J17:J51" si="3">H17:H90+I17:I90</f>
         <v>0</v>
       </c>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10">
+      <c r="K17" s="9"/>
+      <c r="L17" s="9">
         <f t="shared" ref="L17:L51" si="4">K17:K90-J17:J90</f>
         <v>0</v>
       </c>
       <c r="M17" s="2"/>
-      <c r="O17" t="s">
-        <v>45</v>
-      </c>
-      <c r="P17" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q17" s="11" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>32</v>
       </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10">
+      <c r="B18" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="9">
+        <v>60000</v>
+      </c>
+      <c r="D18" s="9">
+        <v>1</v>
+      </c>
+      <c r="E18" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="G18" s="1"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10">
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M18" s="2"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>33</v>
       </c>
       <c r="B19" s="1"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10">
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G19" s="1"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10">
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M19" s="2"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>34</v>
       </c>
       <c r="B20" s="1"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10">
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G20" s="1"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10">
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M20" s="2"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>35</v>
       </c>
       <c r="B21" s="1"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10">
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G21" s="1"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10">
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M21" s="2"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>47</v>
       </c>
       <c r="B22" s="1"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10">
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G22" s="1"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10">
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M22" s="2"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A23" s="21" t="s">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A23" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="22"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="14">
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="13">
         <f>SUM(E4:E22)</f>
-        <v>1847000</v>
+        <v>1907000</v>
       </c>
       <c r="G23" s="1"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10">
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M23" s="2"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
       <c r="G24" s="1"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10">
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M24" s="2"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
       <c r="G25" s="1"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10">
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M25" s="2"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
       <c r="G26" s="1"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K26" s="10"/>
-      <c r="L26" s="10">
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M26" s="2"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
       <c r="G27" s="1"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K27" s="10"/>
-      <c r="L27" s="10">
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M27" s="2"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
       <c r="G28" s="1"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K28" s="10"/>
-      <c r="L28" s="10">
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M28" s="2"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K29" s="10"/>
-      <c r="L29" s="10">
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M29" s="2"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
       <c r="G30" s="1"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K30" s="10"/>
-      <c r="L30" s="10">
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K30" s="9"/>
+      <c r="L30" s="9">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M30" s="2"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
       <c r="G31" s="1"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K31" s="10"/>
-      <c r="L31" s="10">
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K31" s="9"/>
+      <c r="L31" s="9">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M31" s="2"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
       <c r="G32" s="1"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K32" s="10"/>
-      <c r="L32" s="10">
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K32" s="9"/>
+      <c r="L32" s="9">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -1721,18 +1702,18 @@
     <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
       <c r="G33" s="1"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K33" s="10"/>
-      <c r="L33" s="10">
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K33" s="9"/>
+      <c r="L33" s="9">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -1741,18 +1722,18 @@
     <row r="34" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
       <c r="G34" s="1"/>
-      <c r="H34" s="10"/>
-      <c r="I34" s="10"/>
-      <c r="J34" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K34" s="10"/>
-      <c r="L34" s="10">
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K34" s="9"/>
+      <c r="L34" s="9">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -1761,18 +1742,18 @@
     <row r="35" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
       <c r="G35" s="1"/>
-      <c r="H35" s="10"/>
-      <c r="I35" s="10"/>
-      <c r="J35" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K35" s="10"/>
-      <c r="L35" s="10">
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K35" s="9"/>
+      <c r="L35" s="9">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -1781,18 +1762,18 @@
     <row r="36" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
       <c r="G36" s="1"/>
-      <c r="H36" s="10"/>
-      <c r="I36" s="10"/>
-      <c r="J36" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K36" s="10"/>
-      <c r="L36" s="10">
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K36" s="9"/>
+      <c r="L36" s="9">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -1801,18 +1782,18 @@
     <row r="37" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
       <c r="G37" s="1"/>
-      <c r="H37" s="10"/>
-      <c r="I37" s="10"/>
-      <c r="J37" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K37" s="10"/>
-      <c r="L37" s="10">
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K37" s="9"/>
+      <c r="L37" s="9">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -1821,18 +1802,18 @@
     <row r="38" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
       <c r="G38" s="1"/>
-      <c r="H38" s="10"/>
-      <c r="I38" s="10"/>
-      <c r="J38" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K38" s="10"/>
-      <c r="L38" s="10">
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K38" s="9"/>
+      <c r="L38" s="9">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -1841,18 +1822,18 @@
     <row r="39" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
       <c r="G39" s="1"/>
-      <c r="H39" s="10"/>
-      <c r="I39" s="10"/>
-      <c r="J39" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K39" s="10"/>
-      <c r="L39" s="10">
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K39" s="9"/>
+      <c r="L39" s="9">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -1861,18 +1842,18 @@
     <row r="40" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
       <c r="G40" s="1"/>
-      <c r="H40" s="10"/>
-      <c r="I40" s="10"/>
-      <c r="J40" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K40" s="10"/>
-      <c r="L40" s="10">
+      <c r="H40" s="9"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K40" s="9"/>
+      <c r="L40" s="9">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -1881,18 +1862,18 @@
     <row r="41" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
       <c r="G41" s="1"/>
-      <c r="H41" s="10"/>
-      <c r="I41" s="10"/>
-      <c r="J41" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K41" s="10"/>
-      <c r="L41" s="10">
+      <c r="H41" s="9"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K41" s="9"/>
+      <c r="L41" s="9">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -1901,18 +1882,18 @@
     <row r="42" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="10"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
       <c r="G42" s="1"/>
-      <c r="H42" s="10"/>
-      <c r="I42" s="10"/>
-      <c r="J42" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K42" s="10"/>
-      <c r="L42" s="10">
+      <c r="H42" s="9"/>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K42" s="9"/>
+      <c r="L42" s="9">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -1921,18 +1902,18 @@
     <row r="43" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="10"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
       <c r="G43" s="1"/>
-      <c r="H43" s="10"/>
-      <c r="I43" s="10"/>
-      <c r="J43" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K43" s="10"/>
-      <c r="L43" s="10">
+      <c r="H43" s="9"/>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K43" s="9"/>
+      <c r="L43" s="9">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -1941,18 +1922,18 @@
     <row r="44" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
-      <c r="C44" s="10"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="10"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
       <c r="G44" s="1"/>
-      <c r="H44" s="10"/>
-      <c r="I44" s="10"/>
-      <c r="J44" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K44" s="10"/>
-      <c r="L44" s="10">
+      <c r="H44" s="9"/>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K44" s="9"/>
+      <c r="L44" s="9">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -1961,18 +1942,18 @@
     <row r="45" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="10"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
       <c r="G45" s="1"/>
-      <c r="H45" s="10"/>
-      <c r="I45" s="10"/>
-      <c r="J45" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K45" s="10"/>
-      <c r="L45" s="10">
+      <c r="H45" s="9"/>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K45" s="9"/>
+      <c r="L45" s="9">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -1981,18 +1962,18 @@
     <row r="46" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
-      <c r="C46" s="10"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="10"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
       <c r="G46" s="1"/>
-      <c r="H46" s="10"/>
-      <c r="I46" s="10"/>
-      <c r="J46" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K46" s="10"/>
-      <c r="L46" s="10">
+      <c r="H46" s="9"/>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K46" s="9"/>
+      <c r="L46" s="9">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -2001,18 +1982,18 @@
     <row r="47" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
-      <c r="C47" s="10"/>
-      <c r="D47" s="10"/>
-      <c r="E47" s="10"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
       <c r="G47" s="1"/>
-      <c r="H47" s="10"/>
-      <c r="I47" s="10"/>
-      <c r="J47" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K47" s="10"/>
-      <c r="L47" s="10">
+      <c r="H47" s="9"/>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K47" s="9"/>
+      <c r="L47" s="9">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -2021,18 +2002,18 @@
     <row r="48" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
-      <c r="C48" s="10"/>
-      <c r="D48" s="10"/>
-      <c r="E48" s="10"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
       <c r="G48" s="1"/>
-      <c r="H48" s="10"/>
-      <c r="I48" s="10"/>
-      <c r="J48" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K48" s="10"/>
-      <c r="L48" s="10">
+      <c r="H48" s="9"/>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K48" s="9"/>
+      <c r="L48" s="9">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -2041,18 +2022,18 @@
     <row r="49" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="10"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
       <c r="G49" s="1"/>
-      <c r="H49" s="10"/>
-      <c r="I49" s="10"/>
-      <c r="J49" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K49" s="10"/>
-      <c r="L49" s="10">
+      <c r="H49" s="9"/>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K49" s="9"/>
+      <c r="L49" s="9">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -2061,18 +2042,18 @@
     <row r="50" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
-      <c r="C50" s="10"/>
-      <c r="D50" s="10"/>
-      <c r="E50" s="10"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
       <c r="G50" s="1"/>
-      <c r="H50" s="10"/>
-      <c r="I50" s="10"/>
-      <c r="J50" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K50" s="10"/>
-      <c r="L50" s="10">
+      <c r="H50" s="9"/>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K50" s="9"/>
+      <c r="L50" s="9">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -2081,18 +2062,18 @@
     <row r="51" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
-      <c r="C51" s="10"/>
-      <c r="D51" s="10"/>
-      <c r="E51" s="10"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9"/>
       <c r="G51" s="1"/>
-      <c r="H51" s="10"/>
-      <c r="I51" s="10"/>
-      <c r="J51" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K51" s="10"/>
-      <c r="L51" s="10">
+      <c r="H51" s="9"/>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K51" s="9"/>
+      <c r="L51" s="9">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -2101,18 +2082,18 @@
     <row r="52" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
-      <c r="C52" s="10"/>
-      <c r="D52" s="10"/>
-      <c r="E52" s="10"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
       <c r="G52" s="1"/>
-      <c r="H52" s="10"/>
-      <c r="I52" s="10"/>
-      <c r="J52" s="10">
+      <c r="H52" s="9"/>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9">
         <f t="shared" ref="J52:J60" si="5">H52:H125+I52:I125</f>
         <v>0</v>
       </c>
-      <c r="K52" s="10"/>
-      <c r="L52" s="10">
+      <c r="K52" s="9"/>
+      <c r="L52" s="9">
         <f t="shared" ref="L52:L60" si="6">K52:K125-J52:J125</f>
         <v>0</v>
       </c>
@@ -2121,18 +2102,18 @@
     <row r="53" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
-      <c r="C53" s="10"/>
-      <c r="D53" s="10"/>
-      <c r="E53" s="10"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
       <c r="G53" s="1"/>
-      <c r="H53" s="10"/>
-      <c r="I53" s="10"/>
-      <c r="J53" s="10">
+      <c r="H53" s="9"/>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K53" s="10"/>
-      <c r="L53" s="10">
+      <c r="K53" s="9"/>
+      <c r="L53" s="9">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -2141,18 +2122,18 @@
     <row r="54" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
-      <c r="C54" s="10"/>
-      <c r="D54" s="10"/>
-      <c r="E54" s="10"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
       <c r="G54" s="1"/>
-      <c r="H54" s="10"/>
-      <c r="I54" s="10"/>
-      <c r="J54" s="10">
+      <c r="H54" s="9"/>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K54" s="10"/>
-      <c r="L54" s="10">
+      <c r="K54" s="9"/>
+      <c r="L54" s="9">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -2161,18 +2142,18 @@
     <row r="55" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
-      <c r="C55" s="10"/>
-      <c r="D55" s="10"/>
-      <c r="E55" s="10"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="9"/>
       <c r="G55" s="1"/>
-      <c r="H55" s="10"/>
-      <c r="I55" s="10"/>
-      <c r="J55" s="10">
+      <c r="H55" s="9"/>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K55" s="10"/>
-      <c r="L55" s="10">
+      <c r="K55" s="9"/>
+      <c r="L55" s="9">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -2181,18 +2162,18 @@
     <row r="56" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
-      <c r="C56" s="10"/>
-      <c r="D56" s="10"/>
-      <c r="E56" s="10"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="9"/>
       <c r="G56" s="1"/>
-      <c r="H56" s="10"/>
-      <c r="I56" s="10"/>
-      <c r="J56" s="10">
+      <c r="H56" s="9"/>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K56" s="10"/>
-      <c r="L56" s="10">
+      <c r="K56" s="9"/>
+      <c r="L56" s="9">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -2201,18 +2182,18 @@
     <row r="57" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
-      <c r="C57" s="10"/>
-      <c r="D57" s="10"/>
-      <c r="E57" s="10"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="9"/>
       <c r="G57" s="1"/>
-      <c r="H57" s="10"/>
-      <c r="I57" s="10"/>
-      <c r="J57" s="10">
+      <c r="H57" s="9"/>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K57" s="10"/>
-      <c r="L57" s="10">
+      <c r="K57" s="9"/>
+      <c r="L57" s="9">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -2221,18 +2202,18 @@
     <row r="58" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
-      <c r="C58" s="10"/>
-      <c r="D58" s="10"/>
-      <c r="E58" s="10"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="9"/>
       <c r="G58" s="1"/>
-      <c r="H58" s="10"/>
-      <c r="I58" s="10"/>
-      <c r="J58" s="10">
+      <c r="H58" s="9"/>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K58" s="10"/>
-      <c r="L58" s="10">
+      <c r="K58" s="9"/>
+      <c r="L58" s="9">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -2241,18 +2222,18 @@
     <row r="59" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
-      <c r="C59" s="10"/>
-      <c r="D59" s="10"/>
-      <c r="E59" s="10"/>
+      <c r="C59" s="9"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="9"/>
       <c r="G59" s="1"/>
-      <c r="H59" s="10"/>
-      <c r="I59" s="10"/>
-      <c r="J59" s="10">
+      <c r="H59" s="9"/>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K59" s="10"/>
-      <c r="L59" s="10">
+      <c r="K59" s="9"/>
+      <c r="L59" s="9">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -2261,18 +2242,18 @@
     <row r="60" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
-      <c r="C60" s="10"/>
-      <c r="D60" s="10"/>
-      <c r="E60" s="10"/>
+      <c r="C60" s="9"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="9"/>
       <c r="G60" s="1"/>
-      <c r="H60" s="10"/>
-      <c r="I60" s="10"/>
-      <c r="J60" s="10">
+      <c r="H60" s="9"/>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K60" s="10"/>
-      <c r="L60" s="10">
+      <c r="K60" s="9"/>
+      <c r="L60" s="9">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>

--- a/Chi tiêu.xlsx
+++ b/Chi tiêu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KẾ HOẠCH\Yolo-Fashion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34E5DF42-D461-4F64-9609-4D2CA582C6EE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F27812CF-9715-4F96-93C9-4DD973915C9E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="44">
   <si>
     <t>Tên</t>
   </si>
@@ -127,9 +127,6 @@
   </si>
   <si>
     <t>Mượn tiền nhập hàng</t>
-  </si>
-  <si>
-    <t>cọc 2tr, còn 2tr1</t>
   </si>
   <si>
     <t>18/2-22/2</t>
@@ -341,6 +338,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -359,7 +357,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -672,7 +669,7 @@
   <dimension ref="A1:S60"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -698,35 +695,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="G1" s="21" t="s">
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="G1" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
       <c r="M1" s="5"/>
     </row>
     <row r="2" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="20"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
       <c r="M2" s="3"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.35">
@@ -818,9 +815,7 @@
         <f t="shared" ref="L4:L16" si="1">K4:K60-J4:J60</f>
         <v>1168000</v>
       </c>
-      <c r="M4" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="M4" s="2"/>
       <c r="P4" s="10">
         <v>500000</v>
       </c>
@@ -1006,7 +1001,7 @@
         <v>60000</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H8" s="8">
         <v>1040000</v>
@@ -1049,7 +1044,7 @@
         <v>10000</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H9" s="8">
         <v>230000</v>
@@ -1092,7 +1087,7 @@
         <v>50000</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H10" s="8">
         <v>113000</v>
@@ -1150,7 +1145,7 @@
         <v>90000</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H11" s="8">
         <v>1126000</v>
@@ -1297,7 +1292,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C16" s="9">
         <v>75000</v>
@@ -1322,14 +1317,14 @@
         <v>0</v>
       </c>
       <c r="M16" s="2"/>
-      <c r="O16" s="25" t="s">
+      <c r="O16" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="P16" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="P16" s="10" t="s">
+      <c r="Q16" s="10" t="s">
         <v>43</v>
-      </c>
-      <c r="Q16" s="10" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.35">
@@ -1337,7 +1332,7 @@
         <v>31</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C17" s="9">
         <v>40000</v>
@@ -1368,7 +1363,7 @@
         <v>32</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C18" s="9">
         <v>60000</v>
@@ -1495,12 +1490,12 @@
       <c r="M22" s="2"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A23" s="22" t="s">
+      <c r="A23" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="23"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="24"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="25"/>
       <c r="E23" s="13">
         <f>SUM(E4:E22)</f>
         <v>1907000</v>

--- a/Chi tiêu.xlsx
+++ b/Chi tiêu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KẾ HOẠCH\Yolo-Fashion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F27812CF-9715-4F96-93C9-4DD973915C9E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E9CADD3-39B2-405C-938D-18B5842E8F12}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
   <si>
     <t>Tên</t>
   </si>
@@ -148,15 +148,6 @@
   </si>
   <si>
     <t>Làm đơn thứ 2</t>
-  </si>
-  <si>
-    <t>6/3/2022.</t>
-  </si>
-  <si>
-    <t>Hà lấy 500k</t>
-  </si>
-  <si>
-    <t>(trả tiền ship)</t>
   </si>
 </sst>
 </file>
@@ -314,7 +305,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -337,7 +328,6 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -668,8 +658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -695,35 +685,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="G1" s="22" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="G1" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
       <c r="M1" s="5"/>
     </row>
     <row r="2" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
       <c r="M2" s="3"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.35">
@@ -798,22 +788,22 @@
         <v>27</v>
       </c>
       <c r="H4" s="8">
-        <f xml:space="preserve"> 4099000</f>
-        <v>4099000</v>
+        <f xml:space="preserve"> 4099000-232000-116000-220000</f>
+        <v>3531000</v>
       </c>
       <c r="I4" s="9">
         <v>250000</v>
       </c>
       <c r="J4" s="9">
         <f t="shared" ref="J4:J16" si="0">H4:H60+I4:I60</f>
-        <v>4349000</v>
+        <v>3781000</v>
       </c>
       <c r="K4" s="10">
-        <v>5517000</v>
+        <v>5147000</v>
       </c>
       <c r="L4" s="9">
         <f t="shared" ref="L4:L16" si="1">K4:K60-J4:J60</f>
-        <v>1168000</v>
+        <v>1366000</v>
       </c>
       <c r="M4" s="2"/>
       <c r="P4" s="10">
@@ -854,18 +844,19 @@
         <v>8452000</v>
       </c>
       <c r="I5" s="9">
-        <v>615000</v>
+        <f>(615000+1155000+400000)-2060000</f>
+        <v>110000</v>
       </c>
       <c r="J5" s="9">
         <f t="shared" si="0"/>
-        <v>9067000</v>
+        <v>8562000</v>
       </c>
       <c r="K5" s="9">
         <v>10700000</v>
       </c>
       <c r="L5" s="9">
         <f t="shared" si="1"/>
-        <v>1633000</v>
+        <v>2138000</v>
       </c>
       <c r="M5" s="2"/>
       <c r="P5" s="10">
@@ -977,7 +968,7 @@
         <f t="shared" si="1"/>
         <v>249000</v>
       </c>
-      <c r="M7" s="2"/>
+      <c r="M7" s="15"/>
       <c r="S7" s="10">
         <f>SUM(Table1[NGỌC HÀ]+Table1[THẢO NGUYÊN]+Table1[PHƯƠNG HÀ])</f>
         <v>0</v>
@@ -1006,19 +997,17 @@
       <c r="H8" s="8">
         <v>1040000</v>
       </c>
-      <c r="I8" s="9">
-        <v>1155000</v>
-      </c>
+      <c r="I8" s="9"/>
       <c r="J8" s="9">
         <f t="shared" si="0"/>
-        <v>2195000</v>
+        <v>1040000</v>
       </c>
       <c r="K8" s="9">
         <v>1492000</v>
       </c>
-      <c r="L8" s="18">
-        <f>K8:K64-J8:J64</f>
-        <v>-703000</v>
+      <c r="L8" s="9">
+        <f t="shared" si="1"/>
+        <v>452000</v>
       </c>
       <c r="M8" s="2"/>
       <c r="S8" s="10">
@@ -1317,15 +1306,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="2"/>
-      <c r="O16" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="P16" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q16" s="10" t="s">
-        <v>43</v>
-      </c>
+      <c r="O16" s="18"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
@@ -1490,12 +1471,12 @@
       <c r="M22" s="2"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A23" s="23" t="s">
+      <c r="A23" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="24"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="25"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="24"/>
       <c r="E23" s="13">
         <f>SUM(E4:E22)</f>
         <v>1907000</v>

--- a/Chi tiêu.xlsx
+++ b/Chi tiêu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KẾ HOẠCH\Yolo-Fashion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E9CADD3-39B2-405C-938D-18B5842E8F12}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2755547C-8E36-45B4-8B3B-0082DC14183C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
   <si>
     <t>Tên</t>
   </si>
@@ -148,6 +148,9 @@
   </si>
   <si>
     <t>Làm đơn thứ 2</t>
+  </si>
+  <si>
+    <t>Mua bút + keo dán</t>
   </si>
 </sst>
 </file>
@@ -659,7 +662,7 @@
   <dimension ref="A1:S60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -788,22 +791,22 @@
         <v>27</v>
       </c>
       <c r="H4" s="8">
-        <f xml:space="preserve"> 4099000-232000-116000-220000</f>
-        <v>3531000</v>
+        <f xml:space="preserve"> 4099000-232000-116000+220000</f>
+        <v>3971000</v>
       </c>
       <c r="I4" s="9">
         <v>250000</v>
       </c>
       <c r="J4" s="9">
         <f t="shared" ref="J4:J16" si="0">H4:H60+I4:I60</f>
-        <v>3781000</v>
+        <v>4221000</v>
       </c>
       <c r="K4" s="10">
         <v>5147000</v>
       </c>
       <c r="L4" s="9">
         <f t="shared" ref="L4:L16" si="1">K4:K60-J4:J60</f>
-        <v>1366000</v>
+        <v>926000</v>
       </c>
       <c r="M4" s="2"/>
       <c r="P4" s="10">
@@ -843,20 +846,17 @@
       <c r="H5" s="8">
         <v>8452000</v>
       </c>
-      <c r="I5" s="9">
-        <f>(615000+1155000+400000)-2060000</f>
-        <v>110000</v>
-      </c>
+      <c r="I5" s="9"/>
       <c r="J5" s="9">
         <f t="shared" si="0"/>
-        <v>8562000</v>
+        <v>8452000</v>
       </c>
       <c r="K5" s="9">
         <v>10700000</v>
       </c>
       <c r="L5" s="9">
         <f t="shared" si="1"/>
-        <v>2138000</v>
+        <v>2248000</v>
       </c>
       <c r="M5" s="2"/>
       <c r="P5" s="10">
@@ -997,17 +997,19 @@
       <c r="H8" s="8">
         <v>1040000</v>
       </c>
-      <c r="I8" s="9"/>
+      <c r="I8" s="9">
+        <v>418000</v>
+      </c>
       <c r="J8" s="9">
         <f t="shared" si="0"/>
-        <v>1040000</v>
+        <v>1458000</v>
       </c>
       <c r="K8" s="9">
         <v>1492000</v>
       </c>
       <c r="L8" s="9">
         <f t="shared" si="1"/>
-        <v>452000</v>
+        <v>34000</v>
       </c>
       <c r="M8" s="2"/>
       <c r="S8" s="10">
@@ -1095,7 +1097,10 @@
         <f t="shared" si="1"/>
         <v>81000</v>
       </c>
-      <c r="M10" s="16"/>
+      <c r="M10" s="16">
+        <f>SUM(L4:L11)</f>
+        <v>4865000</v>
+      </c>
       <c r="O10" t="s">
         <v>10</v>
       </c>
@@ -1347,14 +1352,14 @@
         <v>40</v>
       </c>
       <c r="C18" s="9">
-        <v>60000</v>
+        <v>75000</v>
       </c>
       <c r="D18" s="9">
         <v>1</v>
       </c>
       <c r="E18" s="9">
         <f t="shared" si="2"/>
-        <v>60000</v>
+        <v>75000</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="9"/>
@@ -1374,12 +1379,18 @@
       <c r="A19" s="1">
         <v>33</v>
       </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
+      <c r="B19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="9">
+        <v>15000</v>
+      </c>
+      <c r="D19" s="9">
+        <v>1</v>
+      </c>
       <c r="E19" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="9"/>
@@ -1479,7 +1490,7 @@
       <c r="D23" s="24"/>
       <c r="E23" s="13">
         <f>SUM(E4:E22)</f>
-        <v>1907000</v>
+        <v>1937000</v>
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="9"/>

--- a/Chi tiêu.xlsx
+++ b/Chi tiêu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KẾ HOẠCH\Yolo-Fashion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2755547C-8E36-45B4-8B3B-0082DC14183C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B517963E-E843-41C6-95F6-652352DD9FF8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -662,7 +662,7 @@
   <dimension ref="A1:S60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1005,11 +1005,11 @@
         <v>1458000</v>
       </c>
       <c r="K8" s="9">
-        <v>1492000</v>
+        <v>1482000</v>
       </c>
       <c r="L8" s="9">
         <f t="shared" si="1"/>
-        <v>34000</v>
+        <v>24000</v>
       </c>
       <c r="M8" s="2"/>
       <c r="S8" s="10">
@@ -1099,7 +1099,7 @@
       </c>
       <c r="M10" s="16">
         <f>SUM(L4:L11)</f>
-        <v>4865000</v>
+        <v>4855000</v>
       </c>
       <c r="O10" t="s">
         <v>10</v>
